--- a/AFL_ML/Data/North Melbourne_stats.xlsx
+++ b/AFL_ML/Data/North Melbourne_stats.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:JJ102"/>
+  <dimension ref="A1:JK102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1234,6 +1234,9 @@
       <c r="JJ1" t="n">
         <v>10739</v>
       </c>
+      <c r="JK1" t="n">
+        <v>10753</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -2048,6 +2051,9 @@
       <c r="JJ2" t="n">
         <v>2022</v>
       </c>
+      <c r="JK2" t="n">
+        <v>2023</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2862,6 +2868,9 @@
       <c r="JJ3" t="n">
         <v>23</v>
       </c>
+      <c r="JK3" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3676,6 +3685,9 @@
       <c r="JJ4" t="n">
         <v>0</v>
       </c>
+      <c r="JK4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -4490,6 +4502,9 @@
       <c r="JJ5" t="n">
         <v>1</v>
       </c>
+      <c r="JK5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -5304,6 +5319,9 @@
       <c r="JJ6" t="n">
         <v>47</v>
       </c>
+      <c r="JK6" t="n">
+        <v>87</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -6118,6 +6136,9 @@
       <c r="JJ7" t="n">
         <v>114</v>
       </c>
+      <c r="JK7" t="n">
+        <v>82</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -6932,6 +6953,9 @@
       <c r="JJ8" t="n">
         <v>-67</v>
       </c>
+      <c r="JK8" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -7746,6 +7770,9 @@
       <c r="JJ9" t="n">
         <v>0</v>
       </c>
+      <c r="JK9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -8560,6 +8587,9 @@
       <c r="JJ10" t="n">
         <v>8</v>
       </c>
+      <c r="JK10" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -9374,6 +9404,9 @@
       <c r="JJ11" t="n">
         <v>217</v>
       </c>
+      <c r="JK11" t="n">
+        <v>208</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -10188,6 +10221,9 @@
       <c r="JJ12" t="n">
         <v>184</v>
       </c>
+      <c r="JK12" t="n">
+        <v>174</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -11002,6 +11038,9 @@
       <c r="JJ13" t="n">
         <v>401</v>
       </c>
+      <c r="JK13" t="n">
+        <v>382</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -11816,6 +11855,9 @@
       <c r="JJ14" t="n">
         <v>1.18</v>
       </c>
+      <c r="JK14" t="n">
+        <v>1.2</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -12630,6 +12672,9 @@
       <c r="JJ15" t="n">
         <v>106</v>
       </c>
+      <c r="JK15" t="n">
+        <v>77</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -13444,6 +13489,9 @@
       <c r="JJ16" t="n">
         <v>53</v>
       </c>
+      <c r="JK16" t="n">
+        <v>69</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -14258,6 +14306,9 @@
       <c r="JJ17" t="n">
         <v>35</v>
       </c>
+      <c r="JK17" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -15072,6 +15123,9 @@
       <c r="JJ18" t="n">
         <v>19</v>
       </c>
+      <c r="JK18" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -15886,6 +15940,9 @@
       <c r="JJ19" t="n">
         <v>19</v>
       </c>
+      <c r="JK19" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -16700,6 +16757,9 @@
       <c r="JJ20" t="n">
         <v>6</v>
       </c>
+      <c r="JK20" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -17514,6 +17574,9 @@
       <c r="JJ21" t="n">
         <v>4</v>
       </c>
+      <c r="JK21" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -18328,6 +18391,9 @@
       <c r="JJ22" t="n">
         <v>9</v>
       </c>
+      <c r="JK22" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -19142,6 +19208,9 @@
       <c r="JJ23" t="n">
         <v>2</v>
       </c>
+      <c r="JK23" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -19956,6 +20025,9 @@
       <c r="JJ24" t="n">
         <v>17</v>
       </c>
+      <c r="JK24" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -20770,6 +20842,9 @@
       <c r="JJ25" t="n">
         <v>35.3</v>
       </c>
+      <c r="JK25" t="n">
+        <v>44.4</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -21584,6 +21659,9 @@
       <c r="JJ26" t="n">
         <v>66.83</v>
       </c>
+      <c r="JK26" t="n">
+        <v>31.83</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -22398,6 +22476,9 @@
       <c r="JJ27" t="n">
         <v>23.59</v>
       </c>
+      <c r="JK27" t="n">
+        <v>14.15</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -23212,6 +23293,9 @@
       <c r="JJ28" t="n">
         <v>26</v>
       </c>
+      <c r="JK28" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -24026,6 +24110,9 @@
       <c r="JJ29" t="n">
         <v>56</v>
       </c>
+      <c r="JK29" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -24840,6 +24927,9 @@
       <c r="JJ30" t="n">
         <v>55</v>
       </c>
+      <c r="JK30" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -25654,6 +25744,9 @@
       <c r="JJ31" t="n">
         <v>45</v>
       </c>
+      <c r="JK31" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -26468,6 +26561,9 @@
       <c r="JJ32" t="n">
         <v>2.65</v>
       </c>
+      <c r="JK32" t="n">
+        <v>1.81</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -27282,6 +27378,9 @@
       <c r="JJ33" t="n">
         <v>7.5</v>
       </c>
+      <c r="JK33" t="n">
+        <v>4.08</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -28096,6 +28195,9 @@
       <c r="JJ34" t="n">
         <v>33.3</v>
       </c>
+      <c r="JK34" t="n">
+        <v>46.9</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -28910,6 +29012,9 @@
       <c r="JJ35" t="n">
         <v>13.3</v>
       </c>
+      <c r="JK35" t="n">
+        <v>24.5</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -29724,6 +29829,9 @@
       <c r="JJ36" t="n">
         <v>189</v>
       </c>
+      <c r="JK36" t="n">
+        <v>188.2</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -30538,6 +30646,9 @@
       <c r="JJ37" t="n">
         <v>84.3</v>
       </c>
+      <c r="JK37" t="n">
+        <v>83.5</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -31352,6 +31463,9 @@
       <c r="JJ38" t="n">
         <v>24.16</v>
       </c>
+      <c r="JK38" t="n">
+        <v>24.58</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -32166,6 +32280,9 @@
       <c r="JJ39" t="n">
         <v>75.7</v>
       </c>
+      <c r="JK39" t="n">
+        <v>81.3</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -32980,6 +33097,9 @@
       <c r="JJ40" t="n">
         <v>10</v>
       </c>
+      <c r="JK40" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -33794,6 +33914,9 @@
       <c r="JJ41" t="n">
         <v>6</v>
       </c>
+      <c r="JK41" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -34608,6 +34731,9 @@
       <c r="JJ42" t="n">
         <v>4</v>
       </c>
+      <c r="JK42" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -35422,6 +35548,9 @@
       <c r="JJ43" t="n">
         <v>3</v>
       </c>
+      <c r="JK43" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -36236,6 +36365,9 @@
       <c r="JJ44" t="n">
         <v>122</v>
       </c>
+      <c r="JK44" t="n">
+        <v>152</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -37050,6 +37182,9 @@
       <c r="JJ45" t="n">
         <v>271</v>
       </c>
+      <c r="JK45" t="n">
+        <v>223</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -37864,6 +37999,9 @@
       <c r="JJ46" t="n">
         <v>311</v>
       </c>
+      <c r="JK46" t="n">
+        <v>281</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -38678,6 +38816,9 @@
       <c r="JJ47" t="n">
         <v>77.59999999999999</v>
       </c>
+      <c r="JK47" t="n">
+        <v>73.59999999999999</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -39492,6 +39633,9 @@
       <c r="JJ48" t="n">
         <v>56</v>
       </c>
+      <c r="JK48" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -40306,6 +40450,9 @@
       <c r="JJ49" t="n">
         <v>9</v>
       </c>
+      <c r="JK49" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -41120,6 +41267,9 @@
       <c r="JJ50" t="n">
         <v>6</v>
       </c>
+      <c r="JK50" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -41934,6 +42084,9 @@
       <c r="JJ51" t="n">
         <v>26</v>
       </c>
+      <c r="JK51" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -42748,6 +42901,9 @@
       <c r="JJ52" t="n">
         <v>55</v>
       </c>
+      <c r="JK52" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -43562,6 +43718,9 @@
       <c r="JJ53" t="n">
         <v>42</v>
       </c>
+      <c r="JK53" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -44376,6 +44535,9 @@
       <c r="JJ54" t="n">
         <v>12</v>
       </c>
+      <c r="JK54" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -45190,6 +45352,9 @@
       <c r="JJ55" t="n">
         <v>4</v>
       </c>
+      <c r="JK55" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -46004,6 +46169,9 @@
       <c r="JJ56" t="n">
         <v>66.7</v>
       </c>
+      <c r="JK56" t="n">
+        <v>75</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -46818,6 +46986,9 @@
       <c r="JJ57" t="n">
         <v>249</v>
       </c>
+      <c r="JK57" t="n">
+        <v>198</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -47632,6 +47803,9 @@
       <c r="JJ58" t="n">
         <v>128</v>
       </c>
+      <c r="JK58" t="n">
+        <v>144</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -48446,6 +48620,9 @@
       <c r="JJ59" t="n">
         <v>377</v>
       </c>
+      <c r="JK59" t="n">
+        <v>342</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -49260,6 +49437,9 @@
       <c r="JJ60" t="n">
         <v>1.95</v>
       </c>
+      <c r="JK60" t="n">
+        <v>1.38</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -50074,6 +50254,9 @@
       <c r="JJ61" t="n">
         <v>109</v>
       </c>
+      <c r="JK61" t="n">
+        <v>97</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -50888,6 +51071,9 @@
       <c r="JJ62" t="n">
         <v>61</v>
       </c>
+      <c r="JK62" t="n">
+        <v>72</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -51702,6 +51888,9 @@
       <c r="JJ63" t="n">
         <v>35</v>
       </c>
+      <c r="JK63" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -52516,6 +52705,9 @@
       <c r="JJ64" t="n">
         <v>19</v>
       </c>
+      <c r="JK64" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -53330,6 +53522,9 @@
       <c r="JJ65" t="n">
         <v>19</v>
       </c>
+      <c r="JK65" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -54144,6 +54339,9 @@
       <c r="JJ66" t="n">
         <v>16</v>
       </c>
+      <c r="JK66" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -54958,6 +55156,9 @@
       <c r="JJ67" t="n">
         <v>13</v>
       </c>
+      <c r="JK67" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -55772,6 +55973,9 @@
       <c r="JJ68" t="n">
         <v>17</v>
       </c>
+      <c r="JK68" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -56586,6 +56790,9 @@
       <c r="JJ69" t="n">
         <v>1</v>
       </c>
+      <c r="JK69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -57400,6 +57607,9 @@
       <c r="JJ70" t="n">
         <v>34</v>
       </c>
+      <c r="JK70" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -58214,6 +58424,9 @@
       <c r="JJ71" t="n">
         <v>47.1</v>
       </c>
+      <c r="JK71" t="n">
+        <v>54.5</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -59028,6 +59241,9 @@
       <c r="JJ72" t="n">
         <v>23.56</v>
       </c>
+      <c r="JK72" t="n">
+        <v>28.5</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -59842,6 +60058,9 @@
       <c r="JJ73" t="n">
         <v>11.09</v>
       </c>
+      <c r="JK73" t="n">
+        <v>15.55</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -60656,6 +60875,9 @@
       <c r="JJ74" t="n">
         <v>44</v>
       </c>
+      <c r="JK74" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -61470,6 +61692,9 @@
       <c r="JJ75" t="n">
         <v>59</v>
       </c>
+      <c r="JK75" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -62284,6 +62509,9 @@
       <c r="JJ76" t="n">
         <v>38</v>
       </c>
+      <c r="JK76" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -63098,6 +63326,9 @@
       <c r="JJ77" t="n">
         <v>72</v>
       </c>
+      <c r="JK77" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -63912,6 +64143,9 @@
       <c r="JJ78" t="n">
         <v>2.12</v>
       </c>
+      <c r="JK78" t="n">
+        <v>2.09</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -64726,6 +64960,9 @@
       <c r="JJ79" t="n">
         <v>4.5</v>
       </c>
+      <c r="JK79" t="n">
+        <v>3.83</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -65540,6 +65777,9 @@
       <c r="JJ80" t="n">
         <v>45.8</v>
       </c>
+      <c r="JK80" t="n">
+        <v>47.8</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -66354,6 +66594,9 @@
       <c r="JJ81" t="n">
         <v>22.2</v>
       </c>
+      <c r="JK81" t="n">
+        <v>26.1</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -67168,6 +67411,9 @@
       <c r="JJ82" t="n">
         <v>188.1</v>
       </c>
+      <c r="JK82" t="n">
+        <v>188</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -67982,6 +68228,9 @@
       <c r="JJ83" t="n">
         <v>85.09999999999999</v>
       </c>
+      <c r="JK83" t="n">
+        <v>87.2</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -68796,6 +69045,9 @@
       <c r="JJ84" t="n">
         <v>24.58</v>
       </c>
+      <c r="JK84" t="n">
+        <v>26.24</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -69610,6 +69862,9 @@
       <c r="JJ85" t="n">
         <v>79.40000000000001</v>
       </c>
+      <c r="JK85" t="n">
+        <v>110.4</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -70424,6 +70679,9 @@
       <c r="JJ86" t="n">
         <v>10</v>
       </c>
+      <c r="JK86" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -71238,6 +71496,9 @@
       <c r="JJ87" t="n">
         <v>6</v>
       </c>
+      <c r="JK87" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -72052,6 +72313,9 @@
       <c r="JJ88" t="n">
         <v>2</v>
       </c>
+      <c r="JK88" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -72866,6 +73130,9 @@
       <c r="JJ89" t="n">
         <v>5</v>
       </c>
+      <c r="JK89" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -73680,6 +73947,9 @@
       <c r="JJ90" t="n">
         <v>147</v>
       </c>
+      <c r="JK90" t="n">
+        <v>115</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -74494,6 +74764,9 @@
       <c r="JJ91" t="n">
         <v>227</v>
       </c>
+      <c r="JK91" t="n">
+        <v>217</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -75308,6 +75581,9 @@
       <c r="JJ92" t="n">
         <v>279</v>
       </c>
+      <c r="JK92" t="n">
+        <v>270</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -76122,6 +76398,9 @@
       <c r="JJ93" t="n">
         <v>74</v>
       </c>
+      <c r="JK93" t="n">
+        <v>78.90000000000001</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -76936,6 +77215,9 @@
       <c r="JJ94" t="n">
         <v>59</v>
       </c>
+      <c r="JK94" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -77750,6 +78032,9 @@
       <c r="JJ95" t="n">
         <v>9</v>
       </c>
+      <c r="JK95" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -78564,6 +78849,9 @@
       <c r="JJ96" t="n">
         <v>16</v>
       </c>
+      <c r="JK96" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -79378,6 +79666,9 @@
       <c r="JJ97" t="n">
         <v>44</v>
       </c>
+      <c r="JK97" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -80192,6 +80483,9 @@
       <c r="JJ98" t="n">
         <v>38</v>
       </c>
+      <c r="JK98" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -81006,6 +81300,9 @@
       <c r="JJ99" t="n">
         <v>53</v>
       </c>
+      <c r="JK99" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -81820,6 +82117,9 @@
       <c r="JJ100" t="n">
         <v>14</v>
       </c>
+      <c r="JK100" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -82634,6 +82934,9 @@
       <c r="JJ101" t="n">
         <v>13</v>
       </c>
+      <c r="JK101" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -83448,6 +83751,9 @@
       <c r="JJ102" t="n">
         <v>81.2</v>
       </c>
+      <c r="JK102" t="n">
+        <v>66.7</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/AFL_ML/Data/North Melbourne_stats.xlsx
+++ b/AFL_ML/Data/North Melbourne_stats.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:JK102"/>
+  <dimension ref="A1:JL102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1237,6 +1237,9 @@
       <c r="JK1" t="n">
         <v>10753</v>
       </c>
+      <c r="JL1" t="n">
+        <v>10765</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -2054,6 +2057,9 @@
       <c r="JK2" t="n">
         <v>2023</v>
       </c>
+      <c r="JL2" t="n">
+        <v>2023</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2871,6 +2877,9 @@
       <c r="JK3" t="n">
         <v>1</v>
       </c>
+      <c r="JL3" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3688,6 +3697,9 @@
       <c r="JK4" t="n">
         <v>0</v>
       </c>
+      <c r="JL4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -4505,6 +4517,9 @@
       <c r="JK5" t="n">
         <v>0</v>
       </c>
+      <c r="JL5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -5322,6 +5337,9 @@
       <c r="JK6" t="n">
         <v>87</v>
       </c>
+      <c r="JL6" t="n">
+        <v>73</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -6139,6 +6157,9 @@
       <c r="JK7" t="n">
         <v>82</v>
       </c>
+      <c r="JL7" t="n">
+        <v>72</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -6956,6 +6977,9 @@
       <c r="JK8" t="n">
         <v>5</v>
       </c>
+      <c r="JL8" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -7773,6 +7797,9 @@
       <c r="JK9" t="n">
         <v>1</v>
       </c>
+      <c r="JL9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -8590,6 +8617,9 @@
       <c r="JK10" t="n">
         <v>17</v>
       </c>
+      <c r="JL10" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -9407,6 +9437,9 @@
       <c r="JK11" t="n">
         <v>208</v>
       </c>
+      <c r="JL11" t="n">
+        <v>231</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -10224,6 +10257,9 @@
       <c r="JK12" t="n">
         <v>174</v>
       </c>
+      <c r="JL12" t="n">
+        <v>143</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -11041,6 +11077,9 @@
       <c r="JK13" t="n">
         <v>382</v>
       </c>
+      <c r="JL13" t="n">
+        <v>374</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -11858,6 +11897,9 @@
       <c r="JK14" t="n">
         <v>1.2</v>
       </c>
+      <c r="JL14" t="n">
+        <v>1.62</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -12675,6 +12717,9 @@
       <c r="JK15" t="n">
         <v>77</v>
       </c>
+      <c r="JL15" t="n">
+        <v>95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -13492,6 +13537,9 @@
       <c r="JK16" t="n">
         <v>69</v>
       </c>
+      <c r="JL16" t="n">
+        <v>57</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -14309,6 +14357,9 @@
       <c r="JK17" t="n">
         <v>32</v>
       </c>
+      <c r="JL17" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -15126,6 +15177,9 @@
       <c r="JK18" t="n">
         <v>24</v>
       </c>
+      <c r="JL18" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -15943,6 +15997,9 @@
       <c r="JK19" t="n">
         <v>20</v>
       </c>
+      <c r="JL19" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -16760,6 +16817,9 @@
       <c r="JK20" t="n">
         <v>12</v>
       </c>
+      <c r="JL20" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -17577,6 +17637,9 @@
       <c r="JK21" t="n">
         <v>9</v>
       </c>
+      <c r="JL21" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -18394,6 +18457,9 @@
       <c r="JK22" t="n">
         <v>11</v>
       </c>
+      <c r="JL22" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -19211,6 +19277,9 @@
       <c r="JK23" t="n">
         <v>4</v>
       </c>
+      <c r="JL23" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -20028,6 +20097,9 @@
       <c r="JK24" t="n">
         <v>27</v>
       </c>
+      <c r="JL24" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -20845,6 +20917,9 @@
       <c r="JK25" t="n">
         <v>44.4</v>
       </c>
+      <c r="JL25" t="n">
+        <v>61.1</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -21662,6 +21737,9 @@
       <c r="JK26" t="n">
         <v>31.83</v>
       </c>
+      <c r="JL26" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -22479,6 +22557,9 @@
       <c r="JK27" t="n">
         <v>14.15</v>
       </c>
+      <c r="JL27" t="n">
+        <v>20.78</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -23296,6 +23377,9 @@
       <c r="JK28" t="n">
         <v>41</v>
       </c>
+      <c r="JL28" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -24113,6 +24197,9 @@
       <c r="JK29" t="n">
         <v>54</v>
       </c>
+      <c r="JL29" t="n">
+        <v>73</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -24930,6 +25017,9 @@
       <c r="JK30" t="n">
         <v>34</v>
       </c>
+      <c r="JL30" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -25747,6 +25837,9 @@
       <c r="JK31" t="n">
         <v>49</v>
       </c>
+      <c r="JL31" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -26564,6 +26657,9 @@
       <c r="JK32" t="n">
         <v>1.81</v>
       </c>
+      <c r="JL32" t="n">
+        <v>2.56</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -27381,6 +27477,9 @@
       <c r="JK33" t="n">
         <v>4.08</v>
       </c>
+      <c r="JL33" t="n">
+        <v>4.18</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -28198,6 +28297,9 @@
       <c r="JK34" t="n">
         <v>46.9</v>
       </c>
+      <c r="JL34" t="n">
+        <v>34.8</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -29015,6 +29117,9 @@
       <c r="JK35" t="n">
         <v>24.5</v>
       </c>
+      <c r="JL35" t="n">
+        <v>23.9</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -29832,6 +29937,9 @@
       <c r="JK36" t="n">
         <v>188.2</v>
       </c>
+      <c r="JL36" t="n">
+        <v>189</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -30649,6 +30757,9 @@
       <c r="JK37" t="n">
         <v>83.5</v>
       </c>
+      <c r="JL37" t="n">
+        <v>84.5</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -31466,6 +31577,9 @@
       <c r="JK38" t="n">
         <v>24.58</v>
       </c>
+      <c r="JL38" t="n">
+        <v>25.58</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -32283,6 +32397,9 @@
       <c r="JK39" t="n">
         <v>81.3</v>
       </c>
+      <c r="JL39" t="n">
+        <v>101.2</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -33100,6 +33217,9 @@
       <c r="JK40" t="n">
         <v>9</v>
       </c>
+      <c r="JL40" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -33917,6 +34037,9 @@
       <c r="JK41" t="n">
         <v>7</v>
       </c>
+      <c r="JL41" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -34734,6 +34857,9 @@
       <c r="JK42" t="n">
         <v>3</v>
       </c>
+      <c r="JL42" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -35551,6 +35677,9 @@
       <c r="JK43" t="n">
         <v>4</v>
       </c>
+      <c r="JL43" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -36368,6 +36497,9 @@
       <c r="JK44" t="n">
         <v>152</v>
       </c>
+      <c r="JL44" t="n">
+        <v>142</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -37185,6 +37317,9 @@
       <c r="JK45" t="n">
         <v>223</v>
       </c>
+      <c r="JL45" t="n">
+        <v>235</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -38002,6 +38137,9 @@
       <c r="JK46" t="n">
         <v>281</v>
       </c>
+      <c r="JL46" t="n">
+        <v>278</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -38819,6 +38957,9 @@
       <c r="JK47" t="n">
         <v>73.59999999999999</v>
       </c>
+      <c r="JL47" t="n">
+        <v>74.3</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -39636,6 +39777,9 @@
       <c r="JK48" t="n">
         <v>54</v>
       </c>
+      <c r="JL48" t="n">
+        <v>73</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -40453,6 +40597,9 @@
       <c r="JK49" t="n">
         <v>9</v>
       </c>
+      <c r="JL49" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -41270,6 +41417,9 @@
       <c r="JK50" t="n">
         <v>9</v>
       </c>
+      <c r="JL50" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -42087,6 +42237,9 @@
       <c r="JK51" t="n">
         <v>41</v>
       </c>
+      <c r="JL51" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -42904,6 +43057,9 @@
       <c r="JK52" t="n">
         <v>34</v>
       </c>
+      <c r="JL52" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -43721,6 +43877,9 @@
       <c r="JK53" t="n">
         <v>45</v>
       </c>
+      <c r="JL53" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -44538,6 +44697,9 @@
       <c r="JK54" t="n">
         <v>6</v>
       </c>
+      <c r="JL54" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -45355,6 +45517,9 @@
       <c r="JK55" t="n">
         <v>9</v>
       </c>
+      <c r="JL55" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -46172,6 +46337,9 @@
       <c r="JK56" t="n">
         <v>75</v>
       </c>
+      <c r="JL56" t="n">
+        <v>81.8</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -46989,6 +47157,9 @@
       <c r="JK57" t="n">
         <v>198</v>
       </c>
+      <c r="JL57" t="n">
+        <v>216</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -47806,6 +47977,9 @@
       <c r="JK58" t="n">
         <v>144</v>
       </c>
+      <c r="JL58" t="n">
+        <v>161</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -48623,6 +48797,9 @@
       <c r="JK59" t="n">
         <v>342</v>
       </c>
+      <c r="JL59" t="n">
+        <v>377</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -49440,6 +49617,9 @@
       <c r="JK60" t="n">
         <v>1.38</v>
       </c>
+      <c r="JL60" t="n">
+        <v>1.34</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -50257,6 +50437,9 @@
       <c r="JK61" t="n">
         <v>97</v>
       </c>
+      <c r="JL61" t="n">
+        <v>101</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -51074,6 +51257,9 @@
       <c r="JK62" t="n">
         <v>72</v>
       </c>
+      <c r="JL62" t="n">
+        <v>59</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -51891,6 +52077,9 @@
       <c r="JK63" t="n">
         <v>49</v>
       </c>
+      <c r="JL63" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -52708,6 +52897,9 @@
       <c r="JK64" t="n">
         <v>20</v>
       </c>
+      <c r="JL64" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -53525,6 +53717,9 @@
       <c r="JK65" t="n">
         <v>24</v>
       </c>
+      <c r="JL65" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -54342,6 +54537,9 @@
       <c r="JK66" t="n">
         <v>12</v>
       </c>
+      <c r="JL66" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -55159,6 +55357,9 @@
       <c r="JK67" t="n">
         <v>8</v>
       </c>
+      <c r="JL67" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -55976,6 +56177,9 @@
       <c r="JK68" t="n">
         <v>10</v>
       </c>
+      <c r="JL68" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -56793,6 +56997,9 @@
       <c r="JK69" t="n">
         <v>0</v>
       </c>
+      <c r="JL69" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -57610,6 +57817,9 @@
       <c r="JK70" t="n">
         <v>22</v>
       </c>
+      <c r="JL70" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -58427,6 +58637,9 @@
       <c r="JK71" t="n">
         <v>54.5</v>
       </c>
+      <c r="JL71" t="n">
+        <v>45.5</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -59244,6 +59457,9 @@
       <c r="JK72" t="n">
         <v>28.5</v>
       </c>
+      <c r="JL72" t="n">
+        <v>37.7</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -60061,6 +60277,9 @@
       <c r="JK73" t="n">
         <v>15.55</v>
       </c>
+      <c r="JL73" t="n">
+        <v>17.14</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -60878,6 +61097,9 @@
       <c r="JK74" t="n">
         <v>26</v>
       </c>
+      <c r="JL74" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -61695,6 +61917,9 @@
       <c r="JK75" t="n">
         <v>55</v>
       </c>
+      <c r="JL75" t="n">
+        <v>57</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -62512,6 +62737,9 @@
       <c r="JK76" t="n">
         <v>35</v>
       </c>
+      <c r="JL76" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -63329,6 +63557,9 @@
       <c r="JK77" t="n">
         <v>46</v>
       </c>
+      <c r="JL77" t="n">
+        <v>53</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -64146,6 +64377,9 @@
       <c r="JK78" t="n">
         <v>2.09</v>
       </c>
+      <c r="JL78" t="n">
+        <v>2.41</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -64963,6 +65197,9 @@
       <c r="JK79" t="n">
         <v>3.83</v>
       </c>
+      <c r="JL79" t="n">
+        <v>5.3</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -65780,6 +66017,9 @@
       <c r="JK80" t="n">
         <v>47.8</v>
       </c>
+      <c r="JL80" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -66597,6 +66837,9 @@
       <c r="JK81" t="n">
         <v>26.1</v>
       </c>
+      <c r="JL81" t="n">
+        <v>18.9</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -67414,6 +67657,9 @@
       <c r="JK82" t="n">
         <v>188</v>
       </c>
+      <c r="JL82" t="n">
+        <v>188</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -68231,6 +68477,9 @@
       <c r="JK83" t="n">
         <v>87.2</v>
       </c>
+      <c r="JL83" t="n">
+        <v>87.5</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -69048,6 +69297,9 @@
       <c r="JK84" t="n">
         <v>26.24</v>
       </c>
+      <c r="JL84" t="n">
+        <v>25.16</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -69865,6 +70117,9 @@
       <c r="JK85" t="n">
         <v>110.4</v>
       </c>
+      <c r="JL85" t="n">
+        <v>80.59999999999999</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -70682,6 +70937,9 @@
       <c r="JK86" t="n">
         <v>7</v>
       </c>
+      <c r="JL86" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -71499,6 +71757,9 @@
       <c r="JK87" t="n">
         <v>5</v>
       </c>
+      <c r="JL87" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -72316,6 +72577,9 @@
       <c r="JK88" t="n">
         <v>5</v>
       </c>
+      <c r="JL88" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -73133,6 +73397,9 @@
       <c r="JK89" t="n">
         <v>6</v>
       </c>
+      <c r="JL89" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -73950,6 +74217,9 @@
       <c r="JK90" t="n">
         <v>115</v>
       </c>
+      <c r="JL90" t="n">
+        <v>140</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -74767,6 +75037,9 @@
       <c r="JK91" t="n">
         <v>217</v>
       </c>
+      <c r="JL91" t="n">
+        <v>241</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -75584,6 +75857,9 @@
       <c r="JK92" t="n">
         <v>270</v>
       </c>
+      <c r="JL92" t="n">
+        <v>289</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -76401,6 +76677,9 @@
       <c r="JK93" t="n">
         <v>78.90000000000001</v>
       </c>
+      <c r="JL93" t="n">
+        <v>76.7</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -77218,6 +77497,9 @@
       <c r="JK94" t="n">
         <v>55</v>
       </c>
+      <c r="JL94" t="n">
+        <v>57</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -78035,6 +78317,9 @@
       <c r="JK95" t="n">
         <v>6</v>
       </c>
+      <c r="JL95" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -78852,6 +79137,9 @@
       <c r="JK96" t="n">
         <v>11</v>
       </c>
+      <c r="JL96" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -79669,6 +79957,9 @@
       <c r="JK97" t="n">
         <v>26</v>
       </c>
+      <c r="JL97" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -80486,6 +80777,9 @@
       <c r="JK98" t="n">
         <v>35</v>
       </c>
+      <c r="JL98" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -81303,6 +81597,9 @@
       <c r="JK99" t="n">
         <v>40</v>
       </c>
+      <c r="JL99" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -82120,6 +82417,9 @@
       <c r="JK100" t="n">
         <v>2</v>
       </c>
+      <c r="JL100" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -82937,6 +83237,9 @@
       <c r="JK101" t="n">
         <v>8</v>
       </c>
+      <c r="JL101" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -83754,6 +84057,9 @@
       <c r="JK102" t="n">
         <v>66.7</v>
       </c>
+      <c r="JL102" t="n">
+        <v>40</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/AFL_ML/Data/North Melbourne_stats.xlsx
+++ b/AFL_ML/Data/North Melbourne_stats.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:JL102"/>
+  <dimension ref="A1:JM102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1240,6 +1240,9 @@
       <c r="JL1" t="n">
         <v>10765</v>
       </c>
+      <c r="JM1" t="n">
+        <v>10771</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -2060,6 +2063,9 @@
       <c r="JL2" t="n">
         <v>2023</v>
       </c>
+      <c r="JM2" t="n">
+        <v>2023</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2880,6 +2886,9 @@
       <c r="JL3" t="n">
         <v>2</v>
       </c>
+      <c r="JM3" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3700,6 +3709,9 @@
       <c r="JL4" t="n">
         <v>1</v>
       </c>
+      <c r="JM4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -4520,6 +4532,9 @@
       <c r="JL5" t="n">
         <v>1</v>
       </c>
+      <c r="JM5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -5340,6 +5355,9 @@
       <c r="JL6" t="n">
         <v>73</v>
       </c>
+      <c r="JM6" t="n">
+        <v>61</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -6160,6 +6178,9 @@
       <c r="JL7" t="n">
         <v>72</v>
       </c>
+      <c r="JM7" t="n">
+        <v>80</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -6980,6 +7001,9 @@
       <c r="JL8" t="n">
         <v>1</v>
       </c>
+      <c r="JM8" t="n">
+        <v>-19</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -7800,6 +7824,9 @@
       <c r="JL9" t="n">
         <v>1</v>
       </c>
+      <c r="JM9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -8620,6 +8647,9 @@
       <c r="JL10" t="n">
         <v>6</v>
       </c>
+      <c r="JM10" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -9440,6 +9470,9 @@
       <c r="JL11" t="n">
         <v>231</v>
       </c>
+      <c r="JM11" t="n">
+        <v>201</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -10260,6 +10293,9 @@
       <c r="JL12" t="n">
         <v>143</v>
       </c>
+      <c r="JM12" t="n">
+        <v>141</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -11080,6 +11116,9 @@
       <c r="JL13" t="n">
         <v>374</v>
       </c>
+      <c r="JM13" t="n">
+        <v>342</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -11900,6 +11939,9 @@
       <c r="JL14" t="n">
         <v>1.62</v>
       </c>
+      <c r="JM14" t="n">
+        <v>1.43</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -12720,6 +12762,9 @@
       <c r="JL15" t="n">
         <v>95</v>
       </c>
+      <c r="JM15" t="n">
+        <v>89</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -13540,6 +13585,9 @@
       <c r="JL16" t="n">
         <v>57</v>
       </c>
+      <c r="JM16" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -14360,6 +14408,9 @@
       <c r="JL17" t="n">
         <v>30</v>
       </c>
+      <c r="JM17" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -15180,6 +15231,9 @@
       <c r="JL18" t="n">
         <v>23</v>
       </c>
+      <c r="JM18" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -16000,6 +16054,9 @@
       <c r="JL19" t="n">
         <v>34</v>
       </c>
+      <c r="JM19" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -16820,6 +16877,9 @@
       <c r="JL20" t="n">
         <v>11</v>
       </c>
+      <c r="JM20" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -17640,6 +17700,9 @@
       <c r="JL21" t="n">
         <v>9</v>
       </c>
+      <c r="JM21" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -18460,6 +18523,9 @@
       <c r="JL22" t="n">
         <v>5</v>
       </c>
+      <c r="JM22" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -19280,6 +19346,9 @@
       <c r="JL23" t="n">
         <v>2</v>
       </c>
+      <c r="JM23" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -20100,6 +20169,9 @@
       <c r="JL24" t="n">
         <v>18</v>
       </c>
+      <c r="JM24" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -20920,6 +20992,9 @@
       <c r="JL25" t="n">
         <v>61.1</v>
       </c>
+      <c r="JM25" t="n">
+        <v>56.2</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -21740,6 +21815,9 @@
       <c r="JL26" t="n">
         <v>34</v>
       </c>
+      <c r="JM26" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -22560,6 +22638,9 @@
       <c r="JL27" t="n">
         <v>20.78</v>
       </c>
+      <c r="JM27" t="n">
+        <v>21.38</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -23380,6 +23461,9 @@
       <c r="JL28" t="n">
         <v>45</v>
       </c>
+      <c r="JM28" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -24200,6 +24284,9 @@
       <c r="JL29" t="n">
         <v>73</v>
       </c>
+      <c r="JM29" t="n">
+        <v>57</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -25020,6 +25107,9 @@
       <c r="JL30" t="n">
         <v>42</v>
       </c>
+      <c r="JM30" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -25840,6 +25930,9 @@
       <c r="JL31" t="n">
         <v>46</v>
       </c>
+      <c r="JM31" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -26660,6 +26753,9 @@
       <c r="JL32" t="n">
         <v>2.56</v>
       </c>
+      <c r="JM32" t="n">
+        <v>2.75</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -27480,6 +27576,9 @@
       <c r="JL33" t="n">
         <v>4.18</v>
       </c>
+      <c r="JM33" t="n">
+        <v>4.89</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -28300,6 +28399,9 @@
       <c r="JL34" t="n">
         <v>34.8</v>
       </c>
+      <c r="JM34" t="n">
+        <v>31.8</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -29120,6 +29222,9 @@
       <c r="JL35" t="n">
         <v>23.9</v>
       </c>
+      <c r="JM35" t="n">
+        <v>20.5</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -29940,6 +30045,9 @@
       <c r="JL36" t="n">
         <v>189</v>
       </c>
+      <c r="JM36" t="n">
+        <v>188.9</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -30760,6 +30868,9 @@
       <c r="JL37" t="n">
         <v>84.5</v>
       </c>
+      <c r="JM37" t="n">
+        <v>84.5</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -31580,6 +31691,9 @@
       <c r="JL38" t="n">
         <v>25.58</v>
       </c>
+      <c r="JM38" t="n">
+        <v>25.49</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -32400,6 +32514,9 @@
       <c r="JL39" t="n">
         <v>101.2</v>
       </c>
+      <c r="JM39" t="n">
+        <v>99.3</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -33220,6 +33337,9 @@
       <c r="JL40" t="n">
         <v>6</v>
       </c>
+      <c r="JM40" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -34040,6 +34160,9 @@
       <c r="JL41" t="n">
         <v>8</v>
       </c>
+      <c r="JM41" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -34860,6 +34983,9 @@
       <c r="JL42" t="n">
         <v>4</v>
       </c>
+      <c r="JM42" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -35680,6 +35806,9 @@
       <c r="JL43" t="n">
         <v>5</v>
       </c>
+      <c r="JM43" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -36500,6 +36629,9 @@
       <c r="JL44" t="n">
         <v>142</v>
       </c>
+      <c r="JM44" t="n">
+        <v>122</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -37320,6 +37452,9 @@
       <c r="JL45" t="n">
         <v>235</v>
       </c>
+      <c r="JM45" t="n">
+        <v>208</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -38140,6 +38275,9 @@
       <c r="JL46" t="n">
         <v>278</v>
       </c>
+      <c r="JM46" t="n">
+        <v>248</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -38960,6 +39098,9 @@
       <c r="JL47" t="n">
         <v>74.3</v>
       </c>
+      <c r="JM47" t="n">
+        <v>72.5</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -39780,6 +39921,9 @@
       <c r="JL48" t="n">
         <v>73</v>
       </c>
+      <c r="JM48" t="n">
+        <v>57</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -40600,6 +40744,9 @@
       <c r="JL49" t="n">
         <v>5</v>
       </c>
+      <c r="JM49" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -41420,6 +41567,9 @@
       <c r="JL50" t="n">
         <v>7</v>
       </c>
+      <c r="JM50" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -42240,6 +42390,9 @@
       <c r="JL51" t="n">
         <v>45</v>
       </c>
+      <c r="JM51" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -43060,6 +43213,9 @@
       <c r="JL52" t="n">
         <v>42</v>
       </c>
+      <c r="JM52" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -43880,6 +44036,9 @@
       <c r="JL53" t="n">
         <v>46</v>
       </c>
+      <c r="JM53" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -44700,6 +44859,9 @@
       <c r="JL54" t="n">
         <v>6</v>
       </c>
+      <c r="JM54" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -45520,6 +45682,9 @@
       <c r="JL55" t="n">
         <v>9</v>
       </c>
+      <c r="JM55" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -46340,6 +46505,9 @@
       <c r="JL56" t="n">
         <v>81.8</v>
       </c>
+      <c r="JM56" t="n">
+        <v>66.7</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -47160,6 +47328,9 @@
       <c r="JL57" t="n">
         <v>216</v>
       </c>
+      <c r="JM57" t="n">
+        <v>275</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -47980,6 +48151,9 @@
       <c r="JL58" t="n">
         <v>161</v>
       </c>
+      <c r="JM58" t="n">
+        <v>149</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -48800,6 +48974,9 @@
       <c r="JL59" t="n">
         <v>377</v>
       </c>
+      <c r="JM59" t="n">
+        <v>424</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -49620,6 +49797,9 @@
       <c r="JL60" t="n">
         <v>1.34</v>
       </c>
+      <c r="JM60" t="n">
+        <v>1.85</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -50440,6 +50620,9 @@
       <c r="JL61" t="n">
         <v>101</v>
       </c>
+      <c r="JM61" t="n">
+        <v>140</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -51260,6 +51443,9 @@
       <c r="JL62" t="n">
         <v>59</v>
       </c>
+      <c r="JM62" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -52080,6 +52266,9 @@
       <c r="JL63" t="n">
         <v>45</v>
       </c>
+      <c r="JM63" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -52900,6 +53089,9 @@
       <c r="JL64" t="n">
         <v>34</v>
       </c>
+      <c r="JM64" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -53720,6 +53912,9 @@
       <c r="JL65" t="n">
         <v>23</v>
       </c>
+      <c r="JM65" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -54540,6 +54735,9 @@
       <c r="JL66" t="n">
         <v>10</v>
       </c>
+      <c r="JM66" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -55360,6 +55558,9 @@
       <c r="JL67" t="n">
         <v>4</v>
       </c>
+      <c r="JM67" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -56180,6 +56381,9 @@
       <c r="JL68" t="n">
         <v>8</v>
       </c>
+      <c r="JM68" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -57000,6 +57204,9 @@
       <c r="JL69" t="n">
         <v>4</v>
       </c>
+      <c r="JM69" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -57820,6 +58027,9 @@
       <c r="JL70" t="n">
         <v>22</v>
       </c>
+      <c r="JM70" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -58640,6 +58850,9 @@
       <c r="JL71" t="n">
         <v>45.5</v>
       </c>
+      <c r="JM71" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -59460,6 +59673,9 @@
       <c r="JL72" t="n">
         <v>37.7</v>
       </c>
+      <c r="JM72" t="n">
+        <v>38.55</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -60280,6 +60496,9 @@
       <c r="JL73" t="n">
         <v>17.14</v>
       </c>
+      <c r="JM73" t="n">
+        <v>16.96</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -61100,6 +61319,9 @@
       <c r="JL74" t="n">
         <v>30</v>
       </c>
+      <c r="JM74" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -61920,6 +62142,9 @@
       <c r="JL75" t="n">
         <v>57</v>
       </c>
+      <c r="JM75" t="n">
+        <v>68</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -62740,6 +62965,9 @@
       <c r="JL76" t="n">
         <v>34</v>
       </c>
+      <c r="JM76" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -63560,6 +63788,9 @@
       <c r="JL77" t="n">
         <v>53</v>
       </c>
+      <c r="JM77" t="n">
+        <v>56</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -64380,6 +64611,9 @@
       <c r="JL78" t="n">
         <v>2.41</v>
       </c>
+      <c r="JM78" t="n">
+        <v>2.24</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -65200,6 +65434,9 @@
       <c r="JL79" t="n">
         <v>5.3</v>
       </c>
+      <c r="JM79" t="n">
+        <v>5.09</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -66020,6 +66257,9 @@
       <c r="JL80" t="n">
         <v>34</v>
       </c>
+      <c r="JM80" t="n">
+        <v>42.9</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -66840,6 +67080,9 @@
       <c r="JL81" t="n">
         <v>18.9</v>
       </c>
+      <c r="JM81" t="n">
+        <v>19.6</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -67660,6 +67903,9 @@
       <c r="JL82" t="n">
         <v>188</v>
       </c>
+      <c r="JM82" t="n">
+        <v>187.4</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -68480,6 +68726,9 @@
       <c r="JL83" t="n">
         <v>87.5</v>
       </c>
+      <c r="JM83" t="n">
+        <v>85</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -69300,6 +69549,9 @@
       <c r="JL84" t="n">
         <v>25.16</v>
       </c>
+      <c r="JM84" t="n">
+        <v>24.41</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -70120,6 +70372,9 @@
       <c r="JL85" t="n">
         <v>80.59999999999999</v>
       </c>
+      <c r="JM85" t="n">
+        <v>66.2</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -70940,6 +71195,9 @@
       <c r="JL86" t="n">
         <v>6</v>
       </c>
+      <c r="JM86" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -71760,6 +72018,9 @@
       <c r="JL87" t="n">
         <v>10</v>
       </c>
+      <c r="JM87" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -72580,6 +72841,9 @@
       <c r="JL88" t="n">
         <v>5</v>
       </c>
+      <c r="JM88" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -73400,6 +73664,9 @@
       <c r="JL89" t="n">
         <v>2</v>
       </c>
+      <c r="JM89" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -74220,6 +74487,9 @@
       <c r="JL90" t="n">
         <v>140</v>
       </c>
+      <c r="JM90" t="n">
+        <v>141</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -75040,6 +75310,9 @@
       <c r="JL91" t="n">
         <v>241</v>
       </c>
+      <c r="JM91" t="n">
+        <v>290</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -75860,6 +76133,9 @@
       <c r="JL92" t="n">
         <v>289</v>
       </c>
+      <c r="JM92" t="n">
+        <v>317</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -76680,6 +76956,9 @@
       <c r="JL93" t="n">
         <v>76.7</v>
       </c>
+      <c r="JM93" t="n">
+        <v>74.8</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -77500,6 +77779,9 @@
       <c r="JL94" t="n">
         <v>57</v>
       </c>
+      <c r="JM94" t="n">
+        <v>68</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -78320,6 +78602,9 @@
       <c r="JL95" t="n">
         <v>6</v>
       </c>
+      <c r="JM95" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -79140,6 +79425,9 @@
       <c r="JL96" t="n">
         <v>10</v>
       </c>
+      <c r="JM96" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -79960,6 +80248,9 @@
       <c r="JL97" t="n">
         <v>30</v>
       </c>
+      <c r="JM97" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -80780,6 +81071,9 @@
       <c r="JL98" t="n">
         <v>34</v>
       </c>
+      <c r="JM98" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -81600,6 +81894,9 @@
       <c r="JL99" t="n">
         <v>42</v>
       </c>
+      <c r="JM99" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -82420,6 +82717,9 @@
       <c r="JL100" t="n">
         <v>1</v>
       </c>
+      <c r="JM100" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -83240,6 +83540,9 @@
       <c r="JL101" t="n">
         <v>4</v>
       </c>
+      <c r="JM101" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -84060,6 +84363,9 @@
       <c r="JL102" t="n">
         <v>40</v>
       </c>
+      <c r="JM102" t="n">
+        <v>72.7</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/AFL_ML/Data/North Melbourne_stats.xlsx
+++ b/AFL_ML/Data/North Melbourne_stats.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:JN102"/>
+  <dimension ref="A1:JO102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1246,6 +1246,9 @@
       <c r="JN1" t="n">
         <v>10779</v>
       </c>
+      <c r="JO1" t="n">
+        <v>10959</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -2072,6 +2075,9 @@
       <c r="JN2" t="n">
         <v>2023</v>
       </c>
+      <c r="JO2" t="n">
+        <v>2023</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2898,6 +2904,9 @@
       <c r="JN3" t="n">
         <v>4</v>
       </c>
+      <c r="JO3" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3724,6 +3733,9 @@
       <c r="JN4" t="n">
         <v>0</v>
       </c>
+      <c r="JO4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -4550,6 +4562,9 @@
       <c r="JN5" t="n">
         <v>1</v>
       </c>
+      <c r="JO5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -5376,6 +5391,9 @@
       <c r="JN6" t="n">
         <v>84</v>
       </c>
+      <c r="JO6" t="n">
+        <v>77</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -6202,6 +6220,9 @@
       <c r="JN7" t="n">
         <v>107</v>
       </c>
+      <c r="JO7" t="n">
+        <v>152</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -7028,6 +7049,9 @@
       <c r="JN8" t="n">
         <v>-23</v>
       </c>
+      <c r="JO8" t="n">
+        <v>-75</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -7854,6 +7878,9 @@
       <c r="JN9" t="n">
         <v>0</v>
       </c>
+      <c r="JO9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -8680,6 +8707,9 @@
       <c r="JN10" t="n">
         <v>3</v>
       </c>
+      <c r="JO10" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -9506,6 +9536,9 @@
       <c r="JN11" t="n">
         <v>203</v>
       </c>
+      <c r="JO11" t="n">
+        <v>179</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -10332,6 +10365,9 @@
       <c r="JN12" t="n">
         <v>189</v>
       </c>
+      <c r="JO12" t="n">
+        <v>162</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -11158,6 +11194,9 @@
       <c r="JN13" t="n">
         <v>392</v>
       </c>
+      <c r="JO13" t="n">
+        <v>341</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -11984,6 +12023,9 @@
       <c r="JN14" t="n">
         <v>1.07</v>
       </c>
+      <c r="JO14" t="n">
+        <v>1.1</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -12810,6 +12852,9 @@
       <c r="JN15" t="n">
         <v>74</v>
       </c>
+      <c r="JO15" t="n">
+        <v>77</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -13636,6 +13681,9 @@
       <c r="JN16" t="n">
         <v>44</v>
       </c>
+      <c r="JO16" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -14462,6 +14510,9 @@
       <c r="JN17" t="n">
         <v>32</v>
       </c>
+      <c r="JO17" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -15288,6 +15339,9 @@
       <c r="JN18" t="n">
         <v>20</v>
       </c>
+      <c r="JO18" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -16114,6 +16168,9 @@
       <c r="JN19" t="n">
         <v>21</v>
       </c>
+      <c r="JO19" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -16940,6 +16997,9 @@
       <c r="JN20" t="n">
         <v>11</v>
       </c>
+      <c r="JO20" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -17766,6 +17826,9 @@
       <c r="JN21" t="n">
         <v>8</v>
       </c>
+      <c r="JO21" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -18592,6 +18655,9 @@
       <c r="JN22" t="n">
         <v>11</v>
       </c>
+      <c r="JO22" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -19418,6 +19484,9 @@
       <c r="JN23" t="n">
         <v>7</v>
       </c>
+      <c r="JO23" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -20244,6 +20313,9 @@
       <c r="JN24" t="n">
         <v>29</v>
       </c>
+      <c r="JO24" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -21070,6 +21142,9 @@
       <c r="JN25" t="n">
         <v>37.9</v>
       </c>
+      <c r="JO25" t="n">
+        <v>70.59999999999999</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -21896,6 +21971,9 @@
       <c r="JN26" t="n">
         <v>35.64</v>
       </c>
+      <c r="JO26" t="n">
+        <v>28.42</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -22722,6 +22800,9 @@
       <c r="JN27" t="n">
         <v>13.52</v>
       </c>
+      <c r="JO27" t="n">
+        <v>20.06</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -23548,6 +23629,9 @@
       <c r="JN28" t="n">
         <v>41</v>
       </c>
+      <c r="JO28" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -24374,6 +24458,9 @@
       <c r="JN29" t="n">
         <v>61</v>
       </c>
+      <c r="JO29" t="n">
+        <v>65</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -25200,6 +25287,9 @@
       <c r="JN30" t="n">
         <v>36</v>
       </c>
+      <c r="JO30" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -26026,6 +26116,9 @@
       <c r="JN31" t="n">
         <v>54</v>
       </c>
+      <c r="JO31" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -26852,6 +26945,9 @@
       <c r="JN32" t="n">
         <v>1.86</v>
       </c>
+      <c r="JO32" t="n">
+        <v>2.47</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -27678,6 +27774,9 @@
       <c r="JN33" t="n">
         <v>4.91</v>
       </c>
+      <c r="JO33" t="n">
+        <v>3.5</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -28504,6 +28603,9 @@
       <c r="JN34" t="n">
         <v>40.7</v>
       </c>
+      <c r="JO34" t="n">
+        <v>38.1</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -29330,6 +29432,9 @@
       <c r="JN35" t="n">
         <v>20.4</v>
       </c>
+      <c r="JO35" t="n">
+        <v>28.6</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -30156,6 +30261,9 @@
       <c r="JN36" t="n">
         <v>188.3</v>
       </c>
+      <c r="JO36" t="n">
+        <v>189.2</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -30982,6 +31090,9 @@
       <c r="JN37" t="n">
         <v>84.7</v>
       </c>
+      <c r="JO37" t="n">
+        <v>86.2</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -31808,6 +31919,9 @@
       <c r="JN38" t="n">
         <v>25.8</v>
       </c>
+      <c r="JO38" t="n">
+        <v>26.16</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -32634,6 +32748,9 @@
       <c r="JN39" t="n">
         <v>106.8</v>
       </c>
+      <c r="JO39" t="n">
+        <v>110.7</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -33460,6 +33577,9 @@
       <c r="JN40" t="n">
         <v>6</v>
       </c>
+      <c r="JO40" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -34286,6 +34406,9 @@
       <c r="JN41" t="n">
         <v>7</v>
       </c>
+      <c r="JO41" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -35112,6 +35235,9 @@
       <c r="JN42" t="n">
         <v>5</v>
       </c>
+      <c r="JO42" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -35938,6 +36064,9 @@
       <c r="JN43" t="n">
         <v>5</v>
       </c>
+      <c r="JO43" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -36764,6 +36893,9 @@
       <c r="JN44" t="n">
         <v>134</v>
       </c>
+      <c r="JO44" t="n">
+        <v>119</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -37590,6 +37722,9 @@
       <c r="JN45" t="n">
         <v>249</v>
       </c>
+      <c r="JO45" t="n">
+        <v>211</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -38416,6 +38551,9 @@
       <c r="JN46" t="n">
         <v>301</v>
       </c>
+      <c r="JO46" t="n">
+        <v>252</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -39242,6 +39380,9 @@
       <c r="JN47" t="n">
         <v>76.8</v>
       </c>
+      <c r="JO47" t="n">
+        <v>73.90000000000001</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -40068,6 +40209,9 @@
       <c r="JN48" t="n">
         <v>61</v>
       </c>
+      <c r="JO48" t="n">
+        <v>65</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -40894,6 +41038,9 @@
       <c r="JN49" t="n">
         <v>6</v>
       </c>
+      <c r="JO49" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -41720,6 +41867,9 @@
       <c r="JN50" t="n">
         <v>9</v>
       </c>
+      <c r="JO50" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -42546,6 +42696,9 @@
       <c r="JN51" t="n">
         <v>41</v>
       </c>
+      <c r="JO51" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -43372,6 +43525,9 @@
       <c r="JN52" t="n">
         <v>36</v>
       </c>
+      <c r="JO52" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -44198,6 +44354,9 @@
       <c r="JN53" t="n">
         <v>52</v>
       </c>
+      <c r="JO53" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -45024,6 +45183,9 @@
       <c r="JN54" t="n">
         <v>7</v>
       </c>
+      <c r="JO54" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -45850,6 +46012,9 @@
       <c r="JN55" t="n">
         <v>8</v>
       </c>
+      <c r="JO55" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -46676,6 +46841,9 @@
       <c r="JN56" t="n">
         <v>72.7</v>
       </c>
+      <c r="JO56" t="n">
+        <v>66.7</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -47502,6 +47670,9 @@
       <c r="JN57" t="n">
         <v>239</v>
       </c>
+      <c r="JO57" t="n">
+        <v>246</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -48328,6 +48499,9 @@
       <c r="JN58" t="n">
         <v>140</v>
       </c>
+      <c r="JO58" t="n">
+        <v>133</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -49154,6 +49328,9 @@
       <c r="JN59" t="n">
         <v>379</v>
       </c>
+      <c r="JO59" t="n">
+        <v>379</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -49980,6 +50157,9 @@
       <c r="JN60" t="n">
         <v>1.71</v>
       </c>
+      <c r="JO60" t="n">
+        <v>1.85</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -50806,6 +50986,9 @@
       <c r="JN61" t="n">
         <v>117</v>
       </c>
+      <c r="JO61" t="n">
+        <v>118</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -51632,6 +51815,9 @@
       <c r="JN62" t="n">
         <v>52</v>
       </c>
+      <c r="JO62" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -52458,6 +52644,9 @@
       <c r="JN63" t="n">
         <v>36</v>
       </c>
+      <c r="JO63" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -53284,6 +53473,9 @@
       <c r="JN64" t="n">
         <v>21</v>
       </c>
+      <c r="JO64" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -54110,6 +54302,9 @@
       <c r="JN65" t="n">
         <v>20</v>
       </c>
+      <c r="JO65" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -54936,6 +55131,9 @@
       <c r="JN66" t="n">
         <v>16</v>
       </c>
+      <c r="JO66" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -55762,6 +55960,9 @@
       <c r="JN67" t="n">
         <v>8</v>
       </c>
+      <c r="JO67" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -56588,6 +56789,9 @@
       <c r="JN68" t="n">
         <v>8</v>
       </c>
+      <c r="JO68" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -57414,6 +57618,9 @@
       <c r="JN69" t="n">
         <v>3</v>
       </c>
+      <c r="JO69" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -58240,6 +58447,9 @@
       <c r="JN70" t="n">
         <v>27</v>
       </c>
+      <c r="JO70" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -59066,6 +59276,9 @@
       <c r="JN71" t="n">
         <v>59.3</v>
       </c>
+      <c r="JO71" t="n">
+        <v>52.4</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -59892,6 +60105,9 @@
       <c r="JN72" t="n">
         <v>23.69</v>
       </c>
+      <c r="JO72" t="n">
+        <v>17.23</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -60718,6 +60934,9 @@
       <c r="JN73" t="n">
         <v>14.04</v>
       </c>
+      <c r="JO73" t="n">
+        <v>9.02</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -61544,6 +61763,9 @@
       <c r="JN74" t="n">
         <v>30</v>
       </c>
+      <c r="JO74" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -62370,6 +62592,9 @@
       <c r="JN75" t="n">
         <v>60</v>
       </c>
+      <c r="JO75" t="n">
+        <v>53</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -63196,6 +63421,9 @@
       <c r="JN76" t="n">
         <v>42</v>
       </c>
+      <c r="JO76" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -64022,6 +64250,9 @@
       <c r="JN77" t="n">
         <v>52</v>
       </c>
+      <c r="JO77" t="n">
+        <v>66</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -64848,6 +65079,9 @@
       <c r="JN78" t="n">
         <v>1.93</v>
       </c>
+      <c r="JO78" t="n">
+        <v>1.57</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -65674,6 +65908,9 @@
       <c r="JN79" t="n">
         <v>3.25</v>
       </c>
+      <c r="JO79" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -66500,6 +66737,9 @@
       <c r="JN80" t="n">
         <v>46.2</v>
       </c>
+      <c r="JO80" t="n">
+        <v>59.1</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -67326,6 +67566,9 @@
       <c r="JN81" t="n">
         <v>30.8</v>
       </c>
+      <c r="JO81" t="n">
+        <v>33.3</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -68152,6 +68395,9 @@
       <c r="JN82" t="n">
         <v>188.6</v>
       </c>
+      <c r="JO82" t="n">
+        <v>188.6</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -68978,6 +69224,9 @@
       <c r="JN83" t="n">
         <v>87.2</v>
       </c>
+      <c r="JO83" t="n">
+        <v>89.7</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -69804,6 +70053,9 @@
       <c r="JN84" t="n">
         <v>25</v>
       </c>
+      <c r="JO84" t="n">
+        <v>26.58</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -70630,6 +70882,9 @@
       <c r="JN85" t="n">
         <v>81.7</v>
       </c>
+      <c r="JO85" t="n">
+        <v>114.4</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -71456,6 +71711,9 @@
       <c r="JN86" t="n">
         <v>9</v>
       </c>
+      <c r="JO86" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -72282,6 +72540,9 @@
       <c r="JN87" t="n">
         <v>7</v>
       </c>
+      <c r="JO87" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -73108,6 +73369,9 @@
       <c r="JN88" t="n">
         <v>4</v>
       </c>
+      <c r="JO88" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -73934,6 +74198,9 @@
       <c r="JN89" t="n">
         <v>3</v>
       </c>
+      <c r="JO89" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -74760,6 +75027,9 @@
       <c r="JN90" t="n">
         <v>132</v>
       </c>
+      <c r="JO90" t="n">
+        <v>141</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -75586,6 +75856,9 @@
       <c r="JN91" t="n">
         <v>240</v>
       </c>
+      <c r="JO91" t="n">
+        <v>242</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -76412,6 +76685,9 @@
       <c r="JN92" t="n">
         <v>285</v>
       </c>
+      <c r="JO92" t="n">
+        <v>285</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -77238,6 +77514,9 @@
       <c r="JN93" t="n">
         <v>75.2</v>
       </c>
+      <c r="JO93" t="n">
+        <v>75.2</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -78064,6 +78343,9 @@
       <c r="JN94" t="n">
         <v>60</v>
       </c>
+      <c r="JO94" t="n">
+        <v>53</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -78890,6 +79172,9 @@
       <c r="JN95" t="n">
         <v>14</v>
       </c>
+      <c r="JO95" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -79716,6 +80001,9 @@
       <c r="JN96" t="n">
         <v>12</v>
       </c>
+      <c r="JO96" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -80542,6 +80830,9 @@
       <c r="JN97" t="n">
         <v>30</v>
       </c>
+      <c r="JO97" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -81368,6 +81659,9 @@
       <c r="JN98" t="n">
         <v>42</v>
       </c>
+      <c r="JO98" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -82194,6 +82488,9 @@
       <c r="JN99" t="n">
         <v>49</v>
       </c>
+      <c r="JO99" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -83020,6 +83317,9 @@
       <c r="JN100" t="n">
         <v>1</v>
       </c>
+      <c r="JO100" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -83846,6 +84146,9 @@
       <c r="JN101" t="n">
         <v>8</v>
       </c>
+      <c r="JO101" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -84672,6 +84975,9 @@
       <c r="JN102" t="n">
         <v>50</v>
       </c>
+      <c r="JO102" t="n">
+        <v>90.90000000000001</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/AFL_ML/Data/North Melbourne_stats.xlsx
+++ b/AFL_ML/Data/North Melbourne_stats.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:JO102"/>
+  <dimension ref="A1:JR102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1249,6 +1249,15 @@
       <c r="JO1" t="n">
         <v>10959</v>
       </c>
+      <c r="JP1" t="n">
+        <v>10802</v>
+      </c>
+      <c r="JQ1" t="n">
+        <v>10802</v>
+      </c>
+      <c r="JR1" t="n">
+        <v>10802</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -2078,6 +2087,15 @@
       <c r="JO2" t="n">
         <v>2023</v>
       </c>
+      <c r="JP2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="JQ2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="JR2" t="n">
+        <v>2023</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2907,6 +2925,15 @@
       <c r="JO3" t="n">
         <v>5</v>
       </c>
+      <c r="JP3" t="n">
+        <v>6</v>
+      </c>
+      <c r="JQ3" t="n">
+        <v>6</v>
+      </c>
+      <c r="JR3" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3736,6 +3763,15 @@
       <c r="JO4" t="n">
         <v>1</v>
       </c>
+      <c r="JP4" t="n">
+        <v>1</v>
+      </c>
+      <c r="JQ4" t="n">
+        <v>1</v>
+      </c>
+      <c r="JR4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -4565,6 +4601,15 @@
       <c r="JO5" t="n">
         <v>0</v>
       </c>
+      <c r="JP5" t="n">
+        <v>0</v>
+      </c>
+      <c r="JQ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="JR5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -5394,6 +5439,15 @@
       <c r="JO6" t="n">
         <v>77</v>
       </c>
+      <c r="JP6" t="n">
+        <v>54</v>
+      </c>
+      <c r="JQ6" t="n">
+        <v>54</v>
+      </c>
+      <c r="JR6" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -6223,6 +6277,15 @@
       <c r="JO7" t="n">
         <v>152</v>
       </c>
+      <c r="JP7" t="n">
+        <v>97</v>
+      </c>
+      <c r="JQ7" t="n">
+        <v>97</v>
+      </c>
+      <c r="JR7" t="n">
+        <v>97</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -7052,6 +7115,15 @@
       <c r="JO8" t="n">
         <v>-75</v>
       </c>
+      <c r="JP8" t="n">
+        <v>-43</v>
+      </c>
+      <c r="JQ8" t="n">
+        <v>-43</v>
+      </c>
+      <c r="JR8" t="n">
+        <v>-43</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -7881,6 +7953,15 @@
       <c r="JO9" t="n">
         <v>0</v>
       </c>
+      <c r="JP9" t="n">
+        <v>0</v>
+      </c>
+      <c r="JQ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="JR9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -8710,6 +8791,15 @@
       <c r="JO10" t="n">
         <v>2</v>
       </c>
+      <c r="JP10" t="n">
+        <v>8</v>
+      </c>
+      <c r="JQ10" t="n">
+        <v>8</v>
+      </c>
+      <c r="JR10" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -9539,6 +9629,15 @@
       <c r="JO11" t="n">
         <v>179</v>
       </c>
+      <c r="JP11" t="n">
+        <v>188</v>
+      </c>
+      <c r="JQ11" t="n">
+        <v>188</v>
+      </c>
+      <c r="JR11" t="n">
+        <v>188</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -10368,6 +10467,15 @@
       <c r="JO12" t="n">
         <v>162</v>
       </c>
+      <c r="JP12" t="n">
+        <v>118</v>
+      </c>
+      <c r="JQ12" t="n">
+        <v>118</v>
+      </c>
+      <c r="JR12" t="n">
+        <v>118</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -11197,6 +11305,15 @@
       <c r="JO13" t="n">
         <v>341</v>
       </c>
+      <c r="JP13" t="n">
+        <v>306</v>
+      </c>
+      <c r="JQ13" t="n">
+        <v>306</v>
+      </c>
+      <c r="JR13" t="n">
+        <v>306</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -12026,6 +12143,15 @@
       <c r="JO14" t="n">
         <v>1.1</v>
       </c>
+      <c r="JP14" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="JQ14" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="JR14" t="n">
+        <v>1.59</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -12855,6 +12981,15 @@
       <c r="JO15" t="n">
         <v>77</v>
       </c>
+      <c r="JP15" t="n">
+        <v>69</v>
+      </c>
+      <c r="JQ15" t="n">
+        <v>69</v>
+      </c>
+      <c r="JR15" t="n">
+        <v>69</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -13684,6 +13819,15 @@
       <c r="JO16" t="n">
         <v>40</v>
       </c>
+      <c r="JP16" t="n">
+        <v>48</v>
+      </c>
+      <c r="JQ16" t="n">
+        <v>48</v>
+      </c>
+      <c r="JR16" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -14513,6 +14657,15 @@
       <c r="JO17" t="n">
         <v>38</v>
       </c>
+      <c r="JP17" t="n">
+        <v>34</v>
+      </c>
+      <c r="JQ17" t="n">
+        <v>34</v>
+      </c>
+      <c r="JR17" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -15342,6 +15495,15 @@
       <c r="JO18" t="n">
         <v>14</v>
       </c>
+      <c r="JP18" t="n">
+        <v>16</v>
+      </c>
+      <c r="JQ18" t="n">
+        <v>16</v>
+      </c>
+      <c r="JR18" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -16171,6 +16333,15 @@
       <c r="JO19" t="n">
         <v>21</v>
       </c>
+      <c r="JP19" t="n">
+        <v>17</v>
+      </c>
+      <c r="JQ19" t="n">
+        <v>17</v>
+      </c>
+      <c r="JR19" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -17000,6 +17171,15 @@
       <c r="JO20" t="n">
         <v>12</v>
       </c>
+      <c r="JP20" t="n">
+        <v>7</v>
+      </c>
+      <c r="JQ20" t="n">
+        <v>7</v>
+      </c>
+      <c r="JR20" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -17829,6 +18009,15 @@
       <c r="JO21" t="n">
         <v>8</v>
       </c>
+      <c r="JP21" t="n">
+        <v>5</v>
+      </c>
+      <c r="JQ21" t="n">
+        <v>5</v>
+      </c>
+      <c r="JR21" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -18658,6 +18847,15 @@
       <c r="JO22" t="n">
         <v>4</v>
       </c>
+      <c r="JP22" t="n">
+        <v>12</v>
+      </c>
+      <c r="JQ22" t="n">
+        <v>12</v>
+      </c>
+      <c r="JR22" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -19487,6 +19685,15 @@
       <c r="JO23" t="n">
         <v>1</v>
       </c>
+      <c r="JP23" t="n">
+        <v>0</v>
+      </c>
+      <c r="JQ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="JR23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -20316,6 +20523,15 @@
       <c r="JO24" t="n">
         <v>17</v>
       </c>
+      <c r="JP24" t="n">
+        <v>19</v>
+      </c>
+      <c r="JQ24" t="n">
+        <v>19</v>
+      </c>
+      <c r="JR24" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -21145,6 +21361,15 @@
       <c r="JO25" t="n">
         <v>70.59999999999999</v>
       </c>
+      <c r="JP25" t="n">
+        <v>36.8</v>
+      </c>
+      <c r="JQ25" t="n">
+        <v>36.8</v>
+      </c>
+      <c r="JR25" t="n">
+        <v>36.8</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -21974,6 +22199,15 @@
       <c r="JO26" t="n">
         <v>28.42</v>
       </c>
+      <c r="JP26" t="n">
+        <v>43.71</v>
+      </c>
+      <c r="JQ26" t="n">
+        <v>43.71</v>
+      </c>
+      <c r="JR26" t="n">
+        <v>43.71</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -22803,6 +23037,15 @@
       <c r="JO27" t="n">
         <v>20.06</v>
       </c>
+      <c r="JP27" t="n">
+        <v>16.11</v>
+      </c>
+      <c r="JQ27" t="n">
+        <v>16.11</v>
+      </c>
+      <c r="JR27" t="n">
+        <v>16.11</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -23632,6 +23875,15 @@
       <c r="JO28" t="n">
         <v>35</v>
       </c>
+      <c r="JP28" t="n">
+        <v>31</v>
+      </c>
+      <c r="JQ28" t="n">
+        <v>31</v>
+      </c>
+      <c r="JR28" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -24461,6 +24713,15 @@
       <c r="JO29" t="n">
         <v>65</v>
       </c>
+      <c r="JP29" t="n">
+        <v>54</v>
+      </c>
+      <c r="JQ29" t="n">
+        <v>54</v>
+      </c>
+      <c r="JR29" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -25290,6 +25551,15 @@
       <c r="JO30" t="n">
         <v>42</v>
       </c>
+      <c r="JP30" t="n">
+        <v>36</v>
+      </c>
+      <c r="JQ30" t="n">
+        <v>36</v>
+      </c>
+      <c r="JR30" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -26119,6 +26389,15 @@
       <c r="JO31" t="n">
         <v>42</v>
       </c>
+      <c r="JP31" t="n">
+        <v>50</v>
+      </c>
+      <c r="JQ31" t="n">
+        <v>50</v>
+      </c>
+      <c r="JR31" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -26948,6 +27227,15 @@
       <c r="JO32" t="n">
         <v>2.47</v>
       </c>
+      <c r="JP32" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="JQ32" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="JR32" t="n">
+        <v>2.63</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -27777,6 +28065,15 @@
       <c r="JO33" t="n">
         <v>3.5</v>
       </c>
+      <c r="JP33" t="n">
+        <v>7.14</v>
+      </c>
+      <c r="JQ33" t="n">
+        <v>7.14</v>
+      </c>
+      <c r="JR33" t="n">
+        <v>7.14</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -28606,6 +28903,15 @@
       <c r="JO34" t="n">
         <v>38.1</v>
       </c>
+      <c r="JP34" t="n">
+        <v>38</v>
+      </c>
+      <c r="JQ34" t="n">
+        <v>38</v>
+      </c>
+      <c r="JR34" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -29435,6 +29741,15 @@
       <c r="JO35" t="n">
         <v>28.6</v>
       </c>
+      <c r="JP35" t="n">
+        <v>14</v>
+      </c>
+      <c r="JQ35" t="n">
+        <v>14</v>
+      </c>
+      <c r="JR35" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -30264,6 +30579,15 @@
       <c r="JO36" t="n">
         <v>189.2</v>
       </c>
+      <c r="JP36" t="n">
+        <v>189.1</v>
+      </c>
+      <c r="JQ36" t="n">
+        <v>189.1</v>
+      </c>
+      <c r="JR36" t="n">
+        <v>189.1</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -31093,6 +31417,15 @@
       <c r="JO37" t="n">
         <v>86.2</v>
       </c>
+      <c r="JP37" t="n">
+        <v>85.7</v>
+      </c>
+      <c r="JQ37" t="n">
+        <v>85.7</v>
+      </c>
+      <c r="JR37" t="n">
+        <v>85.7</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -31922,6 +32255,15 @@
       <c r="JO38" t="n">
         <v>26.16</v>
       </c>
+      <c r="JP38" t="n">
+        <v>26</v>
+      </c>
+      <c r="JQ38" t="n">
+        <v>26</v>
+      </c>
+      <c r="JR38" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -32751,6 +33093,15 @@
       <c r="JO39" t="n">
         <v>110.7</v>
       </c>
+      <c r="JP39" t="n">
+        <v>109.3</v>
+      </c>
+      <c r="JQ39" t="n">
+        <v>109.3</v>
+      </c>
+      <c r="JR39" t="n">
+        <v>109.3</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -33580,6 +33931,15 @@
       <c r="JO40" t="n">
         <v>4</v>
       </c>
+      <c r="JP40" t="n">
+        <v>5</v>
+      </c>
+      <c r="JQ40" t="n">
+        <v>5</v>
+      </c>
+      <c r="JR40" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -34409,6 +34769,15 @@
       <c r="JO41" t="n">
         <v>8</v>
       </c>
+      <c r="JP41" t="n">
+        <v>8</v>
+      </c>
+      <c r="JQ41" t="n">
+        <v>8</v>
+      </c>
+      <c r="JR41" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -35238,6 +35607,15 @@
       <c r="JO42" t="n">
         <v>6</v>
       </c>
+      <c r="JP42" t="n">
+        <v>4</v>
+      </c>
+      <c r="JQ42" t="n">
+        <v>4</v>
+      </c>
+      <c r="JR42" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -36067,6 +36445,15 @@
       <c r="JO43" t="n">
         <v>5</v>
       </c>
+      <c r="JP43" t="n">
+        <v>6</v>
+      </c>
+      <c r="JQ43" t="n">
+        <v>6</v>
+      </c>
+      <c r="JR43" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -36896,6 +37283,15 @@
       <c r="JO44" t="n">
         <v>119</v>
       </c>
+      <c r="JP44" t="n">
+        <v>128</v>
+      </c>
+      <c r="JQ44" t="n">
+        <v>128</v>
+      </c>
+      <c r="JR44" t="n">
+        <v>128</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -37725,6 +38121,15 @@
       <c r="JO45" t="n">
         <v>211</v>
       </c>
+      <c r="JP45" t="n">
+        <v>167</v>
+      </c>
+      <c r="JQ45" t="n">
+        <v>167</v>
+      </c>
+      <c r="JR45" t="n">
+        <v>167</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -38554,6 +38959,15 @@
       <c r="JO46" t="n">
         <v>252</v>
       </c>
+      <c r="JP46" t="n">
+        <v>226</v>
+      </c>
+      <c r="JQ46" t="n">
+        <v>226</v>
+      </c>
+      <c r="JR46" t="n">
+        <v>226</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -39383,6 +39797,15 @@
       <c r="JO47" t="n">
         <v>73.90000000000001</v>
       </c>
+      <c r="JP47" t="n">
+        <v>73.90000000000001</v>
+      </c>
+      <c r="JQ47" t="n">
+        <v>73.90000000000001</v>
+      </c>
+      <c r="JR47" t="n">
+        <v>73.90000000000001</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -40212,6 +40635,15 @@
       <c r="JO48" t="n">
         <v>65</v>
       </c>
+      <c r="JP48" t="n">
+        <v>54</v>
+      </c>
+      <c r="JQ48" t="n">
+        <v>54</v>
+      </c>
+      <c r="JR48" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -41041,6 +41473,15 @@
       <c r="JO49" t="n">
         <v>8</v>
       </c>
+      <c r="JP49" t="n">
+        <v>9</v>
+      </c>
+      <c r="JQ49" t="n">
+        <v>9</v>
+      </c>
+      <c r="JR49" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -41870,6 +42311,15 @@
       <c r="JO50" t="n">
         <v>9</v>
       </c>
+      <c r="JP50" t="n">
+        <v>6</v>
+      </c>
+      <c r="JQ50" t="n">
+        <v>6</v>
+      </c>
+      <c r="JR50" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -42699,6 +43149,15 @@
       <c r="JO51" t="n">
         <v>35</v>
       </c>
+      <c r="JP51" t="n">
+        <v>31</v>
+      </c>
+      <c r="JQ51" t="n">
+        <v>31</v>
+      </c>
+      <c r="JR51" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -43528,6 +43987,15 @@
       <c r="JO52" t="n">
         <v>42</v>
       </c>
+      <c r="JP52" t="n">
+        <v>36</v>
+      </c>
+      <c r="JQ52" t="n">
+        <v>36</v>
+      </c>
+      <c r="JR52" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -44357,6 +44825,15 @@
       <c r="JO53" t="n">
         <v>34</v>
       </c>
+      <c r="JP53" t="n">
+        <v>41</v>
+      </c>
+      <c r="JQ53" t="n">
+        <v>41</v>
+      </c>
+      <c r="JR53" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -45186,6 +45663,15 @@
       <c r="JO54" t="n">
         <v>6</v>
       </c>
+      <c r="JP54" t="n">
+        <v>4</v>
+      </c>
+      <c r="JQ54" t="n">
+        <v>4</v>
+      </c>
+      <c r="JR54" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -46015,6 +46501,15 @@
       <c r="JO55" t="n">
         <v>8</v>
       </c>
+      <c r="JP55" t="n">
+        <v>5</v>
+      </c>
+      <c r="JQ55" t="n">
+        <v>5</v>
+      </c>
+      <c r="JR55" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -46844,6 +47339,15 @@
       <c r="JO56" t="n">
         <v>66.7</v>
       </c>
+      <c r="JP56" t="n">
+        <v>71.40000000000001</v>
+      </c>
+      <c r="JQ56" t="n">
+        <v>71.40000000000001</v>
+      </c>
+      <c r="JR56" t="n">
+        <v>71.40000000000001</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -47673,6 +48177,15 @@
       <c r="JO57" t="n">
         <v>246</v>
       </c>
+      <c r="JP57" t="n">
+        <v>256</v>
+      </c>
+      <c r="JQ57" t="n">
+        <v>256</v>
+      </c>
+      <c r="JR57" t="n">
+        <v>256</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -48502,6 +49015,15 @@
       <c r="JO58" t="n">
         <v>133</v>
       </c>
+      <c r="JP58" t="n">
+        <v>114</v>
+      </c>
+      <c r="JQ58" t="n">
+        <v>114</v>
+      </c>
+      <c r="JR58" t="n">
+        <v>114</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -49331,6 +49853,15 @@
       <c r="JO59" t="n">
         <v>379</v>
       </c>
+      <c r="JP59" t="n">
+        <v>370</v>
+      </c>
+      <c r="JQ59" t="n">
+        <v>370</v>
+      </c>
+      <c r="JR59" t="n">
+        <v>370</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -50160,6 +50691,15 @@
       <c r="JO60" t="n">
         <v>1.85</v>
       </c>
+      <c r="JP60" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="JQ60" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="JR60" t="n">
+        <v>2.25</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -50989,6 +51529,15 @@
       <c r="JO61" t="n">
         <v>118</v>
       </c>
+      <c r="JP61" t="n">
+        <v>135</v>
+      </c>
+      <c r="JQ61" t="n">
+        <v>135</v>
+      </c>
+      <c r="JR61" t="n">
+        <v>135</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -51818,6 +52367,15 @@
       <c r="JO62" t="n">
         <v>41</v>
       </c>
+      <c r="JP62" t="n">
+        <v>52</v>
+      </c>
+      <c r="JQ62" t="n">
+        <v>52</v>
+      </c>
+      <c r="JR62" t="n">
+        <v>52</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -52647,6 +53205,15 @@
       <c r="JO63" t="n">
         <v>30</v>
       </c>
+      <c r="JP63" t="n">
+        <v>27</v>
+      </c>
+      <c r="JQ63" t="n">
+        <v>27</v>
+      </c>
+      <c r="JR63" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -53476,6 +54043,15 @@
       <c r="JO64" t="n">
         <v>21</v>
       </c>
+      <c r="JP64" t="n">
+        <v>17</v>
+      </c>
+      <c r="JQ64" t="n">
+        <v>17</v>
+      </c>
+      <c r="JR64" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -54305,6 +54881,15 @@
       <c r="JO65" t="n">
         <v>14</v>
       </c>
+      <c r="JP65" t="n">
+        <v>16</v>
+      </c>
+      <c r="JQ65" t="n">
+        <v>16</v>
+      </c>
+      <c r="JR65" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -55134,6 +55719,15 @@
       <c r="JO66" t="n">
         <v>22</v>
       </c>
+      <c r="JP66" t="n">
+        <v>14</v>
+      </c>
+      <c r="JQ66" t="n">
+        <v>14</v>
+      </c>
+      <c r="JR66" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -55963,6 +56557,15 @@
       <c r="JO67" t="n">
         <v>20</v>
       </c>
+      <c r="JP67" t="n">
+        <v>10</v>
+      </c>
+      <c r="JQ67" t="n">
+        <v>10</v>
+      </c>
+      <c r="JR67" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -56792,6 +57395,15 @@
       <c r="JO68" t="n">
         <v>17</v>
       </c>
+      <c r="JP68" t="n">
+        <v>12</v>
+      </c>
+      <c r="JQ68" t="n">
+        <v>12</v>
+      </c>
+      <c r="JR68" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -57621,6 +58233,15 @@
       <c r="JO69" t="n">
         <v>3</v>
       </c>
+      <c r="JP69" t="n">
+        <v>1</v>
+      </c>
+      <c r="JQ69" t="n">
+        <v>1</v>
+      </c>
+      <c r="JR69" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -58450,6 +59071,15 @@
       <c r="JO70" t="n">
         <v>42</v>
       </c>
+      <c r="JP70" t="n">
+        <v>27</v>
+      </c>
+      <c r="JQ70" t="n">
+        <v>27</v>
+      </c>
+      <c r="JR70" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -59279,6 +59909,15 @@
       <c r="JO71" t="n">
         <v>52.4</v>
       </c>
+      <c r="JP71" t="n">
+        <v>51.9</v>
+      </c>
+      <c r="JQ71" t="n">
+        <v>51.9</v>
+      </c>
+      <c r="JR71" t="n">
+        <v>51.9</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -60108,6 +60747,15 @@
       <c r="JO72" t="n">
         <v>17.23</v>
       </c>
+      <c r="JP72" t="n">
+        <v>26.43</v>
+      </c>
+      <c r="JQ72" t="n">
+        <v>26.43</v>
+      </c>
+      <c r="JR72" t="n">
+        <v>26.43</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -60937,6 +61585,15 @@
       <c r="JO73" t="n">
         <v>9.02</v>
       </c>
+      <c r="JP73" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="JQ73" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="JR73" t="n">
+        <v>13.7</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -61766,6 +62423,15 @@
       <c r="JO74" t="n">
         <v>37</v>
       </c>
+      <c r="JP74" t="n">
+        <v>34</v>
+      </c>
+      <c r="JQ74" t="n">
+        <v>34</v>
+      </c>
+      <c r="JR74" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -62595,6 +63261,15 @@
       <c r="JO75" t="n">
         <v>53</v>
       </c>
+      <c r="JP75" t="n">
+        <v>53</v>
+      </c>
+      <c r="JQ75" t="n">
+        <v>53</v>
+      </c>
+      <c r="JR75" t="n">
+        <v>53</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -63424,6 +64099,15 @@
       <c r="JO76" t="n">
         <v>28</v>
       </c>
+      <c r="JP76" t="n">
+        <v>42</v>
+      </c>
+      <c r="JQ76" t="n">
+        <v>42</v>
+      </c>
+      <c r="JR76" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -64253,6 +64937,15 @@
       <c r="JO77" t="n">
         <v>66</v>
       </c>
+      <c r="JP77" t="n">
+        <v>51</v>
+      </c>
+      <c r="JQ77" t="n">
+        <v>51</v>
+      </c>
+      <c r="JR77" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -65082,6 +65775,15 @@
       <c r="JO78" t="n">
         <v>1.57</v>
       </c>
+      <c r="JP78" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="JQ78" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="JR78" t="n">
+        <v>1.89</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -65911,6 +66613,15 @@
       <c r="JO79" t="n">
         <v>3</v>
       </c>
+      <c r="JP79" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="JQ79" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="JR79" t="n">
+        <v>3.64</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -66740,6 +67451,15 @@
       <c r="JO80" t="n">
         <v>59.1</v>
       </c>
+      <c r="JP80" t="n">
+        <v>51</v>
+      </c>
+      <c r="JQ80" t="n">
+        <v>51</v>
+      </c>
+      <c r="JR80" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -67569,6 +68289,15 @@
       <c r="JO81" t="n">
         <v>33.3</v>
       </c>
+      <c r="JP81" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="JQ81" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="JR81" t="n">
+        <v>27.5</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -68398,6 +69127,15 @@
       <c r="JO82" t="n">
         <v>188.6</v>
       </c>
+      <c r="JP82" t="n">
+        <v>188.4</v>
+      </c>
+      <c r="JQ82" t="n">
+        <v>188.4</v>
+      </c>
+      <c r="JR82" t="n">
+        <v>188.4</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -69227,6 +69965,15 @@
       <c r="JO83" t="n">
         <v>89.7</v>
       </c>
+      <c r="JP83" t="n">
+        <v>86.7</v>
+      </c>
+      <c r="JQ83" t="n">
+        <v>86.7</v>
+      </c>
+      <c r="JR83" t="n">
+        <v>86.7</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -70056,6 +70803,15 @@
       <c r="JO84" t="n">
         <v>26.58</v>
       </c>
+      <c r="JP84" t="n">
+        <v>25.58</v>
+      </c>
+      <c r="JQ84" t="n">
+        <v>25.58</v>
+      </c>
+      <c r="JR84" t="n">
+        <v>25.58</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -70885,6 +71641,15 @@
       <c r="JO85" t="n">
         <v>114.4</v>
       </c>
+      <c r="JP85" t="n">
+        <v>97</v>
+      </c>
+      <c r="JQ85" t="n">
+        <v>97</v>
+      </c>
+      <c r="JR85" t="n">
+        <v>97</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -71714,6 +72479,15 @@
       <c r="JO86" t="n">
         <v>6</v>
       </c>
+      <c r="JP86" t="n">
+        <v>4</v>
+      </c>
+      <c r="JQ86" t="n">
+        <v>4</v>
+      </c>
+      <c r="JR86" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -72543,6 +73317,15 @@
       <c r="JO87" t="n">
         <v>4</v>
       </c>
+      <c r="JP87" t="n">
+        <v>11</v>
+      </c>
+      <c r="JQ87" t="n">
+        <v>11</v>
+      </c>
+      <c r="JR87" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -73372,6 +74155,15 @@
       <c r="JO88" t="n">
         <v>6</v>
       </c>
+      <c r="JP88" t="n">
+        <v>4</v>
+      </c>
+      <c r="JQ88" t="n">
+        <v>4</v>
+      </c>
+      <c r="JR88" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -74201,6 +74993,15 @@
       <c r="JO89" t="n">
         <v>7</v>
       </c>
+      <c r="JP89" t="n">
+        <v>4</v>
+      </c>
+      <c r="JQ89" t="n">
+        <v>4</v>
+      </c>
+      <c r="JR89" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -75030,6 +75831,15 @@
       <c r="JO90" t="n">
         <v>141</v>
       </c>
+      <c r="JP90" t="n">
+        <v>133</v>
+      </c>
+      <c r="JQ90" t="n">
+        <v>133</v>
+      </c>
+      <c r="JR90" t="n">
+        <v>133</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -75859,6 +76669,15 @@
       <c r="JO91" t="n">
         <v>242</v>
       </c>
+      <c r="JP91" t="n">
+        <v>238</v>
+      </c>
+      <c r="JQ91" t="n">
+        <v>238</v>
+      </c>
+      <c r="JR91" t="n">
+        <v>238</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -76688,6 +77507,15 @@
       <c r="JO92" t="n">
         <v>285</v>
       </c>
+      <c r="JP92" t="n">
+        <v>276</v>
+      </c>
+      <c r="JQ92" t="n">
+        <v>276</v>
+      </c>
+      <c r="JR92" t="n">
+        <v>276</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -77517,6 +78345,15 @@
       <c r="JO93" t="n">
         <v>75.2</v>
       </c>
+      <c r="JP93" t="n">
+        <v>74.59999999999999</v>
+      </c>
+      <c r="JQ93" t="n">
+        <v>74.59999999999999</v>
+      </c>
+      <c r="JR93" t="n">
+        <v>74.59999999999999</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -78346,6 +79183,15 @@
       <c r="JO94" t="n">
         <v>53</v>
       </c>
+      <c r="JP94" t="n">
+        <v>53</v>
+      </c>
+      <c r="JQ94" t="n">
+        <v>53</v>
+      </c>
+      <c r="JR94" t="n">
+        <v>53</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -79175,6 +80021,15 @@
       <c r="JO95" t="n">
         <v>17</v>
       </c>
+      <c r="JP95" t="n">
+        <v>12</v>
+      </c>
+      <c r="JQ95" t="n">
+        <v>12</v>
+      </c>
+      <c r="JR95" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -80004,6 +80859,15 @@
       <c r="JO96" t="n">
         <v>33</v>
       </c>
+      <c r="JP96" t="n">
+        <v>20</v>
+      </c>
+      <c r="JQ96" t="n">
+        <v>20</v>
+      </c>
+      <c r="JR96" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -80833,6 +81697,15 @@
       <c r="JO97" t="n">
         <v>37</v>
       </c>
+      <c r="JP97" t="n">
+        <v>34</v>
+      </c>
+      <c r="JQ97" t="n">
+        <v>34</v>
+      </c>
+      <c r="JR97" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -81662,6 +82535,15 @@
       <c r="JO98" t="n">
         <v>28</v>
       </c>
+      <c r="JP98" t="n">
+        <v>42</v>
+      </c>
+      <c r="JQ98" t="n">
+        <v>42</v>
+      </c>
+      <c r="JR98" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -82491,6 +83373,15 @@
       <c r="JO99" t="n">
         <v>37</v>
       </c>
+      <c r="JP99" t="n">
+        <v>34</v>
+      </c>
+      <c r="JQ99" t="n">
+        <v>34</v>
+      </c>
+      <c r="JR99" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -83320,6 +84211,15 @@
       <c r="JO100" t="n">
         <v>2</v>
       </c>
+      <c r="JP100" t="n">
+        <v>1</v>
+      </c>
+      <c r="JQ100" t="n">
+        <v>1</v>
+      </c>
+      <c r="JR100" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -84149,6 +85049,15 @@
       <c r="JO101" t="n">
         <v>20</v>
       </c>
+      <c r="JP101" t="n">
+        <v>10</v>
+      </c>
+      <c r="JQ101" t="n">
+        <v>10</v>
+      </c>
+      <c r="JR101" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -84978,6 +85887,15 @@
       <c r="JO102" t="n">
         <v>90.90000000000001</v>
       </c>
+      <c r="JP102" t="n">
+        <v>71.40000000000001</v>
+      </c>
+      <c r="JQ102" t="n">
+        <v>71.40000000000001</v>
+      </c>
+      <c r="JR102" t="n">
+        <v>71.40000000000001</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/AFL_ML/Data/North Melbourne_stats.xlsx
+++ b/AFL_ML/Data/North Melbourne_stats.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:JY102"/>
+  <dimension ref="A1:JZ102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1279,6 +1279,9 @@
       <c r="JY1" t="n">
         <v>10802</v>
       </c>
+      <c r="JZ1" t="n">
+        <v>10809</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -2138,6 +2141,9 @@
       <c r="JY2" t="n">
         <v>2023</v>
       </c>
+      <c r="JZ2" t="n">
+        <v>2023</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2997,6 +3003,9 @@
       <c r="JY3" t="n">
         <v>6</v>
       </c>
+      <c r="JZ3" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3856,6 +3865,9 @@
       <c r="JY4" t="n">
         <v>1</v>
       </c>
+      <c r="JZ4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -4715,6 +4727,9 @@
       <c r="JY5" t="n">
         <v>0</v>
       </c>
+      <c r="JZ5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -5574,6 +5589,9 @@
       <c r="JY6" t="n">
         <v>54</v>
       </c>
+      <c r="JZ6" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -6433,6 +6451,9 @@
       <c r="JY7" t="n">
         <v>97</v>
       </c>
+      <c r="JZ7" t="n">
+        <v>139</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -7292,6 +7313,9 @@
       <c r="JY8" t="n">
         <v>-43</v>
       </c>
+      <c r="JZ8" t="n">
+        <v>-90</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -8151,6 +8175,9 @@
       <c r="JY9" t="n">
         <v>0</v>
       </c>
+      <c r="JZ9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -9010,6 +9037,9 @@
       <c r="JY10" t="n">
         <v>8</v>
       </c>
+      <c r="JZ10" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -9869,6 +9899,9 @@
       <c r="JY11" t="n">
         <v>188</v>
       </c>
+      <c r="JZ11" t="n">
+        <v>228</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -10728,6 +10761,9 @@
       <c r="JY12" t="n">
         <v>118</v>
       </c>
+      <c r="JZ12" t="n">
+        <v>127</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -11587,6 +11623,9 @@
       <c r="JY13" t="n">
         <v>306</v>
       </c>
+      <c r="JZ13" t="n">
+        <v>355</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -12446,6 +12485,9 @@
       <c r="JY14" t="n">
         <v>1.59</v>
       </c>
+      <c r="JZ14" t="n">
+        <v>1.8</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -13305,6 +13347,9 @@
       <c r="JY15" t="n">
         <v>69</v>
       </c>
+      <c r="JZ15" t="n">
+        <v>124</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -14164,6 +14209,9 @@
       <c r="JY16" t="n">
         <v>48</v>
       </c>
+      <c r="JZ16" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -15023,6 +15071,9 @@
       <c r="JY17" t="n">
         <v>34</v>
       </c>
+      <c r="JZ17" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -15882,6 +15933,9 @@
       <c r="JY18" t="n">
         <v>16</v>
       </c>
+      <c r="JZ18" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -16741,6 +16795,9 @@
       <c r="JY19" t="n">
         <v>17</v>
       </c>
+      <c r="JZ19" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -17600,6 +17657,9 @@
       <c r="JY20" t="n">
         <v>7</v>
       </c>
+      <c r="JZ20" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -18459,6 +18519,9 @@
       <c r="JY21" t="n">
         <v>5</v>
       </c>
+      <c r="JZ21" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -19318,6 +19381,9 @@
       <c r="JY22" t="n">
         <v>12</v>
       </c>
+      <c r="JZ22" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -20177,6 +20243,9 @@
       <c r="JY23" t="n">
         <v>0</v>
       </c>
+      <c r="JZ23" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -21036,6 +21105,9 @@
       <c r="JY24" t="n">
         <v>19</v>
       </c>
+      <c r="JZ24" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -21895,6 +21967,9 @@
       <c r="JY25" t="n">
         <v>36.8</v>
       </c>
+      <c r="JZ25" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -22754,6 +22829,9 @@
       <c r="JY26" t="n">
         <v>43.71</v>
       </c>
+      <c r="JZ26" t="n">
+        <v>50.71</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -23613,6 +23691,9 @@
       <c r="JY27" t="n">
         <v>16.11</v>
       </c>
+      <c r="JZ27" t="n">
+        <v>25.36</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -24472,6 +24553,9 @@
       <c r="JY28" t="n">
         <v>31</v>
       </c>
+      <c r="JZ28" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -25331,6 +25415,9 @@
       <c r="JY29" t="n">
         <v>54</v>
       </c>
+      <c r="JZ29" t="n">
+        <v>56</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -26190,6 +26277,9 @@
       <c r="JY30" t="n">
         <v>36</v>
       </c>
+      <c r="JZ30" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -27049,6 +27139,9 @@
       <c r="JY31" t="n">
         <v>50</v>
       </c>
+      <c r="JZ31" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -27908,6 +28001,9 @@
       <c r="JY32" t="n">
         <v>2.63</v>
       </c>
+      <c r="JZ32" t="n">
+        <v>3.64</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -28767,6 +28863,9 @@
       <c r="JY33" t="n">
         <v>7.14</v>
       </c>
+      <c r="JZ33" t="n">
+        <v>7.29</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -29626,6 +29725,9 @@
       <c r="JY34" t="n">
         <v>38</v>
       </c>
+      <c r="JZ34" t="n">
+        <v>23.5</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -30485,6 +30587,9 @@
       <c r="JY35" t="n">
         <v>14</v>
       </c>
+      <c r="JZ35" t="n">
+        <v>13.7</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -31344,6 +31449,9 @@
       <c r="JY36" t="n">
         <v>189.1</v>
       </c>
+      <c r="JZ36" t="n">
+        <v>189.7</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -32203,6 +32311,9 @@
       <c r="JY37" t="n">
         <v>85.7</v>
       </c>
+      <c r="JZ37" t="n">
+        <v>86.3</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -33062,6 +33173,9 @@
       <c r="JY38" t="n">
         <v>26</v>
       </c>
+      <c r="JZ38" t="n">
+        <v>26.16</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -33921,6 +34035,9 @@
       <c r="JY39" t="n">
         <v>109.3</v>
       </c>
+      <c r="JZ39" t="n">
+        <v>112.1</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -34780,6 +34897,9 @@
       <c r="JY40" t="n">
         <v>5</v>
       </c>
+      <c r="JZ40" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -35639,6 +35759,9 @@
       <c r="JY41" t="n">
         <v>8</v>
       </c>
+      <c r="JZ41" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -36498,6 +36621,9 @@
       <c r="JY42" t="n">
         <v>4</v>
       </c>
+      <c r="JZ42" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -37357,6 +37483,9 @@
       <c r="JY43" t="n">
         <v>6</v>
       </c>
+      <c r="JZ43" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -38216,6 +38345,9 @@
       <c r="JY44" t="n">
         <v>128</v>
       </c>
+      <c r="JZ44" t="n">
+        <v>117</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -39075,6 +39207,9 @@
       <c r="JY45" t="n">
         <v>167</v>
       </c>
+      <c r="JZ45" t="n">
+        <v>237</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -39934,6 +40069,9 @@
       <c r="JY46" t="n">
         <v>226</v>
       </c>
+      <c r="JZ46" t="n">
+        <v>269</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -40793,6 +40931,9 @@
       <c r="JY47" t="n">
         <v>73.90000000000001</v>
       </c>
+      <c r="JZ47" t="n">
+        <v>75.8</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -41652,6 +41793,9 @@
       <c r="JY48" t="n">
         <v>54</v>
       </c>
+      <c r="JZ48" t="n">
+        <v>56</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -42511,6 +42655,9 @@
       <c r="JY49" t="n">
         <v>9</v>
       </c>
+      <c r="JZ49" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -43370,6 +43517,9 @@
       <c r="JY50" t="n">
         <v>6</v>
       </c>
+      <c r="JZ50" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -44229,6 +44379,9 @@
       <c r="JY51" t="n">
         <v>31</v>
       </c>
+      <c r="JZ51" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -45088,6 +45241,9 @@
       <c r="JY52" t="n">
         <v>36</v>
       </c>
+      <c r="JZ52" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -45947,6 +46103,9 @@
       <c r="JY53" t="n">
         <v>41</v>
       </c>
+      <c r="JZ53" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -46806,6 +46965,9 @@
       <c r="JY54" t="n">
         <v>4</v>
       </c>
+      <c r="JZ54" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -47665,6 +47827,9 @@
       <c r="JY55" t="n">
         <v>5</v>
       </c>
+      <c r="JZ55" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -48524,6 +48689,9 @@
       <c r="JY56" t="n">
         <v>71.40000000000001</v>
       </c>
+      <c r="JZ56" t="n">
+        <v>71.40000000000001</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -49383,6 +49551,9 @@
       <c r="JY57" t="n">
         <v>256</v>
       </c>
+      <c r="JZ57" t="n">
+        <v>228</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -50242,6 +50413,9 @@
       <c r="JY58" t="n">
         <v>114</v>
       </c>
+      <c r="JZ58" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -51101,6 +51275,9 @@
       <c r="JY59" t="n">
         <v>370</v>
       </c>
+      <c r="JZ59" t="n">
+        <v>419</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -51960,6 +52137,9 @@
       <c r="JY60" t="n">
         <v>2.25</v>
       </c>
+      <c r="JZ60" t="n">
+        <v>1.19</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -52819,6 +52999,9 @@
       <c r="JY61" t="n">
         <v>135</v>
       </c>
+      <c r="JZ61" t="n">
+        <v>95</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -53678,6 +53861,9 @@
       <c r="JY62" t="n">
         <v>52</v>
       </c>
+      <c r="JZ62" t="n">
+        <v>53</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -54537,6 +54723,9 @@
       <c r="JY63" t="n">
         <v>27</v>
       </c>
+      <c r="JZ63" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -55396,6 +55585,9 @@
       <c r="JY64" t="n">
         <v>17</v>
       </c>
+      <c r="JZ64" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -56255,6 +56447,9 @@
       <c r="JY65" t="n">
         <v>16</v>
       </c>
+      <c r="JZ65" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -57114,6 +57309,9 @@
       <c r="JY66" t="n">
         <v>14</v>
       </c>
+      <c r="JZ66" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -57973,6 +58171,9 @@
       <c r="JY67" t="n">
         <v>10</v>
       </c>
+      <c r="JZ67" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -58832,6 +59033,9 @@
       <c r="JY68" t="n">
         <v>12</v>
       </c>
+      <c r="JZ68" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -59691,6 +59895,9 @@
       <c r="JY69" t="n">
         <v>1</v>
       </c>
+      <c r="JZ69" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -60550,6 +60757,9 @@
       <c r="JY70" t="n">
         <v>27</v>
       </c>
+      <c r="JZ70" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -61409,6 +61619,9 @@
       <c r="JY71" t="n">
         <v>51.9</v>
       </c>
+      <c r="JZ71" t="n">
+        <v>75.90000000000001</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -62268,6 +62481,9 @@
       <c r="JY72" t="n">
         <v>26.43</v>
       </c>
+      <c r="JZ72" t="n">
+        <v>19.05</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -63127,6 +63343,9 @@
       <c r="JY73" t="n">
         <v>13.7</v>
       </c>
+      <c r="JZ73" t="n">
+        <v>14.45</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -63986,6 +64205,9 @@
       <c r="JY74" t="n">
         <v>34</v>
       </c>
+      <c r="JZ74" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -64845,6 +65067,9 @@
       <c r="JY75" t="n">
         <v>53</v>
       </c>
+      <c r="JZ75" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -65704,6 +65929,9 @@
       <c r="JY76" t="n">
         <v>42</v>
       </c>
+      <c r="JZ76" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -66563,6 +66791,9 @@
       <c r="JY77" t="n">
         <v>51</v>
       </c>
+      <c r="JZ77" t="n">
+        <v>64</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -67422,6 +67653,9 @@
       <c r="JY78" t="n">
         <v>1.89</v>
       </c>
+      <c r="JZ78" t="n">
+        <v>2.21</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -68281,6 +68515,9 @@
       <c r="JY79" t="n">
         <v>3.64</v>
       </c>
+      <c r="JZ79" t="n">
+        <v>2.91</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -69140,6 +69377,9 @@
       <c r="JY80" t="n">
         <v>51</v>
       </c>
+      <c r="JZ80" t="n">
+        <v>39.1</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -69999,6 +70239,9 @@
       <c r="JY81" t="n">
         <v>27.5</v>
       </c>
+      <c r="JZ81" t="n">
+        <v>34.4</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -70858,6 +71101,9 @@
       <c r="JY82" t="n">
         <v>188.4</v>
       </c>
+      <c r="JZ82" t="n">
+        <v>187.3</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -71717,6 +71963,9 @@
       <c r="JY83" t="n">
         <v>86.7</v>
       </c>
+      <c r="JZ83" t="n">
+        <v>87.40000000000001</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -72576,6 +72825,9 @@
       <c r="JY84" t="n">
         <v>25.58</v>
       </c>
+      <c r="JZ84" t="n">
+        <v>25.91</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -73435,6 +73687,9 @@
       <c r="JY85" t="n">
         <v>97</v>
       </c>
+      <c r="JZ85" t="n">
+        <v>114</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -74294,6 +74549,9 @@
       <c r="JY86" t="n">
         <v>4</v>
       </c>
+      <c r="JZ86" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -75153,6 +75411,9 @@
       <c r="JY87" t="n">
         <v>11</v>
       </c>
+      <c r="JZ87" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -76012,6 +76273,9 @@
       <c r="JY88" t="n">
         <v>4</v>
       </c>
+      <c r="JZ88" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -76871,6 +77135,9 @@
       <c r="JY89" t="n">
         <v>4</v>
       </c>
+      <c r="JZ89" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -77730,6 +77997,9 @@
       <c r="JY90" t="n">
         <v>133</v>
       </c>
+      <c r="JZ90" t="n">
+        <v>149</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -78589,6 +78859,9 @@
       <c r="JY91" t="n">
         <v>238</v>
       </c>
+      <c r="JZ91" t="n">
+        <v>269</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -79448,6 +79721,9 @@
       <c r="JY92" t="n">
         <v>276</v>
       </c>
+      <c r="JZ92" t="n">
+        <v>333</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -80307,6 +80583,9 @@
       <c r="JY93" t="n">
         <v>74.59999999999999</v>
       </c>
+      <c r="JZ93" t="n">
+        <v>79.5</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -81166,6 +81445,9 @@
       <c r="JY94" t="n">
         <v>53</v>
       </c>
+      <c r="JZ94" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -82025,6 +82307,9 @@
       <c r="JY95" t="n">
         <v>12</v>
       </c>
+      <c r="JZ95" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -82884,6 +83169,9 @@
       <c r="JY96" t="n">
         <v>20</v>
       </c>
+      <c r="JZ96" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -83743,6 +84031,9 @@
       <c r="JY97" t="n">
         <v>34</v>
       </c>
+      <c r="JZ97" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -84602,6 +84893,9 @@
       <c r="JY98" t="n">
         <v>42</v>
       </c>
+      <c r="JZ98" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -85461,6 +85755,9 @@
       <c r="JY99" t="n">
         <v>34</v>
       </c>
+      <c r="JZ99" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -86320,6 +86617,9 @@
       <c r="JY100" t="n">
         <v>1</v>
       </c>
+      <c r="JZ100" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -87179,6 +87479,9 @@
       <c r="JY101" t="n">
         <v>10</v>
       </c>
+      <c r="JZ101" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -88038,6 +88341,9 @@
       <c r="JY102" t="n">
         <v>71.40000000000001</v>
       </c>
+      <c r="JZ102" t="n">
+        <v>63.6</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/AFL_ML/Data/North Melbourne_stats.xlsx
+++ b/AFL_ML/Data/North Melbourne_stats.xlsx
@@ -445,7 +445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:KG102"/>
+  <dimension ref="A1:KH102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="JT88" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="KA93" activeCellId="0" sqref="KA93"/>
@@ -1335,8 +1335,11 @@
       <c r="KF1" s="1" t="n">
         <v>10856</v>
       </c>
-      <c r="KG1" t="n">
+      <c r="KG1" s="1" t="n">
         <v>10862</v>
+      </c>
+      <c r="KH1" t="n">
+        <v>10870</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="2">
@@ -2218,7 +2221,10 @@
       <c r="KF2" s="1" t="n">
         <v>2023</v>
       </c>
-      <c r="KG2" t="n">
+      <c r="KG2" s="1" t="n">
+        <v>2023</v>
+      </c>
+      <c r="KH2" t="n">
         <v>2023</v>
       </c>
     </row>
@@ -3101,8 +3107,11 @@
       <c r="KF3" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="KG3" t="n">
+      <c r="KG3" s="1" t="n">
         <v>13</v>
+      </c>
+      <c r="KH3" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="2">
@@ -3984,7 +3993,10 @@
       <c r="KF4" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="KG4" t="n">
+      <c r="KG4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KH4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4867,7 +4879,10 @@
       <c r="KF5" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="KG5" t="n">
+      <c r="KG5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="KH5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5750,8 +5765,11 @@
       <c r="KF6" s="1" t="n">
         <v>99</v>
       </c>
-      <c r="KG6" t="n">
+      <c r="KG6" s="1" t="n">
         <v>75</v>
+      </c>
+      <c r="KH6" t="n">
+        <v>84</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="2">
@@ -6633,8 +6651,11 @@
       <c r="KF7" s="1" t="n">
         <v>105</v>
       </c>
-      <c r="KG7" t="n">
+      <c r="KG7" s="1" t="n">
         <v>103</v>
+      </c>
+      <c r="KH7" t="n">
+        <v>105</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="2">
@@ -7516,8 +7537,11 @@
       <c r="KF8" s="1" t="n">
         <v>-6</v>
       </c>
-      <c r="KG8" t="n">
+      <c r="KG8" s="1" t="n">
         <v>-28</v>
+      </c>
+      <c r="KH8" t="n">
+        <v>-21</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="2">
@@ -8399,7 +8423,10 @@
       <c r="KF9" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="KG9" t="n">
+      <c r="KG9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KH9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9282,8 +9309,11 @@
       <c r="KF10" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="KG10" t="n">
+      <c r="KG10" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="KH10" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="2">
@@ -10165,8 +10195,11 @@
       <c r="KF11" s="1" t="n">
         <v>205</v>
       </c>
-      <c r="KG11" t="n">
+      <c r="KG11" s="1" t="n">
         <v>202</v>
+      </c>
+      <c r="KH11" t="n">
+        <v>181</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="2">
@@ -11048,8 +11081,11 @@
       <c r="KF12" s="1" t="n">
         <v>147</v>
       </c>
-      <c r="KG12" t="n">
+      <c r="KG12" s="1" t="n">
         <v>173</v>
+      </c>
+      <c r="KH12" t="n">
+        <v>148</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="2">
@@ -11931,8 +11967,11 @@
       <c r="KF13" s="1" t="n">
         <v>352</v>
       </c>
-      <c r="KG13" t="n">
+      <c r="KG13" s="1" t="n">
         <v>375</v>
+      </c>
+      <c r="KH13" t="n">
+        <v>329</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="2">
@@ -12814,8 +12853,11 @@
       <c r="KF14" s="1" t="n">
         <v>1.39</v>
       </c>
-      <c r="KG14" t="n">
+      <c r="KG14" s="1" t="n">
         <v>1.17</v>
+      </c>
+      <c r="KH14" t="n">
+        <v>1.22</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="2">
@@ -13697,8 +13739,11 @@
       <c r="KF15" s="1" t="n">
         <v>87</v>
       </c>
-      <c r="KG15" t="n">
+      <c r="KG15" s="1" t="n">
         <v>81</v>
+      </c>
+      <c r="KH15" t="n">
+        <v>73</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="2">
@@ -14580,8 +14625,11 @@
       <c r="KF16" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="KG16" t="n">
+      <c r="KG16" s="1" t="n">
         <v>52</v>
+      </c>
+      <c r="KH16" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="2">
@@ -15463,8 +15511,11 @@
       <c r="KF17" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="KG17" t="n">
+      <c r="KG17" s="1" t="n">
         <v>29</v>
+      </c>
+      <c r="KH17" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="2">
@@ -16346,8 +16397,11 @@
       <c r="KF18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="KG18" t="n">
+      <c r="KG18" s="1" t="n">
         <v>15</v>
+      </c>
+      <c r="KH18" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="2">
@@ -17229,8 +17283,11 @@
       <c r="KF19" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="KG19" t="n">
+      <c r="KG19" s="1" t="n">
         <v>15</v>
+      </c>
+      <c r="KH19" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="2">
@@ -18112,8 +18169,11 @@
       <c r="KF20" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="KG20" t="n">
+      <c r="KG20" s="1" t="n">
         <v>11</v>
+      </c>
+      <c r="KH20" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="2">
@@ -18995,8 +19055,11 @@
       <c r="KF21" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="KG21" t="n">
+      <c r="KG21" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="KH21" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="2">
@@ -19878,8 +19941,11 @@
       <c r="KF22" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="KG22" t="n">
+      <c r="KG22" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="KH22" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="2">
@@ -20761,8 +20827,11 @@
       <c r="KF23" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="KG23" t="n">
+      <c r="KG23" s="1" t="n">
         <v>3</v>
+      </c>
+      <c r="KH23" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="2">
@@ -21644,8 +21713,11 @@
       <c r="KF24" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="KG24" t="n">
+      <c r="KG24" s="1" t="n">
         <v>20</v>
+      </c>
+      <c r="KH24" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="2">
@@ -22527,8 +22599,11 @@
       <c r="KF25" s="1" t="n">
         <v>62.5</v>
       </c>
-      <c r="KG25" t="n">
+      <c r="KG25" s="1" t="n">
         <v>55</v>
+      </c>
+      <c r="KH25" t="n">
+        <v>68.40000000000001</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="2">
@@ -23410,8 +23485,11 @@
       <c r="KF26" s="1" t="n">
         <v>23.47</v>
       </c>
-      <c r="KG26" t="n">
+      <c r="KG26" s="1" t="n">
         <v>34.09</v>
+      </c>
+      <c r="KH26" t="n">
+        <v>25.31</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="2">
@@ -24293,8 +24371,11 @@
       <c r="KF27" s="1" t="n">
         <v>14.67</v>
       </c>
-      <c r="KG27" t="n">
+      <c r="KG27" s="1" t="n">
         <v>18.75</v>
+      </c>
+      <c r="KH27" t="n">
+        <v>17.32</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="2">
@@ -25176,8 +25257,11 @@
       <c r="KF28" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="KG28" t="n">
+      <c r="KG28" s="1" t="n">
         <v>31</v>
+      </c>
+      <c r="KH28" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="2">
@@ -26059,8 +26143,11 @@
       <c r="KF29" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="KG29" t="n">
+      <c r="KG29" s="1" t="n">
         <v>61</v>
+      </c>
+      <c r="KH29" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="2">
@@ -26942,8 +27029,11 @@
       <c r="KF30" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="KG30" t="n">
+      <c r="KG30" s="1" t="n">
         <v>46</v>
+      </c>
+      <c r="KH30" t="n">
+        <v>53</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="2">
@@ -27825,8 +27915,11 @@
       <c r="KF31" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="KG31" t="n">
+      <c r="KG31" s="1" t="n">
         <v>47</v>
+      </c>
+      <c r="KH31" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="2">
@@ -28708,8 +28801,11 @@
       <c r="KF32" s="1" t="n">
         <v>2.08</v>
       </c>
-      <c r="KG32" t="n">
+      <c r="KG32" s="1" t="n">
         <v>2.35</v>
+      </c>
+      <c r="KH32" t="n">
+        <v>1.89</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="2">
@@ -29591,8 +29687,11 @@
       <c r="KF33" s="1" t="n">
         <v>3.33</v>
       </c>
-      <c r="KG33" t="n">
+      <c r="KG33" s="1" t="n">
         <v>4.27</v>
+      </c>
+      <c r="KH33" t="n">
+        <v>2.77</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="2">
@@ -30474,8 +30573,11 @@
       <c r="KF34" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="KG34" t="n">
+      <c r="KG34" s="1" t="n">
         <v>36.2</v>
+      </c>
+      <c r="KH34" t="n">
+        <v>47.2</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="2">
@@ -31357,8 +31459,11 @@
       <c r="KF35" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="KG35" t="n">
+      <c r="KG35" s="1" t="n">
         <v>23.4</v>
+      </c>
+      <c r="KH35" t="n">
+        <v>36.1</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="2">
@@ -32240,8 +32345,11 @@
       <c r="KF36" s="1" t="n">
         <v>188.3</v>
       </c>
-      <c r="KG36" t="n">
+      <c r="KG36" s="1" t="n">
         <v>188.6</v>
+      </c>
+      <c r="KH36" t="n">
+        <v>188.7</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="2">
@@ -33123,7 +33231,10 @@
       <c r="KF37" s="1" t="n">
         <v>84.8</v>
       </c>
-      <c r="KG37" t="n">
+      <c r="KG37" s="1" t="n">
+        <v>84.90000000000001</v>
+      </c>
+      <c r="KH37" t="n">
         <v>84.90000000000001</v>
       </c>
     </row>
@@ -34006,8 +34117,11 @@
       <c r="KF38" s="1" t="n">
         <v>25.24</v>
       </c>
-      <c r="KG38" t="n">
+      <c r="KG38" s="1" t="n">
         <v>24.91</v>
+      </c>
+      <c r="KH38" t="n">
+        <v>24.8</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="2">
@@ -34889,8 +35003,11 @@
       <c r="KF39" s="1" t="n">
         <v>95.59999999999999</v>
       </c>
-      <c r="KG39" t="n">
+      <c r="KG39" s="1" t="n">
         <v>92.90000000000001</v>
+      </c>
+      <c r="KH39" t="n">
+        <v>92.2</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="2">
@@ -35772,7 +35889,10 @@
       <c r="KF40" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="KG40" t="n">
+      <c r="KG40" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="KH40" t="n">
         <v>9</v>
       </c>
     </row>
@@ -36655,7 +36775,10 @@
       <c r="KF41" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="KG41" t="n">
+      <c r="KG41" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="KH41" t="n">
         <v>6</v>
       </c>
     </row>
@@ -37538,8 +37661,11 @@
       <c r="KF42" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="KG42" t="n">
+      <c r="KG42" s="1" t="n">
         <v>3</v>
+      </c>
+      <c r="KH42" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="43" ht="13.8" customHeight="1" s="2">
@@ -38421,8 +38547,11 @@
       <c r="KF43" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="KG43" t="n">
+      <c r="KG43" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="KH43" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="44" ht="13.8" customHeight="1" s="2">
@@ -39304,8 +39433,11 @@
       <c r="KF44" s="1" t="n">
         <v>140</v>
       </c>
-      <c r="KG44" t="n">
+      <c r="KG44" s="1" t="n">
         <v>129</v>
+      </c>
+      <c r="KH44" t="n">
+        <v>127</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="2">
@@ -40187,8 +40319,11 @@
       <c r="KF45" s="1" t="n">
         <v>208</v>
       </c>
-      <c r="KG45" t="n">
+      <c r="KG45" s="1" t="n">
         <v>239</v>
+      </c>
+      <c r="KH45" t="n">
+        <v>199</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="2">
@@ -41070,8 +41205,11 @@
       <c r="KF46" s="1" t="n">
         <v>273</v>
       </c>
-      <c r="KG46" t="n">
+      <c r="KG46" s="1" t="n">
         <v>276</v>
+      </c>
+      <c r="KH46" t="n">
+        <v>247</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="2">
@@ -41953,8 +42091,11 @@
       <c r="KF47" s="1" t="n">
         <v>77.59999999999999</v>
       </c>
-      <c r="KG47" t="n">
+      <c r="KG47" s="1" t="n">
         <v>73.59999999999999</v>
+      </c>
+      <c r="KH47" t="n">
+        <v>75.09999999999999</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="2">
@@ -42836,8 +42977,11 @@
       <c r="KF48" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="KG48" t="n">
+      <c r="KG48" s="1" t="n">
         <v>61</v>
+      </c>
+      <c r="KH48" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="2">
@@ -43719,8 +43863,11 @@
       <c r="KF49" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="KG49" t="n">
+      <c r="KG49" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="KH49" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="2">
@@ -44602,8 +44749,11 @@
       <c r="KF50" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="KG50" t="n">
+      <c r="KG50" s="1" t="n">
         <v>11</v>
+      </c>
+      <c r="KH50" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="2">
@@ -45485,8 +45635,11 @@
       <c r="KF51" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="KG51" t="n">
+      <c r="KG51" s="1" t="n">
         <v>31</v>
+      </c>
+      <c r="KH51" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="2">
@@ -46368,8 +46521,11 @@
       <c r="KF52" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="KG52" t="n">
+      <c r="KG52" s="1" t="n">
         <v>46</v>
+      </c>
+      <c r="KH52" t="n">
+        <v>53</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="2">
@@ -47251,8 +47407,11 @@
       <c r="KF53" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="KG53" t="n">
+      <c r="KG53" s="1" t="n">
         <v>58</v>
+      </c>
+      <c r="KH53" t="n">
+        <v>53</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="2">
@@ -48134,8 +48293,11 @@
       <c r="KF54" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="KG54" t="n">
+      <c r="KG54" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="KH54" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="2">
@@ -49017,8 +49179,11 @@
       <c r="KF55" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="KG55" t="n">
+      <c r="KG55" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="KH55" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="2">
@@ -49900,8 +50065,11 @@
       <c r="KF56" s="1" t="n">
         <v>73.3</v>
       </c>
-      <c r="KG56" t="n">
+      <c r="KG56" s="1" t="n">
         <v>63.6</v>
+      </c>
+      <c r="KH56" t="n">
+        <v>76.90000000000001</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="2">
@@ -50783,8 +50951,11 @@
       <c r="KF57" s="1" t="n">
         <v>229</v>
       </c>
-      <c r="KG57" t="n">
+      <c r="KG57" s="1" t="n">
         <v>219</v>
+      </c>
+      <c r="KH57" t="n">
+        <v>204</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="2">
@@ -51666,8 +51837,11 @@
       <c r="KF58" s="1" t="n">
         <v>136</v>
       </c>
-      <c r="KG58" t="n">
+      <c r="KG58" s="1" t="n">
         <v>161</v>
+      </c>
+      <c r="KH58" t="n">
+        <v>165</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="2">
@@ -52549,8 +52723,11 @@
       <c r="KF59" s="1" t="n">
         <v>365</v>
       </c>
-      <c r="KG59" t="n">
+      <c r="KG59" s="1" t="n">
         <v>380</v>
+      </c>
+      <c r="KH59" t="n">
+        <v>369</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="2">
@@ -53432,8 +53609,11 @@
       <c r="KF60" s="1" t="n">
         <v>1.68</v>
       </c>
-      <c r="KG60" t="n">
+      <c r="KG60" s="1" t="n">
         <v>1.36</v>
+      </c>
+      <c r="KH60" t="n">
+        <v>1.24</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="2">
@@ -54315,8 +54495,11 @@
       <c r="KF61" s="1" t="n">
         <v>118</v>
       </c>
-      <c r="KG61" t="n">
+      <c r="KG61" s="1" t="n">
         <v>86</v>
+      </c>
+      <c r="KH61" t="n">
+        <v>84</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="2">
@@ -55198,8 +55381,11 @@
       <c r="KF62" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="KG62" t="n">
+      <c r="KG62" s="1" t="n">
         <v>62</v>
+      </c>
+      <c r="KH62" t="n">
+        <v>76</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="2">
@@ -56081,8 +56267,11 @@
       <c r="KF63" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="KG63" t="n">
+      <c r="KG63" s="1" t="n">
         <v>34</v>
+      </c>
+      <c r="KH63" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="2">
@@ -56964,8 +57153,11 @@
       <c r="KF64" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="KG64" t="n">
+      <c r="KG64" s="1" t="n">
         <v>15</v>
+      </c>
+      <c r="KH64" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="2">
@@ -57847,8 +58039,11 @@
       <c r="KF65" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="KG65" t="n">
+      <c r="KG65" s="1" t="n">
         <v>15</v>
+      </c>
+      <c r="KH65" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="2">
@@ -58730,7 +58925,10 @@
       <c r="KF66" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="KG66" t="n">
+      <c r="KG66" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="KH66" t="n">
         <v>15</v>
       </c>
     </row>
@@ -59613,8 +59811,11 @@
       <c r="KF67" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="KG67" t="n">
+      <c r="KG67" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="KH67" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="2">
@@ -60496,8 +60697,11 @@
       <c r="KF68" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="KG68" t="n">
+      <c r="KG68" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="KH68" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="2">
@@ -61379,7 +61583,10 @@
       <c r="KF69" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="KG69" t="n">
+      <c r="KG69" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="KH69" t="n">
         <v>4</v>
       </c>
     </row>
@@ -62262,8 +62469,11 @@
       <c r="KF70" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="KG70" t="n">
+      <c r="KG70" s="1" t="n">
         <v>28</v>
+      </c>
+      <c r="KH70" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="2">
@@ -63145,8 +63355,11 @@
       <c r="KF71" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="KG71" t="n">
+      <c r="KG71" s="1" t="n">
         <v>53.6</v>
+      </c>
+      <c r="KH71" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="2">
@@ -64028,8 +64241,11 @@
       <c r="KF72" s="1" t="n">
         <v>22.81</v>
       </c>
-      <c r="KG72" t="n">
+      <c r="KG72" s="1" t="n">
         <v>25.33</v>
+      </c>
+      <c r="KH72" t="n">
+        <v>24.6</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="2">
@@ -64911,8 +65127,11 @@
       <c r="KF73" s="1" t="n">
         <v>14.6</v>
       </c>
-      <c r="KG73" t="n">
+      <c r="KG73" s="1" t="n">
         <v>13.57</v>
+      </c>
+      <c r="KH73" t="n">
+        <v>12.3</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="2">
@@ -65794,8 +66013,11 @@
       <c r="KF74" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="KG74" t="n">
+      <c r="KG74" s="1" t="n">
         <v>38</v>
+      </c>
+      <c r="KH74" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="2">
@@ -66677,8 +66899,11 @@
       <c r="KF75" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="KG75" t="n">
+      <c r="KG75" s="1" t="n">
         <v>66</v>
+      </c>
+      <c r="KH75" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="2">
@@ -67560,8 +67785,11 @@
       <c r="KF76" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="KG76" t="n">
+      <c r="KG76" s="1" t="n">
         <v>36</v>
+      </c>
+      <c r="KH76" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="2">
@@ -68443,8 +68671,11 @@
       <c r="KF77" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="KG77" t="n">
+      <c r="KG77" s="1" t="n">
         <v>63</v>
+      </c>
+      <c r="KH77" t="n">
+        <v>72</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="2">
@@ -69326,8 +69557,11 @@
       <c r="KF78" s="1" t="n">
         <v>2.36</v>
       </c>
-      <c r="KG78" t="n">
+      <c r="KG78" s="1" t="n">
         <v>2.25</v>
+      </c>
+      <c r="KH78" t="n">
+        <v>2.4</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="2">
@@ -70209,8 +70443,11 @@
       <c r="KF79" s="1" t="n">
         <v>3.69</v>
       </c>
-      <c r="KG79" t="n">
+      <c r="KG79" s="1" t="n">
         <v>4.2</v>
+      </c>
+      <c r="KH79" t="n">
+        <v>4.8</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="2">
@@ -71092,8 +71329,11 @@
       <c r="KF80" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="KG80" t="n">
+      <c r="KG80" s="1" t="n">
         <v>38.1</v>
+      </c>
+      <c r="KH80" t="n">
+        <v>36.1</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="2">
@@ -71975,8 +72215,11 @@
       <c r="KF81" s="1" t="n">
         <v>27.1</v>
       </c>
-      <c r="KG81" t="n">
+      <c r="KG81" s="1" t="n">
         <v>23.8</v>
+      </c>
+      <c r="KH81" t="n">
+        <v>20.8</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="2">
@@ -72858,8 +73101,11 @@
       <c r="KF82" s="1" t="n">
         <v>187.6</v>
       </c>
-      <c r="KG82" t="n">
+      <c r="KG82" s="1" t="n">
         <v>189.4</v>
+      </c>
+      <c r="KH82" t="n">
+        <v>188.7</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="2">
@@ -73741,8 +73987,11 @@
       <c r="KF83" s="1" t="n">
         <v>86.40000000000001</v>
       </c>
-      <c r="KG83" t="n">
+      <c r="KG83" s="1" t="n">
         <v>88.09999999999999</v>
+      </c>
+      <c r="KH83" t="n">
+        <v>87.7</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="2">
@@ -74624,8 +74873,11 @@
       <c r="KF84" s="1" t="n">
         <v>25.33</v>
       </c>
-      <c r="KG84" t="n">
+      <c r="KG84" s="1" t="n">
         <v>25.41</v>
+      </c>
+      <c r="KH84" t="n">
+        <v>27</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="2">
@@ -75507,8 +75759,11 @@
       <c r="KF85" s="1" t="n">
         <v>86.59999999999999</v>
       </c>
-      <c r="KG85" t="n">
+      <c r="KG85" s="1" t="n">
         <v>86.90000000000001</v>
+      </c>
+      <c r="KH85" t="n">
+        <v>114.8</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="2">
@@ -76390,8 +76645,11 @@
       <c r="KF86" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="KG86" t="n">
+      <c r="KG86" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="KH86" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="2">
@@ -77273,7 +77531,10 @@
       <c r="KF87" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="KG87" t="n">
+      <c r="KG87" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="KH87" t="n">
         <v>5</v>
       </c>
     </row>
@@ -78156,8 +78417,11 @@
       <c r="KF88" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="KG88" t="n">
+      <c r="KG88" s="1" t="n">
         <v>3</v>
+      </c>
+      <c r="KH88" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="2">
@@ -79039,8 +79303,11 @@
       <c r="KF89" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="KG89" t="n">
+      <c r="KG89" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="KH89" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="2">
@@ -79922,8 +80189,11 @@
       <c r="KF90" s="1" t="n">
         <v>129</v>
       </c>
-      <c r="KG90" t="n">
+      <c r="KG90" s="1" t="n">
         <v>155</v>
+      </c>
+      <c r="KH90" t="n">
+        <v>142</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="2">
@@ -80805,8 +81075,11 @@
       <c r="KF91" s="1" t="n">
         <v>229</v>
       </c>
-      <c r="KG91" t="n">
+      <c r="KG91" s="1" t="n">
         <v>219</v>
+      </c>
+      <c r="KH91" t="n">
+        <v>233</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="2">
@@ -81688,8 +81961,11 @@
       <c r="KF92" s="1" t="n">
         <v>272</v>
       </c>
-      <c r="KG92" t="n">
+      <c r="KG92" s="1" t="n">
         <v>269</v>
+      </c>
+      <c r="KH92" t="n">
+        <v>283</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="2">
@@ -82571,8 +82847,11 @@
       <c r="KF93" s="1" t="n">
         <v>74.5</v>
       </c>
-      <c r="KG93" t="n">
+      <c r="KG93" s="1" t="n">
         <v>70.8</v>
+      </c>
+      <c r="KH93" t="n">
+        <v>76.7</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="2">
@@ -83454,8 +83733,11 @@
       <c r="KF94" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="KG94" t="n">
+      <c r="KG94" s="1" t="n">
         <v>66</v>
+      </c>
+      <c r="KH94" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="2">
@@ -84337,7 +84619,10 @@
       <c r="KF95" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="KG95" t="n">
+      <c r="KG95" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="KH95" t="n">
         <v>12</v>
       </c>
     </row>
@@ -85220,8 +85505,11 @@
       <c r="KF96" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="KG96" t="n">
+      <c r="KG96" s="1" t="n">
         <v>14</v>
+      </c>
+      <c r="KH96" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="2">
@@ -86103,8 +86391,11 @@
       <c r="KF97" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="KG97" t="n">
+      <c r="KG97" s="1" t="n">
         <v>38</v>
+      </c>
+      <c r="KH97" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="2">
@@ -86986,8 +87277,11 @@
       <c r="KF98" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="KG98" t="n">
+      <c r="KG98" s="1" t="n">
         <v>36</v>
+      </c>
+      <c r="KH98" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="2">
@@ -87869,8 +88163,11 @@
       <c r="KF99" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="KG99" t="n">
+      <c r="KG99" s="1" t="n">
         <v>37</v>
+      </c>
+      <c r="KH99" t="n">
+        <v>53</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="2">
@@ -88752,8 +89049,11 @@
       <c r="KF100" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="KG100" t="n">
+      <c r="KG100" s="1" t="n">
         <v>3</v>
+      </c>
+      <c r="KH100" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="2">
@@ -89635,8 +89935,11 @@
       <c r="KF101" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="KG101" t="n">
+      <c r="KG101" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="KH101" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="2">
@@ -90518,8 +90821,11 @@
       <c r="KF102" s="1" t="n">
         <v>81.2</v>
       </c>
-      <c r="KG102" t="n">
+      <c r="KG102" s="1" t="n">
         <v>66.7</v>
+      </c>
+      <c r="KH102" t="n">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/AFL_ML/Data/North Melbourne_stats.xlsx
+++ b/AFL_ML/Data/North Melbourne_stats.xlsx
@@ -445,7 +445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:KH102"/>
+  <dimension ref="A1:KI102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="JT88" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="KA93" activeCellId="0" sqref="KA93"/>
@@ -1338,8 +1338,11 @@
       <c r="KG1" s="1" t="n">
         <v>10862</v>
       </c>
-      <c r="KH1" t="n">
+      <c r="KH1" s="1" t="n">
         <v>10870</v>
+      </c>
+      <c r="KI1" t="n">
+        <v>10883</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="2">
@@ -2224,7 +2227,10 @@
       <c r="KG2" s="1" t="n">
         <v>2023</v>
       </c>
-      <c r="KH2" t="n">
+      <c r="KH2" s="1" t="n">
+        <v>2023</v>
+      </c>
+      <c r="KI2" t="n">
         <v>2023</v>
       </c>
     </row>
@@ -3110,8 +3116,11 @@
       <c r="KG3" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="KH3" t="n">
+      <c r="KH3" s="1" t="n">
         <v>14</v>
+      </c>
+      <c r="KI3" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="2">
@@ -3996,8 +4005,11 @@
       <c r="KG4" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="KH4" t="n">
+      <c r="KH4" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="KI4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="2">
@@ -4882,8 +4894,11 @@
       <c r="KG5" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="KH5" t="n">
+      <c r="KH5" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="KI5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6" ht="13.8" customHeight="1" s="2">
@@ -5768,8 +5783,11 @@
       <c r="KG6" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="KH6" t="n">
+      <c r="KH6" s="1" t="n">
         <v>84</v>
+      </c>
+      <c r="KI6" t="n">
+        <v>72</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="2">
@@ -6654,8 +6672,11 @@
       <c r="KG7" s="1" t="n">
         <v>103</v>
       </c>
-      <c r="KH7" t="n">
+      <c r="KH7" s="1" t="n">
         <v>105</v>
+      </c>
+      <c r="KI7" t="n">
+        <v>138</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="2">
@@ -7540,8 +7561,11 @@
       <c r="KG8" s="1" t="n">
         <v>-28</v>
       </c>
-      <c r="KH8" t="n">
+      <c r="KH8" s="1" t="n">
         <v>-21</v>
+      </c>
+      <c r="KI8" t="n">
+        <v>-66</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="2">
@@ -8426,7 +8450,10 @@
       <c r="KG9" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="KH9" t="n">
+      <c r="KH9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KI9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9312,8 +9339,11 @@
       <c r="KG10" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="KH10" t="n">
+      <c r="KH10" s="1" t="n">
         <v>18</v>
+      </c>
+      <c r="KI10" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="2">
@@ -10198,8 +10228,11 @@
       <c r="KG11" s="1" t="n">
         <v>202</v>
       </c>
-      <c r="KH11" t="n">
+      <c r="KH11" s="1" t="n">
         <v>181</v>
+      </c>
+      <c r="KI11" t="n">
+        <v>197</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="2">
@@ -11084,8 +11117,11 @@
       <c r="KG12" s="1" t="n">
         <v>173</v>
       </c>
-      <c r="KH12" t="n">
+      <c r="KH12" s="1" t="n">
         <v>148</v>
+      </c>
+      <c r="KI12" t="n">
+        <v>172</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="2">
@@ -11970,8 +12006,11 @@
       <c r="KG13" s="1" t="n">
         <v>375</v>
       </c>
-      <c r="KH13" t="n">
+      <c r="KH13" s="1" t="n">
         <v>329</v>
+      </c>
+      <c r="KI13" t="n">
+        <v>369</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="2">
@@ -12856,8 +12895,11 @@
       <c r="KG14" s="1" t="n">
         <v>1.17</v>
       </c>
-      <c r="KH14" t="n">
+      <c r="KH14" s="1" t="n">
         <v>1.22</v>
+      </c>
+      <c r="KI14" t="n">
+        <v>1.15</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="2">
@@ -13742,8 +13784,11 @@
       <c r="KG15" s="1" t="n">
         <v>81</v>
       </c>
-      <c r="KH15" t="n">
+      <c r="KH15" s="1" t="n">
         <v>73</v>
+      </c>
+      <c r="KI15" t="n">
+        <v>86</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="2">
@@ -14628,8 +14673,11 @@
       <c r="KG16" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="KH16" t="n">
+      <c r="KH16" s="1" t="n">
         <v>48</v>
+      </c>
+      <c r="KI16" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="2">
@@ -15514,8 +15562,11 @@
       <c r="KG17" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="KH17" t="n">
+      <c r="KH17" s="1" t="n">
         <v>52</v>
+      </c>
+      <c r="KI17" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="2">
@@ -16400,8 +16451,11 @@
       <c r="KG18" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="KH18" t="n">
+      <c r="KH18" s="1" t="n">
         <v>13</v>
+      </c>
+      <c r="KI18" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="2">
@@ -17286,8 +17340,11 @@
       <c r="KG19" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="KH19" t="n">
+      <c r="KH19" s="1" t="n">
         <v>19</v>
+      </c>
+      <c r="KI19" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="2">
@@ -18172,8 +18229,11 @@
       <c r="KG20" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="KH20" t="n">
+      <c r="KH20" s="1" t="n">
         <v>13</v>
+      </c>
+      <c r="KI20" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="2">
@@ -19058,7 +19118,10 @@
       <c r="KG21" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="KH21" t="n">
+      <c r="KH21" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="KI21" t="n">
         <v>10</v>
       </c>
     </row>
@@ -19944,8 +20007,11 @@
       <c r="KG22" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="KH22" t="n">
+      <c r="KH22" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="KI22" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="2">
@@ -20830,8 +20896,11 @@
       <c r="KG23" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="KH23" t="n">
+      <c r="KH23" s="1" t="n">
         <v>2</v>
+      </c>
+      <c r="KI23" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="2">
@@ -21716,8 +21785,11 @@
       <c r="KG24" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="KH24" t="n">
+      <c r="KH24" s="1" t="n">
         <v>19</v>
+      </c>
+      <c r="KI24" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="2">
@@ -22602,8 +22674,11 @@
       <c r="KG25" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="KH25" t="n">
+      <c r="KH25" s="1" t="n">
         <v>68.40000000000001</v>
+      </c>
+      <c r="KI25" t="n">
+        <v>64.7</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="2">
@@ -23488,8 +23563,11 @@
       <c r="KG26" s="1" t="n">
         <v>34.09</v>
       </c>
-      <c r="KH26" t="n">
+      <c r="KH26" s="1" t="n">
         <v>25.31</v>
+      </c>
+      <c r="KI26" t="n">
+        <v>33.55</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="2">
@@ -24374,8 +24452,11 @@
       <c r="KG27" s="1" t="n">
         <v>18.75</v>
       </c>
-      <c r="KH27" t="n">
+      <c r="KH27" s="1" t="n">
         <v>17.32</v>
+      </c>
+      <c r="KI27" t="n">
+        <v>21.71</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="2">
@@ -25260,8 +25341,11 @@
       <c r="KG28" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="KH28" t="n">
+      <c r="KH28" s="1" t="n">
         <v>38</v>
+      </c>
+      <c r="KI28" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="2">
@@ -26146,8 +26230,11 @@
       <c r="KG29" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="KH29" t="n">
+      <c r="KH29" s="1" t="n">
         <v>57</v>
+      </c>
+      <c r="KI29" t="n">
+        <v>69</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="2">
@@ -27032,8 +27119,11 @@
       <c r="KG30" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="KH30" t="n">
+      <c r="KH30" s="1" t="n">
         <v>53</v>
+      </c>
+      <c r="KI30" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="2">
@@ -27918,8 +28008,11 @@
       <c r="KG31" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="KH31" t="n">
+      <c r="KH31" s="1" t="n">
         <v>36</v>
+      </c>
+      <c r="KI31" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="2">
@@ -28804,8 +28897,11 @@
       <c r="KG32" s="1" t="n">
         <v>2.35</v>
       </c>
-      <c r="KH32" t="n">
+      <c r="KH32" s="1" t="n">
         <v>1.89</v>
+      </c>
+      <c r="KI32" t="n">
+        <v>2.76</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="2">
@@ -29690,8 +29786,11 @@
       <c r="KG33" s="1" t="n">
         <v>4.27</v>
       </c>
-      <c r="KH33" t="n">
+      <c r="KH33" s="1" t="n">
         <v>2.77</v>
+      </c>
+      <c r="KI33" t="n">
+        <v>4.27</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="2">
@@ -30576,8 +30675,11 @@
       <c r="KG34" s="1" t="n">
         <v>36.2</v>
       </c>
-      <c r="KH34" t="n">
+      <c r="KH34" s="1" t="n">
         <v>47.2</v>
+      </c>
+      <c r="KI34" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="2">
@@ -31462,8 +31564,11 @@
       <c r="KG35" s="1" t="n">
         <v>23.4</v>
       </c>
-      <c r="KH35" t="n">
+      <c r="KH35" s="1" t="n">
         <v>36.1</v>
+      </c>
+      <c r="KI35" t="n">
+        <v>23.4</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="2">
@@ -32348,8 +32453,11 @@
       <c r="KG36" s="1" t="n">
         <v>188.6</v>
       </c>
-      <c r="KH36" t="n">
+      <c r="KH36" s="1" t="n">
         <v>188.7</v>
+      </c>
+      <c r="KI36" t="n">
+        <v>189.4</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="2">
@@ -33234,8 +33342,11 @@
       <c r="KG37" s="1" t="n">
         <v>84.90000000000001</v>
       </c>
-      <c r="KH37" t="n">
+      <c r="KH37" s="1" t="n">
         <v>84.90000000000001</v>
+      </c>
+      <c r="KI37" t="n">
+        <v>86.3</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="2">
@@ -34120,8 +34231,11 @@
       <c r="KG38" s="1" t="n">
         <v>24.91</v>
       </c>
-      <c r="KH38" t="n">
+      <c r="KH38" s="1" t="n">
         <v>24.8</v>
+      </c>
+      <c r="KI38" t="n">
+        <v>25.24</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="2">
@@ -35006,8 +35120,11 @@
       <c r="KG39" s="1" t="n">
         <v>92.90000000000001</v>
       </c>
-      <c r="KH39" t="n">
+      <c r="KH39" s="1" t="n">
         <v>92.2</v>
+      </c>
+      <c r="KI39" t="n">
+        <v>99.3</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="2">
@@ -35892,8 +36009,11 @@
       <c r="KG40" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="KH40" t="n">
+      <c r="KH40" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="KI40" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="41" ht="13.8" customHeight="1" s="2">
@@ -36778,8 +36898,11 @@
       <c r="KG41" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="KH41" t="n">
+      <c r="KH41" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="KI41" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="42" ht="13.8" customHeight="1" s="2">
@@ -37664,8 +37787,11 @@
       <c r="KG42" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="KH42" t="n">
+      <c r="KH42" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="KI42" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="43" ht="13.8" customHeight="1" s="2">
@@ -38550,7 +38676,10 @@
       <c r="KG43" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="KH43" t="n">
+      <c r="KH43" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="KI43" t="n">
         <v>4</v>
       </c>
     </row>
@@ -39436,8 +39565,11 @@
       <c r="KG44" s="1" t="n">
         <v>129</v>
       </c>
-      <c r="KH44" t="n">
+      <c r="KH44" s="1" t="n">
         <v>127</v>
+      </c>
+      <c r="KI44" t="n">
+        <v>135</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="2">
@@ -40322,8 +40454,11 @@
       <c r="KG45" s="1" t="n">
         <v>239</v>
       </c>
-      <c r="KH45" t="n">
+      <c r="KH45" s="1" t="n">
         <v>199</v>
+      </c>
+      <c r="KI45" t="n">
+        <v>231</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="2">
@@ -41208,8 +41343,11 @@
       <c r="KG46" s="1" t="n">
         <v>276</v>
       </c>
-      <c r="KH46" t="n">
+      <c r="KH46" s="1" t="n">
         <v>247</v>
+      </c>
+      <c r="KI46" t="n">
+        <v>269</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="2">
@@ -42094,8 +42232,11 @@
       <c r="KG47" s="1" t="n">
         <v>73.59999999999999</v>
       </c>
-      <c r="KH47" t="n">
+      <c r="KH47" s="1" t="n">
         <v>75.09999999999999</v>
+      </c>
+      <c r="KI47" t="n">
+        <v>72.90000000000001</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="2">
@@ -42980,8 +43121,11 @@
       <c r="KG48" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="KH48" t="n">
+      <c r="KH48" s="1" t="n">
         <v>57</v>
+      </c>
+      <c r="KI48" t="n">
+        <v>69</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="2">
@@ -43866,8 +44010,11 @@
       <c r="KG49" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="KH49" t="n">
+      <c r="KH49" s="1" t="n">
         <v>14</v>
+      </c>
+      <c r="KI49" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="2">
@@ -44752,8 +44899,11 @@
       <c r="KG50" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="KH50" t="n">
+      <c r="KH50" s="1" t="n">
         <v>12</v>
+      </c>
+      <c r="KI50" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="2">
@@ -45638,8 +45788,11 @@
       <c r="KG51" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="KH51" t="n">
+      <c r="KH51" s="1" t="n">
         <v>38</v>
+      </c>
+      <c r="KI51" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="2">
@@ -46524,8 +46677,11 @@
       <c r="KG52" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="KH52" t="n">
+      <c r="KH52" s="1" t="n">
         <v>53</v>
+      </c>
+      <c r="KI52" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="2">
@@ -47410,8 +47566,11 @@
       <c r="KG53" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="KH53" t="n">
+      <c r="KH53" s="1" t="n">
         <v>53</v>
+      </c>
+      <c r="KI53" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="2">
@@ -48296,8 +48455,11 @@
       <c r="KG54" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="KH54" t="n">
+      <c r="KH54" s="1" t="n">
         <v>3</v>
+      </c>
+      <c r="KI54" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="2">
@@ -49182,7 +49344,10 @@
       <c r="KG55" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="KH55" t="n">
+      <c r="KH55" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="KI55" t="n">
         <v>10</v>
       </c>
     </row>
@@ -50068,8 +50233,11 @@
       <c r="KG56" s="1" t="n">
         <v>63.6</v>
       </c>
-      <c r="KH56" t="n">
+      <c r="KH56" s="1" t="n">
         <v>76.90000000000001</v>
+      </c>
+      <c r="KI56" t="n">
+        <v>90.90000000000001</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="2">
@@ -50954,8 +51122,11 @@
       <c r="KG57" s="1" t="n">
         <v>219</v>
       </c>
-      <c r="KH57" t="n">
+      <c r="KH57" s="1" t="n">
         <v>204</v>
+      </c>
+      <c r="KI57" t="n">
+        <v>241</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="2">
@@ -51840,8 +52011,11 @@
       <c r="KG58" s="1" t="n">
         <v>161</v>
       </c>
-      <c r="KH58" t="n">
+      <c r="KH58" s="1" t="n">
         <v>165</v>
+      </c>
+      <c r="KI58" t="n">
+        <v>163</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="2">
@@ -52726,8 +52900,11 @@
       <c r="KG59" s="1" t="n">
         <v>380</v>
       </c>
-      <c r="KH59" t="n">
+      <c r="KH59" s="1" t="n">
         <v>369</v>
+      </c>
+      <c r="KI59" t="n">
+        <v>404</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="2">
@@ -53612,8 +53789,11 @@
       <c r="KG60" s="1" t="n">
         <v>1.36</v>
       </c>
-      <c r="KH60" t="n">
+      <c r="KH60" s="1" t="n">
         <v>1.24</v>
+      </c>
+      <c r="KI60" t="n">
+        <v>1.48</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="2">
@@ -54498,8 +54678,11 @@
       <c r="KG61" s="1" t="n">
         <v>86</v>
       </c>
-      <c r="KH61" t="n">
+      <c r="KH61" s="1" t="n">
         <v>84</v>
+      </c>
+      <c r="KI61" t="n">
+        <v>107</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="2">
@@ -55384,8 +55567,11 @@
       <c r="KG62" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="KH62" t="n">
+      <c r="KH62" s="1" t="n">
         <v>76</v>
+      </c>
+      <c r="KI62" t="n">
+        <v>81</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="2">
@@ -56270,8 +56456,11 @@
       <c r="KG63" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="KH63" t="n">
+      <c r="KH63" s="1" t="n">
         <v>40</v>
+      </c>
+      <c r="KI63" t="n">
+        <v>59</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="2">
@@ -57156,8 +57345,11 @@
       <c r="KG64" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="KH64" t="n">
+      <c r="KH64" s="1" t="n">
         <v>19</v>
+      </c>
+      <c r="KI64" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="2">
@@ -58042,8 +58234,11 @@
       <c r="KG65" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="KH65" t="n">
+      <c r="KH65" s="1" t="n">
         <v>13</v>
+      </c>
+      <c r="KI65" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="2">
@@ -58928,8 +59123,11 @@
       <c r="KG66" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="KH66" t="n">
+      <c r="KH66" s="1" t="n">
         <v>15</v>
+      </c>
+      <c r="KI66" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="2">
@@ -59814,8 +60012,11 @@
       <c r="KG67" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="KH67" t="n">
+      <c r="KH67" s="1" t="n">
         <v>15</v>
+      </c>
+      <c r="KI67" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="2">
@@ -60700,8 +60901,11 @@
       <c r="KG68" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="KH68" t="n">
+      <c r="KH68" s="1" t="n">
         <v>11</v>
+      </c>
+      <c r="KI68" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="2">
@@ -61586,8 +61790,11 @@
       <c r="KG69" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="KH69" t="n">
+      <c r="KH69" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="KI69" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="2">
@@ -62472,8 +62679,11 @@
       <c r="KG70" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="KH70" t="n">
+      <c r="KH70" s="1" t="n">
         <v>30</v>
+      </c>
+      <c r="KI70" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="2">
@@ -63358,8 +63568,11 @@
       <c r="KG71" s="1" t="n">
         <v>53.6</v>
       </c>
-      <c r="KH71" t="n">
+      <c r="KH71" s="1" t="n">
         <v>50</v>
+      </c>
+      <c r="KI71" t="n">
+        <v>63.6</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="2">
@@ -64244,8 +64457,11 @@
       <c r="KG72" s="1" t="n">
         <v>25.33</v>
       </c>
-      <c r="KH72" t="n">
+      <c r="KH72" s="1" t="n">
         <v>24.6</v>
+      </c>
+      <c r="KI72" t="n">
+        <v>19.24</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="2">
@@ -65130,8 +65346,11 @@
       <c r="KG73" s="1" t="n">
         <v>13.57</v>
       </c>
-      <c r="KH73" t="n">
+      <c r="KH73" s="1" t="n">
         <v>12.3</v>
+      </c>
+      <c r="KI73" t="n">
+        <v>12.24</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="2">
@@ -66016,8 +66235,11 @@
       <c r="KG74" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="KH74" t="n">
+      <c r="KH74" s="1" t="n">
         <v>42</v>
+      </c>
+      <c r="KI74" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="2">
@@ -66902,8 +67124,11 @@
       <c r="KG75" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="KH75" t="n">
+      <c r="KH75" s="1" t="n">
         <v>43</v>
+      </c>
+      <c r="KI75" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="2">
@@ -67788,8 +68013,11 @@
       <c r="KG76" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="KH76" t="n">
+      <c r="KH76" s="1" t="n">
         <v>23</v>
+      </c>
+      <c r="KI76" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="2">
@@ -68674,8 +68902,11 @@
       <c r="KG77" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="KH77" t="n">
+      <c r="KH77" s="1" t="n">
         <v>72</v>
+      </c>
+      <c r="KI77" t="n">
+        <v>64</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="2">
@@ -69560,8 +69791,11 @@
       <c r="KG78" s="1" t="n">
         <v>2.25</v>
       </c>
-      <c r="KH78" t="n">
+      <c r="KH78" s="1" t="n">
         <v>2.4</v>
+      </c>
+      <c r="KI78" t="n">
+        <v>1.94</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="2">
@@ -70446,8 +70680,11 @@
       <c r="KG79" s="1" t="n">
         <v>4.2</v>
       </c>
-      <c r="KH79" t="n">
+      <c r="KH79" s="1" t="n">
         <v>4.8</v>
+      </c>
+      <c r="KI79" t="n">
+        <v>3.05</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="2">
@@ -71332,8 +71569,11 @@
       <c r="KG80" s="1" t="n">
         <v>38.1</v>
       </c>
-      <c r="KH80" t="n">
+      <c r="KH80" s="1" t="n">
         <v>36.1</v>
+      </c>
+      <c r="KI80" t="n">
+        <v>51.6</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="2">
@@ -72218,8 +72458,11 @@
       <c r="KG81" s="1" t="n">
         <v>23.8</v>
       </c>
-      <c r="KH81" t="n">
+      <c r="KH81" s="1" t="n">
         <v>20.8</v>
+      </c>
+      <c r="KI81" t="n">
+        <v>32.8</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="2">
@@ -73104,8 +73347,11 @@
       <c r="KG82" s="1" t="n">
         <v>189.4</v>
       </c>
-      <c r="KH82" t="n">
+      <c r="KH82" s="1" t="n">
         <v>188.7</v>
+      </c>
+      <c r="KI82" t="n">
+        <v>187.6</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="2">
@@ -73990,8 +74236,11 @@
       <c r="KG83" s="1" t="n">
         <v>88.09999999999999</v>
       </c>
-      <c r="KH83" t="n">
+      <c r="KH83" s="1" t="n">
         <v>87.7</v>
+      </c>
+      <c r="KI83" t="n">
+        <v>87.5</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="2">
@@ -74876,8 +75125,11 @@
       <c r="KG84" s="1" t="n">
         <v>25.41</v>
       </c>
-      <c r="KH84" t="n">
+      <c r="KH84" s="1" t="n">
         <v>27</v>
+      </c>
+      <c r="KI84" t="n">
+        <v>24.8</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="2">
@@ -75762,8 +76014,11 @@
       <c r="KG85" s="1" t="n">
         <v>86.90000000000001</v>
       </c>
-      <c r="KH85" t="n">
+      <c r="KH85" s="1" t="n">
         <v>114.8</v>
+      </c>
+      <c r="KI85" t="n">
+        <v>87.90000000000001</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="2">
@@ -76648,8 +76903,11 @@
       <c r="KG86" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="KH86" t="n">
+      <c r="KH86" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="KI86" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="2">
@@ -77534,8 +77792,11 @@
       <c r="KG87" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="KH87" t="n">
+      <c r="KH87" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="KI87" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="2">
@@ -78420,8 +78681,11 @@
       <c r="KG88" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="KH88" t="n">
+      <c r="KH88" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="KI88" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="2">
@@ -79306,8 +79570,11 @@
       <c r="KG89" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="KH89" t="n">
+      <c r="KH89" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="KI89" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="2">
@@ -80192,8 +80459,11 @@
       <c r="KG90" s="1" t="n">
         <v>155</v>
       </c>
-      <c r="KH90" t="n">
+      <c r="KH90" s="1" t="n">
         <v>142</v>
+      </c>
+      <c r="KI90" t="n">
+        <v>144</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="2">
@@ -81078,8 +81348,11 @@
       <c r="KG91" s="1" t="n">
         <v>219</v>
       </c>
-      <c r="KH91" t="n">
+      <c r="KH91" s="1" t="n">
         <v>233</v>
+      </c>
+      <c r="KI91" t="n">
+        <v>257</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="2">
@@ -81964,8 +82237,11 @@
       <c r="KG92" s="1" t="n">
         <v>269</v>
       </c>
-      <c r="KH92" t="n">
+      <c r="KH92" s="1" t="n">
         <v>283</v>
+      </c>
+      <c r="KI92" t="n">
+        <v>290</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="2">
@@ -82850,8 +83126,11 @@
       <c r="KG93" s="1" t="n">
         <v>70.8</v>
       </c>
-      <c r="KH93" t="n">
+      <c r="KH93" s="1" t="n">
         <v>76.7</v>
+      </c>
+      <c r="KI93" t="n">
+        <v>71.8</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="2">
@@ -83736,8 +84015,11 @@
       <c r="KG94" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="KH94" t="n">
+      <c r="KH94" s="1" t="n">
         <v>43</v>
+      </c>
+      <c r="KI94" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="2">
@@ -84622,8 +84904,11 @@
       <c r="KG95" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="KH95" t="n">
+      <c r="KH95" s="1" t="n">
         <v>12</v>
+      </c>
+      <c r="KI95" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="2">
@@ -85508,8 +85793,11 @@
       <c r="KG96" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="KH96" t="n">
+      <c r="KH96" s="1" t="n">
         <v>20</v>
+      </c>
+      <c r="KI96" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="2">
@@ -86394,8 +86682,11 @@
       <c r="KG97" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="KH97" t="n">
+      <c r="KH97" s="1" t="n">
         <v>42</v>
+      </c>
+      <c r="KI97" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="2">
@@ -87280,8 +87571,11 @@
       <c r="KG98" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="KH98" t="n">
+      <c r="KH98" s="1" t="n">
         <v>23</v>
+      </c>
+      <c r="KI98" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="2">
@@ -88166,8 +88460,11 @@
       <c r="KG99" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="KH99" t="n">
+      <c r="KH99" s="1" t="n">
         <v>53</v>
+      </c>
+      <c r="KI99" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="2">
@@ -89052,8 +89349,11 @@
       <c r="KG100" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="KH100" t="n">
+      <c r="KH100" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="KI100" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="2">
@@ -89938,8 +90238,11 @@
       <c r="KG101" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="KH101" t="n">
+      <c r="KH101" s="1" t="n">
         <v>15</v>
+      </c>
+      <c r="KI101" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="2">
@@ -90824,8 +91127,11 @@
       <c r="KG102" s="1" t="n">
         <v>66.7</v>
       </c>
-      <c r="KH102" t="n">
+      <c r="KH102" s="1" t="n">
         <v>100</v>
+      </c>
+      <c r="KI102" t="n">
+        <v>76.2</v>
       </c>
     </row>
   </sheetData>

--- a/AFL_ML/Data/North Melbourne_stats.xlsx
+++ b/AFL_ML/Data/North Melbourne_stats.xlsx
@@ -445,7 +445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:KI102"/>
+  <dimension ref="A1:KJ102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="JT88" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="KA93" activeCellId="0" sqref="KA93"/>
@@ -1341,8 +1341,11 @@
       <c r="KH1" s="1" t="n">
         <v>10870</v>
       </c>
-      <c r="KI1" t="n">
+      <c r="KI1" s="1" t="n">
         <v>10883</v>
+      </c>
+      <c r="KJ1" t="n">
+        <v>10888</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="2">
@@ -2230,7 +2233,10 @@
       <c r="KH2" s="1" t="n">
         <v>2023</v>
       </c>
-      <c r="KI2" t="n">
+      <c r="KI2" s="1" t="n">
+        <v>2023</v>
+      </c>
+      <c r="KJ2" t="n">
         <v>2023</v>
       </c>
     </row>
@@ -3119,8 +3125,11 @@
       <c r="KH3" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="KI3" t="n">
+      <c r="KI3" s="1" t="n">
         <v>16</v>
+      </c>
+      <c r="KJ3" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="2">
@@ -4008,7 +4017,10 @@
       <c r="KH4" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="KI4" t="n">
+      <c r="KI4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="KJ4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4897,7 +4909,10 @@
       <c r="KH5" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="KI5" t="n">
+      <c r="KI5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KJ5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5786,8 +5801,11 @@
       <c r="KH6" s="1" t="n">
         <v>84</v>
       </c>
-      <c r="KI6" t="n">
+      <c r="KI6" s="1" t="n">
         <v>72</v>
+      </c>
+      <c r="KJ6" t="n">
+        <v>63</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="2">
@@ -6675,8 +6693,11 @@
       <c r="KH7" s="1" t="n">
         <v>105</v>
       </c>
-      <c r="KI7" t="n">
+      <c r="KI7" s="1" t="n">
         <v>138</v>
+      </c>
+      <c r="KJ7" t="n">
+        <v>125</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="2">
@@ -7564,8 +7585,11 @@
       <c r="KH8" s="1" t="n">
         <v>-21</v>
       </c>
-      <c r="KI8" t="n">
+      <c r="KI8" s="1" t="n">
         <v>-66</v>
+      </c>
+      <c r="KJ8" t="n">
+        <v>-62</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="2">
@@ -8453,7 +8477,10 @@
       <c r="KH9" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="KI9" t="n">
+      <c r="KI9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KJ9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9342,8 +9369,11 @@
       <c r="KH10" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="KI10" t="n">
+      <c r="KI10" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="KJ10" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="2">
@@ -10231,8 +10261,11 @@
       <c r="KH11" s="1" t="n">
         <v>181</v>
       </c>
-      <c r="KI11" t="n">
+      <c r="KI11" s="1" t="n">
         <v>197</v>
+      </c>
+      <c r="KJ11" t="n">
+        <v>187</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="2">
@@ -11120,8 +11153,11 @@
       <c r="KH12" s="1" t="n">
         <v>148</v>
       </c>
-      <c r="KI12" t="n">
+      <c r="KI12" s="1" t="n">
         <v>172</v>
+      </c>
+      <c r="KJ12" t="n">
+        <v>169</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="2">
@@ -12009,8 +12045,11 @@
       <c r="KH13" s="1" t="n">
         <v>329</v>
       </c>
-      <c r="KI13" t="n">
+      <c r="KI13" s="1" t="n">
         <v>369</v>
+      </c>
+      <c r="KJ13" t="n">
+        <v>356</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="2">
@@ -12898,8 +12937,11 @@
       <c r="KH14" s="1" t="n">
         <v>1.22</v>
       </c>
-      <c r="KI14" t="n">
+      <c r="KI14" s="1" t="n">
         <v>1.15</v>
+      </c>
+      <c r="KJ14" t="n">
+        <v>1.11</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="2">
@@ -13787,8 +13829,11 @@
       <c r="KH15" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="KI15" t="n">
+      <c r="KI15" s="1" t="n">
         <v>86</v>
+      </c>
+      <c r="KJ15" t="n">
+        <v>85</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="2">
@@ -14676,8 +14721,11 @@
       <c r="KH16" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="KI16" t="n">
+      <c r="KI16" s="1" t="n">
         <v>52</v>
+      </c>
+      <c r="KJ16" t="n">
+        <v>79</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="2">
@@ -15565,8 +15613,11 @@
       <c r="KH17" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="KI17" t="n">
+      <c r="KI17" s="1" t="n">
         <v>38</v>
+      </c>
+      <c r="KJ17" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="2">
@@ -16454,8 +16505,11 @@
       <c r="KH18" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="KI18" t="n">
+      <c r="KI18" s="1" t="n">
         <v>15</v>
+      </c>
+      <c r="KJ18" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="2">
@@ -17343,8 +17397,11 @@
       <c r="KH19" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="KI19" t="n">
+      <c r="KI19" s="1" t="n">
         <v>22</v>
+      </c>
+      <c r="KJ19" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="2">
@@ -18232,8 +18289,11 @@
       <c r="KH20" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="KI20" t="n">
+      <c r="KI20" s="1" t="n">
         <v>11</v>
+      </c>
+      <c r="KJ20" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="2">
@@ -19121,8 +19181,11 @@
       <c r="KH21" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="KI21" t="n">
+      <c r="KI21" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="KJ21" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="2">
@@ -20010,8 +20073,11 @@
       <c r="KH22" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="KI22" t="n">
+      <c r="KI22" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="KJ22" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="2">
@@ -20899,8 +20965,11 @@
       <c r="KH23" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="KI23" t="n">
+      <c r="KI23" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="KJ23" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="2">
@@ -21788,8 +21857,11 @@
       <c r="KH24" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="KI24" t="n">
+      <c r="KI24" s="1" t="n">
         <v>17</v>
+      </c>
+      <c r="KJ24" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="2">
@@ -22677,8 +22749,11 @@
       <c r="KH25" s="1" t="n">
         <v>68.40000000000001</v>
       </c>
-      <c r="KI25" t="n">
+      <c r="KI25" s="1" t="n">
         <v>64.7</v>
+      </c>
+      <c r="KJ25" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="2">
@@ -23566,8 +23641,11 @@
       <c r="KH26" s="1" t="n">
         <v>25.31</v>
       </c>
-      <c r="KI26" t="n">
+      <c r="KI26" s="1" t="n">
         <v>33.55</v>
+      </c>
+      <c r="KJ26" t="n">
+        <v>39.56</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="2">
@@ -24455,8 +24533,11 @@
       <c r="KH27" s="1" t="n">
         <v>17.32</v>
       </c>
-      <c r="KI27" t="n">
+      <c r="KI27" s="1" t="n">
         <v>21.71</v>
+      </c>
+      <c r="KJ27" t="n">
+        <v>19.78</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="2">
@@ -25344,8 +25425,11 @@
       <c r="KH28" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="KI28" t="n">
+      <c r="KI28" s="1" t="n">
         <v>36</v>
+      </c>
+      <c r="KJ28" t="n">
+        <v>31</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="2">
@@ -26233,8 +26317,11 @@
       <c r="KH29" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="KI29" t="n">
+      <c r="KI29" s="1" t="n">
         <v>69</v>
+      </c>
+      <c r="KJ29" t="n">
+        <v>63</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="2">
@@ -27122,8 +27209,11 @@
       <c r="KH30" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="KI30" t="n">
+      <c r="KI30" s="1" t="n">
         <v>42</v>
+      </c>
+      <c r="KJ30" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="2">
@@ -28011,8 +28101,11 @@
       <c r="KH31" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="KI31" t="n">
+      <c r="KI31" s="1" t="n">
         <v>47</v>
+      </c>
+      <c r="KJ31" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="2">
@@ -28900,8 +28993,11 @@
       <c r="KH32" s="1" t="n">
         <v>1.89</v>
       </c>
-      <c r="KI32" t="n">
+      <c r="KI32" s="1" t="n">
         <v>2.76</v>
+      </c>
+      <c r="KJ32" t="n">
+        <v>2.17</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="2">
@@ -29789,8 +29885,11 @@
       <c r="KH33" s="1" t="n">
         <v>2.77</v>
       </c>
-      <c r="KI33" t="n">
+      <c r="KI33" s="1" t="n">
         <v>4.27</v>
+      </c>
+      <c r="KJ33" t="n">
+        <v>4.33</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="2">
@@ -30678,8 +30777,11 @@
       <c r="KH34" s="1" t="n">
         <v>47.2</v>
       </c>
-      <c r="KI34" t="n">
+      <c r="KI34" s="1" t="n">
         <v>34</v>
+      </c>
+      <c r="KJ34" t="n">
+        <v>33.3</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="2">
@@ -31567,8 +31669,11 @@
       <c r="KH35" s="1" t="n">
         <v>36.1</v>
       </c>
-      <c r="KI35" t="n">
+      <c r="KI35" s="1" t="n">
         <v>23.4</v>
+      </c>
+      <c r="KJ35" t="n">
+        <v>23.1</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="2">
@@ -32456,8 +32561,11 @@
       <c r="KH36" s="1" t="n">
         <v>188.7</v>
       </c>
-      <c r="KI36" t="n">
+      <c r="KI36" s="1" t="n">
         <v>189.4</v>
+      </c>
+      <c r="KJ36" t="n">
+        <v>189.5</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="2">
@@ -33345,8 +33453,11 @@
       <c r="KH37" s="1" t="n">
         <v>84.90000000000001</v>
       </c>
-      <c r="KI37" t="n">
+      <c r="KI37" s="1" t="n">
         <v>86.3</v>
+      </c>
+      <c r="KJ37" t="n">
+        <v>86.40000000000001</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="2">
@@ -34234,8 +34345,11 @@
       <c r="KH38" s="1" t="n">
         <v>24.8</v>
       </c>
-      <c r="KI38" t="n">
+      <c r="KI38" s="1" t="n">
         <v>25.24</v>
+      </c>
+      <c r="KJ38" t="n">
+        <v>24.49</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="2">
@@ -35123,8 +35237,11 @@
       <c r="KH39" s="1" t="n">
         <v>92.2</v>
       </c>
-      <c r="KI39" t="n">
+      <c r="KI39" s="1" t="n">
         <v>99.3</v>
+      </c>
+      <c r="KJ39" t="n">
+        <v>78.2</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="2">
@@ -36012,8 +36129,11 @@
       <c r="KH40" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="KI40" t="n">
+      <c r="KI40" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="KJ40" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="41" ht="13.8" customHeight="1" s="2">
@@ -36901,7 +37021,10 @@
       <c r="KH41" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="KI41" t="n">
+      <c r="KI41" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="KJ41" t="n">
         <v>7</v>
       </c>
     </row>
@@ -37790,7 +37913,10 @@
       <c r="KH42" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="KI42" t="n">
+      <c r="KI42" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="KJ42" t="n">
         <v>5</v>
       </c>
     </row>
@@ -38679,8 +38805,11 @@
       <c r="KH43" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="KI43" t="n">
+      <c r="KI43" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="KJ43" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="44" ht="13.8" customHeight="1" s="2">
@@ -39568,8 +39697,11 @@
       <c r="KH44" s="1" t="n">
         <v>127</v>
       </c>
-      <c r="KI44" t="n">
+      <c r="KI44" s="1" t="n">
         <v>135</v>
+      </c>
+      <c r="KJ44" t="n">
+        <v>136</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="2">
@@ -40457,8 +40589,11 @@
       <c r="KH45" s="1" t="n">
         <v>199</v>
       </c>
-      <c r="KI45" t="n">
+      <c r="KI45" s="1" t="n">
         <v>231</v>
+      </c>
+      <c r="KJ45" t="n">
+        <v>210</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="2">
@@ -41346,8 +41481,11 @@
       <c r="KH46" s="1" t="n">
         <v>247</v>
       </c>
-      <c r="KI46" t="n">
+      <c r="KI46" s="1" t="n">
         <v>269</v>
+      </c>
+      <c r="KJ46" t="n">
+        <v>247</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="2">
@@ -42235,8 +42373,11 @@
       <c r="KH47" s="1" t="n">
         <v>75.09999999999999</v>
       </c>
-      <c r="KI47" t="n">
+      <c r="KI47" s="1" t="n">
         <v>72.90000000000001</v>
+      </c>
+      <c r="KJ47" t="n">
+        <v>69.40000000000001</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="2">
@@ -43124,8 +43265,11 @@
       <c r="KH48" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="KI48" t="n">
+      <c r="KI48" s="1" t="n">
         <v>69</v>
+      </c>
+      <c r="KJ48" t="n">
+        <v>63</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="2">
@@ -44013,8 +44157,11 @@
       <c r="KH49" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="KI49" t="n">
+      <c r="KI49" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="KJ49" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="2">
@@ -44902,8 +45049,11 @@
       <c r="KH50" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="KI50" t="n">
+      <c r="KI50" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="KJ50" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="2">
@@ -45791,8 +45941,11 @@
       <c r="KH51" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="KI51" t="n">
+      <c r="KI51" s="1" t="n">
         <v>36</v>
+      </c>
+      <c r="KJ51" t="n">
+        <v>31</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="2">
@@ -46680,8 +46833,11 @@
       <c r="KH52" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="KI52" t="n">
+      <c r="KI52" s="1" t="n">
         <v>42</v>
+      </c>
+      <c r="KJ52" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="2">
@@ -47569,8 +47725,11 @@
       <c r="KH53" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="KI53" t="n">
+      <c r="KI53" s="1" t="n">
         <v>40</v>
+      </c>
+      <c r="KJ53" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="2">
@@ -48458,7 +48617,10 @@
       <c r="KH54" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="KI54" t="n">
+      <c r="KI54" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="KJ54" t="n">
         <v>6</v>
       </c>
     </row>
@@ -49347,8 +49509,11 @@
       <c r="KH55" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="KI55" t="n">
+      <c r="KI55" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="KJ55" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="2">
@@ -50236,8 +50401,11 @@
       <c r="KH56" s="1" t="n">
         <v>76.90000000000001</v>
       </c>
-      <c r="KI56" t="n">
+      <c r="KI56" s="1" t="n">
         <v>90.90000000000001</v>
+      </c>
+      <c r="KJ56" t="n">
+        <v>77.8</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="2">
@@ -51125,8 +51293,11 @@
       <c r="KH57" s="1" t="n">
         <v>204</v>
       </c>
-      <c r="KI57" t="n">
+      <c r="KI57" s="1" t="n">
         <v>241</v>
+      </c>
+      <c r="KJ57" t="n">
+        <v>234</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="2">
@@ -52014,8 +52185,11 @@
       <c r="KH58" s="1" t="n">
         <v>165</v>
       </c>
-      <c r="KI58" t="n">
+      <c r="KI58" s="1" t="n">
         <v>163</v>
+      </c>
+      <c r="KJ58" t="n">
+        <v>176</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="2">
@@ -52903,8 +53077,11 @@
       <c r="KH59" s="1" t="n">
         <v>369</v>
       </c>
-      <c r="KI59" t="n">
+      <c r="KI59" s="1" t="n">
         <v>404</v>
+      </c>
+      <c r="KJ59" t="n">
+        <v>410</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="2">
@@ -53792,8 +53969,11 @@
       <c r="KH60" s="1" t="n">
         <v>1.24</v>
       </c>
-      <c r="KI60" t="n">
+      <c r="KI60" s="1" t="n">
         <v>1.48</v>
+      </c>
+      <c r="KJ60" t="n">
+        <v>1.33</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="2">
@@ -54681,8 +54861,11 @@
       <c r="KH61" s="1" t="n">
         <v>84</v>
       </c>
-      <c r="KI61" t="n">
+      <c r="KI61" s="1" t="n">
         <v>107</v>
+      </c>
+      <c r="KJ61" t="n">
+        <v>108</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="2">
@@ -55570,8 +55753,11 @@
       <c r="KH62" s="1" t="n">
         <v>76</v>
       </c>
-      <c r="KI62" t="n">
+      <c r="KI62" s="1" t="n">
         <v>81</v>
+      </c>
+      <c r="KJ62" t="n">
+        <v>86</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="2">
@@ -56459,8 +56645,11 @@
       <c r="KH63" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="KI63" t="n">
+      <c r="KI63" s="1" t="n">
         <v>59</v>
+      </c>
+      <c r="KJ63" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="2">
@@ -57348,8 +57537,11 @@
       <c r="KH64" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="KI64" t="n">
+      <c r="KI64" s="1" t="n">
         <v>22</v>
+      </c>
+      <c r="KJ64" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="2">
@@ -58237,8 +58429,11 @@
       <c r="KH65" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="KI65" t="n">
+      <c r="KI65" s="1" t="n">
         <v>15</v>
+      </c>
+      <c r="KJ65" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="2">
@@ -59126,8 +59321,11 @@
       <c r="KH66" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="KI66" t="n">
+      <c r="KI66" s="1" t="n">
         <v>21</v>
+      </c>
+      <c r="KJ66" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="2">
@@ -60015,8 +60213,11 @@
       <c r="KH67" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="KI67" t="n">
+      <c r="KI67" s="1" t="n">
         <v>16</v>
+      </c>
+      <c r="KJ67" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="2">
@@ -60904,8 +61105,11 @@
       <c r="KH68" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="KI68" t="n">
+      <c r="KI68" s="1" t="n">
         <v>12</v>
+      </c>
+      <c r="KJ68" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="2">
@@ -61793,8 +61997,11 @@
       <c r="KH69" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="KI69" t="n">
+      <c r="KI69" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="KJ69" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="2">
@@ -62682,8 +62889,11 @@
       <c r="KH70" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="KI70" t="n">
+      <c r="KI70" s="1" t="n">
         <v>33</v>
+      </c>
+      <c r="KJ70" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="2">
@@ -63571,8 +63781,11 @@
       <c r="KH71" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="KI71" t="n">
+      <c r="KI71" s="1" t="n">
         <v>63.6</v>
+      </c>
+      <c r="KJ71" t="n">
+        <v>63.3</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="2">
@@ -64460,8 +64673,11 @@
       <c r="KH72" s="1" t="n">
         <v>24.6</v>
       </c>
-      <c r="KI72" t="n">
+      <c r="KI72" s="1" t="n">
         <v>19.24</v>
+      </c>
+      <c r="KJ72" t="n">
+        <v>21.58</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="2">
@@ -65349,8 +65565,11 @@
       <c r="KH73" s="1" t="n">
         <v>12.3</v>
       </c>
-      <c r="KI73" t="n">
+      <c r="KI73" s="1" t="n">
         <v>12.24</v>
+      </c>
+      <c r="KJ73" t="n">
+        <v>13.67</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="2">
@@ -66238,8 +66457,11 @@
       <c r="KH74" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="KI74" t="n">
+      <c r="KI74" s="1" t="n">
         <v>46</v>
+      </c>
+      <c r="KJ74" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="2">
@@ -67127,8 +67349,11 @@
       <c r="KH75" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="KI75" t="n">
+      <c r="KI75" s="1" t="n">
         <v>52</v>
+      </c>
+      <c r="KJ75" t="n">
+        <v>70</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="2">
@@ -68016,8 +68241,11 @@
       <c r="KH76" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="KI76" t="n">
+      <c r="KI76" s="1" t="n">
         <v>35</v>
+      </c>
+      <c r="KJ76" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="2">
@@ -68905,8 +69133,11 @@
       <c r="KH77" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="KI77" t="n">
+      <c r="KI77" s="1" t="n">
         <v>64</v>
+      </c>
+      <c r="KJ77" t="n">
+        <v>70</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="2">
@@ -69794,8 +70025,11 @@
       <c r="KH78" s="1" t="n">
         <v>2.4</v>
       </c>
-      <c r="KI78" t="n">
+      <c r="KI78" s="1" t="n">
         <v>1.94</v>
+      </c>
+      <c r="KJ78" t="n">
+        <v>2.33</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="2">
@@ -70683,8 +70917,11 @@
       <c r="KH79" s="1" t="n">
         <v>4.8</v>
       </c>
-      <c r="KI79" t="n">
+      <c r="KI79" s="1" t="n">
         <v>3.05</v>
+      </c>
+      <c r="KJ79" t="n">
+        <v>3.68</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="2">
@@ -71572,8 +71809,11 @@
       <c r="KH80" s="1" t="n">
         <v>36.1</v>
       </c>
-      <c r="KI80" t="n">
+      <c r="KI80" s="1" t="n">
         <v>51.6</v>
+      </c>
+      <c r="KJ80" t="n">
+        <v>38.6</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="2">
@@ -72461,8 +72701,11 @@
       <c r="KH81" s="1" t="n">
         <v>20.8</v>
       </c>
-      <c r="KI81" t="n">
+      <c r="KI81" s="1" t="n">
         <v>32.8</v>
+      </c>
+      <c r="KJ81" t="n">
+        <v>27.1</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="2">
@@ -73350,8 +73593,11 @@
       <c r="KH82" s="1" t="n">
         <v>188.7</v>
       </c>
-      <c r="KI82" t="n">
+      <c r="KI82" s="1" t="n">
         <v>187.6</v>
+      </c>
+      <c r="KJ82" t="n">
+        <v>188.7</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="2">
@@ -74239,8 +74485,11 @@
       <c r="KH83" s="1" t="n">
         <v>87.7</v>
       </c>
-      <c r="KI83" t="n">
+      <c r="KI83" s="1" t="n">
         <v>87.5</v>
+      </c>
+      <c r="KJ83" t="n">
+        <v>88.3</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="2">
@@ -75128,8 +75377,11 @@
       <c r="KH84" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="KI84" t="n">
+      <c r="KI84" s="1" t="n">
         <v>24.8</v>
+      </c>
+      <c r="KJ84" t="n">
+        <v>26.91</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="2">
@@ -76017,8 +76269,11 @@
       <c r="KH85" s="1" t="n">
         <v>114.8</v>
       </c>
-      <c r="KI85" t="n">
+      <c r="KI85" s="1" t="n">
         <v>87.90000000000001</v>
+      </c>
+      <c r="KJ85" t="n">
+        <v>125.9</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="2">
@@ -76906,8 +77161,11 @@
       <c r="KH86" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="KI86" t="n">
+      <c r="KI86" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="KJ86" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="2">
@@ -77795,8 +78053,11 @@
       <c r="KH87" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="KI87" t="n">
+      <c r="KI87" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="KJ87" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="2">
@@ -78684,8 +78945,11 @@
       <c r="KH88" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="KI88" t="n">
+      <c r="KI88" s="1" t="n">
         <v>2</v>
+      </c>
+      <c r="KJ88" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="2">
@@ -79573,8 +79837,11 @@
       <c r="KH89" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="KI89" t="n">
+      <c r="KI89" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="KJ89" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="2">
@@ -80462,8 +80729,11 @@
       <c r="KH90" s="1" t="n">
         <v>142</v>
       </c>
-      <c r="KI90" t="n">
+      <c r="KI90" s="1" t="n">
         <v>144</v>
+      </c>
+      <c r="KJ90" t="n">
+        <v>148</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="2">
@@ -81351,8 +81621,11 @@
       <c r="KH91" s="1" t="n">
         <v>233</v>
       </c>
-      <c r="KI91" t="n">
+      <c r="KI91" s="1" t="n">
         <v>257</v>
+      </c>
+      <c r="KJ91" t="n">
+        <v>250</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="2">
@@ -82240,8 +82513,11 @@
       <c r="KH92" s="1" t="n">
         <v>283</v>
       </c>
-      <c r="KI92" t="n">
+      <c r="KI92" s="1" t="n">
         <v>290</v>
+      </c>
+      <c r="KJ92" t="n">
+        <v>292</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="2">
@@ -83129,8 +83405,11 @@
       <c r="KH93" s="1" t="n">
         <v>76.7</v>
       </c>
-      <c r="KI93" t="n">
+      <c r="KI93" s="1" t="n">
         <v>71.8</v>
+      </c>
+      <c r="KJ93" t="n">
+        <v>71.2</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="2">
@@ -84018,8 +84297,11 @@
       <c r="KH94" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="KI94" t="n">
+      <c r="KI94" s="1" t="n">
         <v>52</v>
+      </c>
+      <c r="KJ94" t="n">
+        <v>70</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="2">
@@ -84907,8 +85189,11 @@
       <c r="KH95" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="KI95" t="n">
+      <c r="KI95" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="KJ95" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="2">
@@ -85796,8 +86081,11 @@
       <c r="KH96" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="KI96" t="n">
+      <c r="KI96" s="1" t="n">
         <v>21</v>
+      </c>
+      <c r="KJ96" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="2">
@@ -86685,8 +86973,11 @@
       <c r="KH97" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="KI97" t="n">
+      <c r="KI97" s="1" t="n">
         <v>46</v>
+      </c>
+      <c r="KJ97" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="2">
@@ -87574,8 +87865,11 @@
       <c r="KH98" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="KI98" t="n">
+      <c r="KI98" s="1" t="n">
         <v>35</v>
+      </c>
+      <c r="KJ98" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="2">
@@ -88463,8 +88757,11 @@
       <c r="KH99" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="KI99" t="n">
+      <c r="KI99" s="1" t="n">
         <v>46</v>
+      </c>
+      <c r="KJ99" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="2">
@@ -89352,8 +89649,11 @@
       <c r="KH100" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="KI100" t="n">
+      <c r="KI100" s="1" t="n">
         <v>2</v>
+      </c>
+      <c r="KJ100" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="2">
@@ -90241,8 +90541,11 @@
       <c r="KH101" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="KI101" t="n">
+      <c r="KI101" s="1" t="n">
         <v>16</v>
+      </c>
+      <c r="KJ101" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="2">
@@ -91130,8 +91433,11 @@
       <c r="KH102" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="KI102" t="n">
+      <c r="KI102" s="1" t="n">
         <v>76.2</v>
+      </c>
+      <c r="KJ102" t="n">
+        <v>57.9</v>
       </c>
     </row>
   </sheetData>

--- a/AFL_ML/Data/North Melbourne_stats.xlsx
+++ b/AFL_ML/Data/North Melbourne_stats.xlsx
@@ -445,7 +445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:KJ102"/>
+  <dimension ref="A1:KK102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="JT88" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="KA93" activeCellId="0" sqref="KA93"/>
@@ -1344,8 +1344,11 @@
       <c r="KI1" s="1" t="n">
         <v>10883</v>
       </c>
-      <c r="KJ1" t="n">
+      <c r="KJ1" s="1" t="n">
         <v>10888</v>
+      </c>
+      <c r="KK1" t="n">
+        <v>10900</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="2">
@@ -2236,7 +2239,10 @@
       <c r="KI2" s="1" t="n">
         <v>2023</v>
       </c>
-      <c r="KJ2" t="n">
+      <c r="KJ2" s="1" t="n">
+        <v>2023</v>
+      </c>
+      <c r="KK2" t="n">
         <v>2023</v>
       </c>
     </row>
@@ -3128,8 +3134,11 @@
       <c r="KI3" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="KJ3" t="n">
+      <c r="KJ3" s="1" t="n">
         <v>17</v>
+      </c>
+      <c r="KK3" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="2">
@@ -4020,8 +4029,11 @@
       <c r="KI4" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="KJ4" t="n">
+      <c r="KJ4" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="KK4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="2">
@@ -4912,8 +4924,11 @@
       <c r="KI5" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="KJ5" t="n">
+      <c r="KJ5" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="KK5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6" ht="13.8" customHeight="1" s="2">
@@ -5804,8 +5819,11 @@
       <c r="KI6" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="KJ6" t="n">
+      <c r="KJ6" s="1" t="n">
         <v>63</v>
+      </c>
+      <c r="KK6" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="2">
@@ -6696,8 +6714,11 @@
       <c r="KI7" s="1" t="n">
         <v>138</v>
       </c>
-      <c r="KJ7" t="n">
+      <c r="KJ7" s="1" t="n">
         <v>125</v>
+      </c>
+      <c r="KK7" t="n">
+        <v>88</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="2">
@@ -7588,8 +7609,11 @@
       <c r="KI8" s="1" t="n">
         <v>-66</v>
       </c>
-      <c r="KJ8" t="n">
+      <c r="KJ8" s="1" t="n">
         <v>-62</v>
+      </c>
+      <c r="KK8" t="n">
+        <v>-48</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="2">
@@ -8480,7 +8504,10 @@
       <c r="KI9" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="KJ9" t="n">
+      <c r="KJ9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KK9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9372,8 +9399,11 @@
       <c r="KI10" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="KJ10" t="n">
+      <c r="KJ10" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="KK10" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="2">
@@ -10264,8 +10294,11 @@
       <c r="KI11" s="1" t="n">
         <v>197</v>
       </c>
-      <c r="KJ11" t="n">
+      <c r="KJ11" s="1" t="n">
         <v>187</v>
+      </c>
+      <c r="KK11" t="n">
+        <v>219</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="2">
@@ -11156,8 +11189,11 @@
       <c r="KI12" s="1" t="n">
         <v>172</v>
       </c>
-      <c r="KJ12" t="n">
+      <c r="KJ12" s="1" t="n">
         <v>169</v>
+      </c>
+      <c r="KK12" t="n">
+        <v>159</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="2">
@@ -12048,8 +12084,11 @@
       <c r="KI13" s="1" t="n">
         <v>369</v>
       </c>
-      <c r="KJ13" t="n">
+      <c r="KJ13" s="1" t="n">
         <v>356</v>
+      </c>
+      <c r="KK13" t="n">
+        <v>378</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="2">
@@ -12940,8 +12979,11 @@
       <c r="KI14" s="1" t="n">
         <v>1.15</v>
       </c>
-      <c r="KJ14" t="n">
+      <c r="KJ14" s="1" t="n">
         <v>1.11</v>
+      </c>
+      <c r="KK14" t="n">
+        <v>1.38</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="2">
@@ -13832,8 +13874,11 @@
       <c r="KI15" s="1" t="n">
         <v>86</v>
       </c>
-      <c r="KJ15" t="n">
+      <c r="KJ15" s="1" t="n">
         <v>85</v>
+      </c>
+      <c r="KK15" t="n">
+        <v>107</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="2">
@@ -14724,8 +14769,11 @@
       <c r="KI16" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="KJ16" t="n">
+      <c r="KJ16" s="1" t="n">
         <v>79</v>
+      </c>
+      <c r="KK16" t="n">
+        <v>74</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="2">
@@ -15616,8 +15664,11 @@
       <c r="KI17" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="KJ17" t="n">
+      <c r="KJ17" s="1" t="n">
         <v>48</v>
+      </c>
+      <c r="KK17" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="2">
@@ -16508,8 +16559,11 @@
       <c r="KI18" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="KJ18" t="n">
+      <c r="KJ18" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="KK18" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="2">
@@ -17400,8 +17454,11 @@
       <c r="KI19" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="KJ19" t="n">
+      <c r="KJ19" s="1" t="n">
         <v>14</v>
+      </c>
+      <c r="KK19" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="2">
@@ -18292,8 +18349,11 @@
       <c r="KI20" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="KJ20" t="n">
+      <c r="KJ20" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="KK20" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="2">
@@ -19184,8 +19244,11 @@
       <c r="KI21" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="KJ21" t="n">
+      <c r="KJ21" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="KK21" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="2">
@@ -20076,8 +20139,11 @@
       <c r="KI22" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="KJ22" t="n">
+      <c r="KJ22" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="KK22" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="2">
@@ -20968,8 +21034,11 @@
       <c r="KI23" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="KJ23" t="n">
+      <c r="KJ23" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="KK23" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="2">
@@ -21860,8 +21929,11 @@
       <c r="KI24" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="KJ24" t="n">
+      <c r="KJ24" s="1" t="n">
         <v>18</v>
+      </c>
+      <c r="KK24" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="2">
@@ -22752,8 +22824,11 @@
       <c r="KI25" s="1" t="n">
         <v>64.7</v>
       </c>
-      <c r="KJ25" t="n">
+      <c r="KJ25" s="1" t="n">
         <v>50</v>
+      </c>
+      <c r="KK25" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="2">
@@ -23644,8 +23719,11 @@
       <c r="KI26" s="1" t="n">
         <v>33.55</v>
       </c>
-      <c r="KJ26" t="n">
+      <c r="KJ26" s="1" t="n">
         <v>39.56</v>
+      </c>
+      <c r="KK26" t="n">
+        <v>63</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="2">
@@ -24536,8 +24614,11 @@
       <c r="KI27" s="1" t="n">
         <v>21.71</v>
       </c>
-      <c r="KJ27" t="n">
+      <c r="KJ27" s="1" t="n">
         <v>19.78</v>
+      </c>
+      <c r="KK27" t="n">
+        <v>37.8</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="2">
@@ -25428,8 +25509,11 @@
       <c r="KI28" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="KJ28" t="n">
+      <c r="KJ28" s="1" t="n">
         <v>31</v>
+      </c>
+      <c r="KK28" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="2">
@@ -26320,8 +26404,11 @@
       <c r="KI29" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="KJ29" t="n">
+      <c r="KJ29" s="1" t="n">
         <v>63</v>
+      </c>
+      <c r="KK29" t="n">
+        <v>58</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="2">
@@ -27212,8 +27299,11 @@
       <c r="KI30" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="KJ30" t="n">
+      <c r="KJ30" s="1" t="n">
         <v>49</v>
+      </c>
+      <c r="KK30" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="2">
@@ -28104,8 +28194,11 @@
       <c r="KI31" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="KJ31" t="n">
+      <c r="KJ31" s="1" t="n">
         <v>39</v>
+      </c>
+      <c r="KK31" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="2">
@@ -28996,8 +29089,11 @@
       <c r="KI32" s="1" t="n">
         <v>2.76</v>
       </c>
-      <c r="KJ32" t="n">
+      <c r="KJ32" s="1" t="n">
         <v>2.17</v>
+      </c>
+      <c r="KK32" t="n">
+        <v>4.1</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="2">
@@ -29888,8 +29984,11 @@
       <c r="KI33" s="1" t="n">
         <v>4.27</v>
       </c>
-      <c r="KJ33" t="n">
+      <c r="KJ33" s="1" t="n">
         <v>4.33</v>
+      </c>
+      <c r="KK33" t="n">
+        <v>6.83</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="2">
@@ -30780,8 +30879,11 @@
       <c r="KI34" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="KJ34" t="n">
+      <c r="KJ34" s="1" t="n">
         <v>33.3</v>
+      </c>
+      <c r="KK34" t="n">
+        <v>17.1</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="2">
@@ -31672,8 +31774,11 @@
       <c r="KI35" s="1" t="n">
         <v>23.4</v>
       </c>
-      <c r="KJ35" t="n">
+      <c r="KJ35" s="1" t="n">
         <v>23.1</v>
+      </c>
+      <c r="KK35" t="n">
+        <v>14.6</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="2">
@@ -32564,8 +32669,11 @@
       <c r="KI36" s="1" t="n">
         <v>189.4</v>
       </c>
-      <c r="KJ36" t="n">
+      <c r="KJ36" s="1" t="n">
         <v>189.5</v>
+      </c>
+      <c r="KK36" t="n">
+        <v>189.2</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="2">
@@ -33456,8 +33564,11 @@
       <c r="KI37" s="1" t="n">
         <v>86.3</v>
       </c>
-      <c r="KJ37" t="n">
+      <c r="KJ37" s="1" t="n">
         <v>86.40000000000001</v>
+      </c>
+      <c r="KK37" t="n">
+        <v>85.09999999999999</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="2">
@@ -34348,8 +34459,11 @@
       <c r="KI38" s="1" t="n">
         <v>25.24</v>
       </c>
-      <c r="KJ38" t="n">
+      <c r="KJ38" s="1" t="n">
         <v>24.49</v>
+      </c>
+      <c r="KK38" t="n">
+        <v>24.8</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="2">
@@ -35240,8 +35354,11 @@
       <c r="KI39" s="1" t="n">
         <v>99.3</v>
       </c>
-      <c r="KJ39" t="n">
+      <c r="KJ39" s="1" t="n">
         <v>78.2</v>
+      </c>
+      <c r="KK39" t="n">
+        <v>77.90000000000001</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="2">
@@ -36132,8 +36249,11 @@
       <c r="KI40" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="KJ40" t="n">
+      <c r="KJ40" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="KK40" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="41" ht="13.8" customHeight="1" s="2">
@@ -37024,7 +37144,10 @@
       <c r="KI41" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="KJ41" t="n">
+      <c r="KJ41" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="KK41" t="n">
         <v>7</v>
       </c>
     </row>
@@ -37916,8 +38039,11 @@
       <c r="KI42" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="KJ42" t="n">
+      <c r="KJ42" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="KK42" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="43" ht="13.8" customHeight="1" s="2">
@@ -38808,8 +38934,11 @@
       <c r="KI43" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="KJ43" t="n">
+      <c r="KJ43" s="1" t="n">
         <v>2</v>
+      </c>
+      <c r="KK43" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="44" ht="13.8" customHeight="1" s="2">
@@ -39700,8 +39829,11 @@
       <c r="KI44" s="1" t="n">
         <v>135</v>
       </c>
-      <c r="KJ44" t="n">
+      <c r="KJ44" s="1" t="n">
         <v>136</v>
+      </c>
+      <c r="KK44" t="n">
+        <v>126</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="2">
@@ -40592,8 +40724,11 @@
       <c r="KI45" s="1" t="n">
         <v>231</v>
       </c>
-      <c r="KJ45" t="n">
+      <c r="KJ45" s="1" t="n">
         <v>210</v>
+      </c>
+      <c r="KK45" t="n">
+        <v>244</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="2">
@@ -41484,8 +41619,11 @@
       <c r="KI46" s="1" t="n">
         <v>269</v>
       </c>
-      <c r="KJ46" t="n">
+      <c r="KJ46" s="1" t="n">
         <v>247</v>
+      </c>
+      <c r="KK46" t="n">
+        <v>286</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="2">
@@ -42376,8 +42514,11 @@
       <c r="KI47" s="1" t="n">
         <v>72.90000000000001</v>
       </c>
-      <c r="KJ47" t="n">
+      <c r="KJ47" s="1" t="n">
         <v>69.40000000000001</v>
+      </c>
+      <c r="KK47" t="n">
+        <v>75.7</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="2">
@@ -43268,8 +43409,11 @@
       <c r="KI48" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="KJ48" t="n">
+      <c r="KJ48" s="1" t="n">
         <v>63</v>
+      </c>
+      <c r="KK48" t="n">
+        <v>58</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="2">
@@ -44160,8 +44304,11 @@
       <c r="KI49" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="KJ49" t="n">
+      <c r="KJ49" s="1" t="n">
         <v>15</v>
+      </c>
+      <c r="KK49" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="2">
@@ -45052,7 +45199,10 @@
       <c r="KI50" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="KJ50" t="n">
+      <c r="KJ50" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="KK50" t="n">
         <v>3</v>
       </c>
     </row>
@@ -45944,8 +46094,11 @@
       <c r="KI51" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="KJ51" t="n">
+      <c r="KJ51" s="1" t="n">
         <v>31</v>
+      </c>
+      <c r="KK51" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="2">
@@ -46836,8 +46989,11 @@
       <c r="KI52" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="KJ52" t="n">
+      <c r="KJ52" s="1" t="n">
         <v>49</v>
+      </c>
+      <c r="KK52" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="2">
@@ -47728,8 +47884,11 @@
       <c r="KI53" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="KJ53" t="n">
+      <c r="KJ53" s="1" t="n">
         <v>33</v>
+      </c>
+      <c r="KK53" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="2">
@@ -48620,8 +48779,11 @@
       <c r="KI54" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="KJ54" t="n">
+      <c r="KJ54" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="KK54" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="2">
@@ -49512,8 +49674,11 @@
       <c r="KI55" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="KJ55" t="n">
+      <c r="KJ55" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="KK55" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="2">
@@ -50404,8 +50569,11 @@
       <c r="KI56" s="1" t="n">
         <v>90.90000000000001</v>
       </c>
-      <c r="KJ56" t="n">
+      <c r="KJ56" s="1" t="n">
         <v>77.8</v>
+      </c>
+      <c r="KK56" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="2">
@@ -51296,8 +51464,11 @@
       <c r="KI57" s="1" t="n">
         <v>241</v>
       </c>
-      <c r="KJ57" t="n">
+      <c r="KJ57" s="1" t="n">
         <v>234</v>
+      </c>
+      <c r="KK57" t="n">
+        <v>211</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="2">
@@ -52188,8 +52359,11 @@
       <c r="KI58" s="1" t="n">
         <v>163</v>
       </c>
-      <c r="KJ58" t="n">
+      <c r="KJ58" s="1" t="n">
         <v>176</v>
+      </c>
+      <c r="KK58" t="n">
+        <v>227</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="2">
@@ -53080,8 +53254,11 @@
       <c r="KI59" s="1" t="n">
         <v>404</v>
       </c>
-      <c r="KJ59" t="n">
+      <c r="KJ59" s="1" t="n">
         <v>410</v>
+      </c>
+      <c r="KK59" t="n">
+        <v>438</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="2">
@@ -53972,8 +54149,11 @@
       <c r="KI60" s="1" t="n">
         <v>1.48</v>
       </c>
-      <c r="KJ60" t="n">
+      <c r="KJ60" s="1" t="n">
         <v>1.33</v>
+      </c>
+      <c r="KK60" t="n">
+        <v>0.93</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="2">
@@ -54864,8 +55044,11 @@
       <c r="KI61" s="1" t="n">
         <v>107</v>
       </c>
-      <c r="KJ61" t="n">
+      <c r="KJ61" s="1" t="n">
         <v>108</v>
+      </c>
+      <c r="KK61" t="n">
+        <v>89</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="2">
@@ -55756,8 +55939,11 @@
       <c r="KI62" s="1" t="n">
         <v>81</v>
       </c>
-      <c r="KJ62" t="n">
+      <c r="KJ62" s="1" t="n">
         <v>86</v>
+      </c>
+      <c r="KK62" t="n">
+        <v>53</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="2">
@@ -56648,8 +56834,11 @@
       <c r="KI63" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="KJ63" t="n">
+      <c r="KJ63" s="1" t="n">
         <v>41</v>
+      </c>
+      <c r="KK63" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="2">
@@ -57540,8 +57729,11 @@
       <c r="KI64" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="KJ64" t="n">
+      <c r="KJ64" s="1" t="n">
         <v>14</v>
+      </c>
+      <c r="KK64" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="2">
@@ -58432,8 +58624,11 @@
       <c r="KI65" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="KJ65" t="n">
+      <c r="KJ65" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="KK65" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="2">
@@ -59324,8 +59519,11 @@
       <c r="KI66" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="KJ66" t="n">
+      <c r="KJ66" s="1" t="n">
         <v>19</v>
+      </c>
+      <c r="KK66" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="2">
@@ -60216,7 +60414,10 @@
       <c r="KI67" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="KJ67" t="n">
+      <c r="KJ67" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="KK67" t="n">
         <v>11</v>
       </c>
     </row>
@@ -61108,8 +61309,11 @@
       <c r="KI68" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="KJ68" t="n">
+      <c r="KJ68" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="KK68" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="2">
@@ -62000,7 +62204,10 @@
       <c r="KI69" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="KJ69" t="n">
+      <c r="KJ69" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="KK69" t="n">
         <v>3</v>
       </c>
     </row>
@@ -62892,8 +63099,11 @@
       <c r="KI70" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="KJ70" t="n">
+      <c r="KJ70" s="1" t="n">
         <v>30</v>
+      </c>
+      <c r="KK70" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="2">
@@ -63784,8 +63994,11 @@
       <c r="KI71" s="1" t="n">
         <v>63.6</v>
       </c>
-      <c r="KJ71" t="n">
+      <c r="KJ71" s="1" t="n">
         <v>63.3</v>
+      </c>
+      <c r="KK71" t="n">
+        <v>42.9</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="2">
@@ -64676,8 +64889,11 @@
       <c r="KI72" s="1" t="n">
         <v>19.24</v>
       </c>
-      <c r="KJ72" t="n">
+      <c r="KJ72" s="1" t="n">
         <v>21.58</v>
+      </c>
+      <c r="KK72" t="n">
+        <v>36.5</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="2">
@@ -65568,8 +65784,11 @@
       <c r="KI73" s="1" t="n">
         <v>12.24</v>
       </c>
-      <c r="KJ73" t="n">
+      <c r="KJ73" s="1" t="n">
         <v>13.67</v>
+      </c>
+      <c r="KK73" t="n">
+        <v>15.64</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="2">
@@ -66460,8 +66679,11 @@
       <c r="KI74" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="KJ74" t="n">
+      <c r="KJ74" s="1" t="n">
         <v>45</v>
+      </c>
+      <c r="KK74" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="2">
@@ -67352,8 +67574,11 @@
       <c r="KI75" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="KJ75" t="n">
+      <c r="KJ75" s="1" t="n">
         <v>70</v>
+      </c>
+      <c r="KK75" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="2">
@@ -68244,8 +68469,11 @@
       <c r="KI76" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="KJ76" t="n">
+      <c r="KJ76" s="1" t="n">
         <v>29</v>
+      </c>
+      <c r="KK76" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="2">
@@ -69136,7 +69364,10 @@
       <c r="KI77" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="KJ77" t="n">
+      <c r="KJ77" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="KK77" t="n">
         <v>70</v>
       </c>
     </row>
@@ -70028,8 +70259,11 @@
       <c r="KI78" s="1" t="n">
         <v>1.94</v>
       </c>
-      <c r="KJ78" t="n">
+      <c r="KJ78" s="1" t="n">
         <v>2.33</v>
+      </c>
+      <c r="KK78" t="n">
+        <v>2.5</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="2">
@@ -70920,8 +71154,11 @@
       <c r="KI79" s="1" t="n">
         <v>3.05</v>
       </c>
-      <c r="KJ79" t="n">
+      <c r="KJ79" s="1" t="n">
         <v>3.68</v>
+      </c>
+      <c r="KK79" t="n">
+        <v>5.83</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="2">
@@ -71812,8 +72049,11 @@
       <c r="KI80" s="1" t="n">
         <v>51.6</v>
       </c>
-      <c r="KJ80" t="n">
+      <c r="KJ80" s="1" t="n">
         <v>38.6</v>
+      </c>
+      <c r="KK80" t="n">
+        <v>35.7</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="2">
@@ -72704,8 +72944,11 @@
       <c r="KI81" s="1" t="n">
         <v>32.8</v>
       </c>
-      <c r="KJ81" t="n">
+      <c r="KJ81" s="1" t="n">
         <v>27.1</v>
+      </c>
+      <c r="KK81" t="n">
+        <v>17.1</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="2">
@@ -73596,8 +73839,11 @@
       <c r="KI82" s="1" t="n">
         <v>187.6</v>
       </c>
-      <c r="KJ82" t="n">
+      <c r="KJ82" s="1" t="n">
         <v>188.7</v>
+      </c>
+      <c r="KK82" t="n">
+        <v>188.8</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="2">
@@ -74488,8 +74734,11 @@
       <c r="KI83" s="1" t="n">
         <v>87.5</v>
       </c>
-      <c r="KJ83" t="n">
+      <c r="KJ83" s="1" t="n">
         <v>88.3</v>
+      </c>
+      <c r="KK83" t="n">
+        <v>86.7</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="2">
@@ -75380,8 +75629,11 @@
       <c r="KI84" s="1" t="n">
         <v>24.8</v>
       </c>
-      <c r="KJ84" t="n">
+      <c r="KJ84" s="1" t="n">
         <v>26.91</v>
+      </c>
+      <c r="KK84" t="n">
+        <v>24.74</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="2">
@@ -76272,8 +76524,11 @@
       <c r="KI85" s="1" t="n">
         <v>87.90000000000001</v>
       </c>
-      <c r="KJ85" t="n">
+      <c r="KJ85" s="1" t="n">
         <v>125.9</v>
+      </c>
+      <c r="KK85" t="n">
+        <v>83.09999999999999</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="2">
@@ -77164,8 +77419,11 @@
       <c r="KI86" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="KJ86" t="n">
+      <c r="KJ86" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="KK86" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="2">
@@ -78056,8 +78314,11 @@
       <c r="KI87" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="KJ87" t="n">
+      <c r="KJ87" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="KK87" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="2">
@@ -78948,7 +79209,10 @@
       <c r="KI88" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="KJ88" t="n">
+      <c r="KJ88" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="KK88" t="n">
         <v>3</v>
       </c>
     </row>
@@ -79840,8 +80104,11 @@
       <c r="KI89" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="KJ89" t="n">
+      <c r="KJ89" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="KK89" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="2">
@@ -80732,8 +80999,11 @@
       <c r="KI90" s="1" t="n">
         <v>144</v>
       </c>
-      <c r="KJ90" t="n">
+      <c r="KJ90" s="1" t="n">
         <v>148</v>
+      </c>
+      <c r="KK90" t="n">
+        <v>149</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="2">
@@ -81624,8 +81894,11 @@
       <c r="KI91" s="1" t="n">
         <v>257</v>
       </c>
-      <c r="KJ91" t="n">
+      <c r="KJ91" s="1" t="n">
         <v>250</v>
+      </c>
+      <c r="KK91" t="n">
+        <v>291</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="2">
@@ -82516,8 +82789,11 @@
       <c r="KI92" s="1" t="n">
         <v>290</v>
       </c>
-      <c r="KJ92" t="n">
+      <c r="KJ92" s="1" t="n">
         <v>292</v>
+      </c>
+      <c r="KK92" t="n">
+        <v>330</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="2">
@@ -83408,8 +83684,11 @@
       <c r="KI93" s="1" t="n">
         <v>71.8</v>
       </c>
-      <c r="KJ93" t="n">
+      <c r="KJ93" s="1" t="n">
         <v>71.2</v>
+      </c>
+      <c r="KK93" t="n">
+        <v>75.3</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="2">
@@ -84300,8 +84579,11 @@
       <c r="KI94" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="KJ94" t="n">
+      <c r="KJ94" s="1" t="n">
         <v>70</v>
+      </c>
+      <c r="KK94" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="2">
@@ -85192,7 +85474,10 @@
       <c r="KI95" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="KJ95" t="n">
+      <c r="KJ95" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="KK95" t="n">
         <v>8</v>
       </c>
     </row>
@@ -86084,8 +86369,11 @@
       <c r="KI96" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="KJ96" t="n">
+      <c r="KJ96" s="1" t="n">
         <v>15</v>
+      </c>
+      <c r="KK96" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="2">
@@ -86976,8 +87264,11 @@
       <c r="KI97" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="KJ97" t="n">
+      <c r="KJ97" s="1" t="n">
         <v>45</v>
+      </c>
+      <c r="KK97" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="2">
@@ -87868,8 +88159,11 @@
       <c r="KI98" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="KJ98" t="n">
+      <c r="KJ98" s="1" t="n">
         <v>29</v>
+      </c>
+      <c r="KK98" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="2">
@@ -88760,8 +89054,11 @@
       <c r="KI99" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="KJ99" t="n">
+      <c r="KJ99" s="1" t="n">
         <v>50</v>
+      </c>
+      <c r="KK99" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="2">
@@ -89652,8 +89949,11 @@
       <c r="KI100" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="KJ100" t="n">
+      <c r="KJ100" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="KK100" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="2">
@@ -90544,7 +90844,10 @@
       <c r="KI101" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="KJ101" t="n">
+      <c r="KJ101" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="KK101" t="n">
         <v>11</v>
       </c>
     </row>
@@ -91436,8 +91739,11 @@
       <c r="KI102" s="1" t="n">
         <v>76.2</v>
       </c>
-      <c r="KJ102" t="n">
+      <c r="KJ102" s="1" t="n">
         <v>57.9</v>
+      </c>
+      <c r="KK102" t="n">
+        <v>91.7</v>
       </c>
     </row>
   </sheetData>

--- a/AFL_ML/Data/North Melbourne_stats.xlsx
+++ b/AFL_ML/Data/North Melbourne_stats.xlsx
@@ -445,7 +445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:KM102"/>
+  <dimension ref="A1:KN102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="JT88" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="KA93" activeCellId="0" sqref="KA93"/>
@@ -1353,8 +1353,11 @@
       <c r="KL1" s="1" t="n">
         <v>10910</v>
       </c>
-      <c r="KM1" t="n">
+      <c r="KM1" s="1" t="n">
         <v>10921</v>
+      </c>
+      <c r="KN1" t="n">
+        <v>10926</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="2">
@@ -2254,7 +2257,10 @@
       <c r="KL2" s="1" t="n">
         <v>2023</v>
       </c>
-      <c r="KM2" t="n">
+      <c r="KM2" s="1" t="n">
+        <v>2023</v>
+      </c>
+      <c r="KN2" t="n">
         <v>2023</v>
       </c>
     </row>
@@ -3155,8 +3161,11 @@
       <c r="KL3" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="KM3" t="n">
+      <c r="KM3" s="1" t="n">
         <v>20</v>
+      </c>
+      <c r="KN3" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="2">
@@ -4056,8 +4065,11 @@
       <c r="KL4" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="KM4" t="n">
+      <c r="KM4" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="KN4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="2">
@@ -4957,8 +4969,11 @@
       <c r="KL5" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="KM5" t="n">
+      <c r="KM5" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="KN5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6" ht="13.8" customHeight="1" s="2">
@@ -5858,8 +5873,11 @@
       <c r="KL6" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="KM6" t="n">
+      <c r="KM6" s="1" t="n">
         <v>67</v>
+      </c>
+      <c r="KN6" t="n">
+        <v>71</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="2">
@@ -6759,8 +6777,11 @@
       <c r="KL7" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="KM7" t="n">
+      <c r="KM7" s="1" t="n">
         <v>72</v>
+      </c>
+      <c r="KN7" t="n">
+        <v>103</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="2">
@@ -7660,8 +7681,11 @@
       <c r="KL8" s="1" t="n">
         <v>-8</v>
       </c>
-      <c r="KM8" t="n">
+      <c r="KM8" s="1" t="n">
         <v>-5</v>
+      </c>
+      <c r="KN8" t="n">
+        <v>-32</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="2">
@@ -8561,7 +8585,10 @@
       <c r="KL9" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="KM9" t="n">
+      <c r="KM9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KN9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9462,8 +9489,11 @@
       <c r="KL10" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="KM10" t="n">
+      <c r="KM10" s="1" t="n">
         <v>17</v>
+      </c>
+      <c r="KN10" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="2">
@@ -10363,8 +10393,11 @@
       <c r="KL11" s="1" t="n">
         <v>188</v>
       </c>
-      <c r="KM11" t="n">
+      <c r="KM11" s="1" t="n">
         <v>185</v>
+      </c>
+      <c r="KN11" t="n">
+        <v>192</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="2">
@@ -11264,8 +11297,11 @@
       <c r="KL12" s="1" t="n">
         <v>130</v>
       </c>
-      <c r="KM12" t="n">
+      <c r="KM12" s="1" t="n">
         <v>121</v>
+      </c>
+      <c r="KN12" t="n">
+        <v>160</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="2">
@@ -12165,8 +12201,11 @@
       <c r="KL13" s="1" t="n">
         <v>318</v>
       </c>
-      <c r="KM13" t="n">
+      <c r="KM13" s="1" t="n">
         <v>306</v>
+      </c>
+      <c r="KN13" t="n">
+        <v>352</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="2">
@@ -13066,8 +13105,11 @@
       <c r="KL14" s="1" t="n">
         <v>1.45</v>
       </c>
-      <c r="KM14" t="n">
+      <c r="KM14" s="1" t="n">
         <v>1.53</v>
+      </c>
+      <c r="KN14" t="n">
+        <v>1.2</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="2">
@@ -13967,8 +14009,11 @@
       <c r="KL15" s="1" t="n">
         <v>96</v>
       </c>
-      <c r="KM15" t="n">
+      <c r="KM15" s="1" t="n">
         <v>66</v>
+      </c>
+      <c r="KN15" t="n">
+        <v>77</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="2">
@@ -14868,8 +14913,11 @@
       <c r="KL16" s="1" t="n">
         <v>88</v>
       </c>
-      <c r="KM16" t="n">
+      <c r="KM16" s="1" t="n">
         <v>67</v>
+      </c>
+      <c r="KN16" t="n">
+        <v>64</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="2">
@@ -15769,8 +15817,11 @@
       <c r="KL17" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="KM17" t="n">
+      <c r="KM17" s="1" t="n">
         <v>55</v>
+      </c>
+      <c r="KN17" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="2">
@@ -16670,8 +16721,11 @@
       <c r="KL18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="KM18" t="n">
+      <c r="KM18" s="1" t="n">
         <v>19</v>
+      </c>
+      <c r="KN18" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="2">
@@ -17571,8 +17625,11 @@
       <c r="KL19" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="KM19" t="n">
+      <c r="KM19" s="1" t="n">
         <v>15</v>
+      </c>
+      <c r="KN19" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="2">
@@ -18472,7 +18529,10 @@
       <c r="KL20" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="KM20" t="n">
+      <c r="KM20" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="KN20" t="n">
         <v>10</v>
       </c>
     </row>
@@ -19373,7 +19433,10 @@
       <c r="KL21" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="KM21" t="n">
+      <c r="KM21" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="KN21" t="n">
         <v>6</v>
       </c>
     </row>
@@ -20274,8 +20337,11 @@
       <c r="KL22" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="KM22" t="n">
+      <c r="KM22" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="KN22" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="2">
@@ -21175,8 +21241,11 @@
       <c r="KL23" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="KM23" t="n">
+      <c r="KM23" s="1" t="n">
         <v>2</v>
+      </c>
+      <c r="KN23" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="2">
@@ -22076,8 +22145,11 @@
       <c r="KL24" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="KM24" t="n">
+      <c r="KM24" s="1" t="n">
         <v>17</v>
+      </c>
+      <c r="KN24" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="2">
@@ -22977,8 +23049,11 @@
       <c r="KL25" s="1" t="n">
         <v>56.2</v>
       </c>
-      <c r="KM25" t="n">
+      <c r="KM25" s="1" t="n">
         <v>58.8</v>
+      </c>
+      <c r="KN25" t="n">
+        <v>47.6</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="2">
@@ -23878,8 +23953,11 @@
       <c r="KL26" s="1" t="n">
         <v>35.33</v>
       </c>
-      <c r="KM26" t="n">
+      <c r="KM26" s="1" t="n">
         <v>30.6</v>
+      </c>
+      <c r="KN26" t="n">
+        <v>35.2</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="2">
@@ -24779,8 +24857,11 @@
       <c r="KL27" s="1" t="n">
         <v>19.88</v>
       </c>
-      <c r="KM27" t="n">
+      <c r="KM27" s="1" t="n">
         <v>18</v>
+      </c>
+      <c r="KN27" t="n">
+        <v>16.76</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="2">
@@ -25680,8 +25761,11 @@
       <c r="KL28" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="KM28" t="n">
+      <c r="KM28" s="1" t="n">
         <v>46</v>
+      </c>
+      <c r="KN28" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="2">
@@ -26581,8 +26665,11 @@
       <c r="KL29" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="KM29" t="n">
+      <c r="KM29" s="1" t="n">
         <v>54</v>
+      </c>
+      <c r="KN29" t="n">
+        <v>56</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="2">
@@ -27482,8 +27569,11 @@
       <c r="KL30" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="KM30" t="n">
+      <c r="KM30" s="1" t="n">
         <v>50</v>
+      </c>
+      <c r="KN30" t="n">
+        <v>53</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="2">
@@ -28383,8 +28473,11 @@
       <c r="KL31" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="KM31" t="n">
+      <c r="KM31" s="1" t="n">
         <v>46</v>
+      </c>
+      <c r="KN31" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="2">
@@ -29284,8 +29377,11 @@
       <c r="KL32" s="1" t="n">
         <v>2.81</v>
       </c>
-      <c r="KM32" t="n">
+      <c r="KM32" s="1" t="n">
         <v>2.71</v>
+      </c>
+      <c r="KN32" t="n">
+        <v>2.14</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="2">
@@ -30185,8 +30281,11 @@
       <c r="KL33" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="KM33" t="n">
+      <c r="KM33" s="1" t="n">
         <v>4.6</v>
+      </c>
+      <c r="KN33" t="n">
+        <v>4.5</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="2">
@@ -31086,8 +31185,11 @@
       <c r="KL34" s="1" t="n">
         <v>35.6</v>
       </c>
-      <c r="KM34" t="n">
+      <c r="KM34" s="1" t="n">
         <v>32.6</v>
+      </c>
+      <c r="KN34" t="n">
+        <v>44.4</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="2">
@@ -31987,8 +32089,11 @@
       <c r="KL35" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="KM35" t="n">
+      <c r="KM35" s="1" t="n">
         <v>21.7</v>
+      </c>
+      <c r="KN35" t="n">
+        <v>22.2</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="2">
@@ -32888,8 +32993,11 @@
       <c r="KL36" s="1" t="n">
         <v>189.4</v>
       </c>
-      <c r="KM36" t="n">
+      <c r="KM36" s="1" t="n">
         <v>188.8</v>
+      </c>
+      <c r="KN36" t="n">
+        <v>188.3</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="2">
@@ -33789,8 +33897,11 @@
       <c r="KL37" s="1" t="n">
         <v>84.90000000000001</v>
       </c>
-      <c r="KM37" t="n">
+      <c r="KM37" s="1" t="n">
         <v>83.40000000000001</v>
+      </c>
+      <c r="KN37" t="n">
+        <v>83</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="2">
@@ -34690,8 +34801,11 @@
       <c r="KL38" s="1" t="n">
         <v>24.8</v>
       </c>
-      <c r="KM38" t="n">
+      <c r="KM38" s="1" t="n">
         <v>24.49</v>
+      </c>
+      <c r="KN38" t="n">
+        <v>24.41</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="2">
@@ -35591,8 +35705,11 @@
       <c r="KL39" s="1" t="n">
         <v>92.2</v>
       </c>
-      <c r="KM39" t="n">
+      <c r="KM39" s="1" t="n">
         <v>87.7</v>
+      </c>
+      <c r="KN39" t="n">
+        <v>87.90000000000001</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="2">
@@ -36492,7 +36609,10 @@
       <c r="KL40" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="KM40" t="n">
+      <c r="KM40" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="KN40" t="n">
         <v>9</v>
       </c>
     </row>
@@ -37393,7 +37513,10 @@
       <c r="KL41" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="KM41" t="n">
+      <c r="KM41" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="KN41" t="n">
         <v>6</v>
       </c>
     </row>
@@ -38294,7 +38417,10 @@
       <c r="KL42" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="KM42" t="n">
+      <c r="KM42" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="KN42" t="n">
         <v>5</v>
       </c>
     </row>
@@ -39195,7 +39321,10 @@
       <c r="KL43" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="KM43" t="n">
+      <c r="KM43" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="KN43" t="n">
         <v>3</v>
       </c>
     </row>
@@ -40096,8 +40225,11 @@
       <c r="KL44" s="1" t="n">
         <v>125</v>
       </c>
-      <c r="KM44" t="n">
+      <c r="KM44" s="1" t="n">
         <v>134</v>
+      </c>
+      <c r="KN44" t="n">
+        <v>118</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="2">
@@ -40997,8 +41129,11 @@
       <c r="KL45" s="1" t="n">
         <v>186</v>
       </c>
-      <c r="KM45" t="n">
+      <c r="KM45" s="1" t="n">
         <v>160</v>
+      </c>
+      <c r="KN45" t="n">
+        <v>223</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="2">
@@ -41898,8 +42033,11 @@
       <c r="KL46" s="1" t="n">
         <v>231</v>
       </c>
-      <c r="KM46" t="n">
+      <c r="KM46" s="1" t="n">
         <v>220</v>
+      </c>
+      <c r="KN46" t="n">
+        <v>266</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="2">
@@ -42799,8 +42937,11 @@
       <c r="KL47" s="1" t="n">
         <v>72.59999999999999</v>
       </c>
-      <c r="KM47" t="n">
+      <c r="KM47" s="1" t="n">
         <v>71.90000000000001</v>
+      </c>
+      <c r="KN47" t="n">
+        <v>75.59999999999999</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="2">
@@ -43700,8 +43841,11 @@
       <c r="KL48" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="KM48" t="n">
+      <c r="KM48" s="1" t="n">
         <v>54</v>
+      </c>
+      <c r="KN48" t="n">
+        <v>56</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="2">
@@ -44601,8 +44745,11 @@
       <c r="KL49" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="KM49" t="n">
+      <c r="KM49" s="1" t="n">
         <v>12</v>
+      </c>
+      <c r="KN49" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="2">
@@ -45502,8 +45649,11 @@
       <c r="KL50" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="KM50" t="n">
+      <c r="KM50" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="KN50" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="2">
@@ -46403,8 +46553,11 @@
       <c r="KL51" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="KM51" t="n">
+      <c r="KM51" s="1" t="n">
         <v>46</v>
+      </c>
+      <c r="KN51" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="2">
@@ -47304,8 +47457,11 @@
       <c r="KL52" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="KM52" t="n">
+      <c r="KM52" s="1" t="n">
         <v>50</v>
+      </c>
+      <c r="KN52" t="n">
+        <v>53</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="2">
@@ -48205,8 +48361,11 @@
       <c r="KL53" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="KM53" t="n">
+      <c r="KM53" s="1" t="n">
         <v>41</v>
+      </c>
+      <c r="KN53" t="n">
+        <v>61</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="2">
@@ -49106,8 +49265,11 @@
       <c r="KL54" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="KM54" t="n">
+      <c r="KM54" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="KN54" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="2">
@@ -50007,7 +50169,10 @@
       <c r="KL55" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="KM55" t="n">
+      <c r="KM55" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="KN55" t="n">
         <v>6</v>
       </c>
     </row>
@@ -50908,7 +51073,10 @@
       <c r="KL56" s="1" t="n">
         <v>88.90000000000001</v>
       </c>
-      <c r="KM56" t="n">
+      <c r="KM56" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="KN56" t="n">
         <v>60</v>
       </c>
     </row>
@@ -51809,8 +51977,11 @@
       <c r="KL57" s="1" t="n">
         <v>228</v>
       </c>
-      <c r="KM57" t="n">
+      <c r="KM57" s="1" t="n">
         <v>206</v>
+      </c>
+      <c r="KN57" t="n">
+        <v>208</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="2">
@@ -52710,8 +52881,11 @@
       <c r="KL58" s="1" t="n">
         <v>167</v>
       </c>
-      <c r="KM58" t="n">
+      <c r="KM58" s="1" t="n">
         <v>168</v>
+      </c>
+      <c r="KN58" t="n">
+        <v>196</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="2">
@@ -53611,8 +53785,11 @@
       <c r="KL59" s="1" t="n">
         <v>395</v>
       </c>
-      <c r="KM59" t="n">
+      <c r="KM59" s="1" t="n">
         <v>374</v>
+      </c>
+      <c r="KN59" t="n">
+        <v>404</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="2">
@@ -54512,8 +54689,11 @@
       <c r="KL60" s="1" t="n">
         <v>1.37</v>
       </c>
-      <c r="KM60" t="n">
+      <c r="KM60" s="1" t="n">
         <v>1.23</v>
+      </c>
+      <c r="KN60" t="n">
+        <v>1.06</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="2">
@@ -55413,8 +55593,11 @@
       <c r="KL61" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="KM61" t="n">
+      <c r="KM61" s="1" t="n">
         <v>102</v>
+      </c>
+      <c r="KN61" t="n">
+        <v>82</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="2">
@@ -56314,8 +56497,11 @@
       <c r="KL62" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="KM62" t="n">
+      <c r="KM62" s="1" t="n">
         <v>71</v>
+      </c>
+      <c r="KN62" t="n">
+        <v>54</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="2">
@@ -57215,8 +57401,11 @@
       <c r="KL63" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="KM63" t="n">
+      <c r="KM63" s="1" t="n">
         <v>33</v>
+      </c>
+      <c r="KN63" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="2">
@@ -58116,8 +58305,11 @@
       <c r="KL64" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="KM64" t="n">
+      <c r="KM64" s="1" t="n">
         <v>15</v>
+      </c>
+      <c r="KN64" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="2">
@@ -59017,8 +59209,11 @@
       <c r="KL65" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="KM65" t="n">
+      <c r="KM65" s="1" t="n">
         <v>19</v>
+      </c>
+      <c r="KN65" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="2">
@@ -59918,8 +60113,11 @@
       <c r="KL66" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="KM66" t="n">
+      <c r="KM66" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="KN66" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="2">
@@ -60819,8 +61017,11 @@
       <c r="KL67" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="KM67" t="n">
+      <c r="KM67" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="KN67" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="2">
@@ -61720,8 +61921,11 @@
       <c r="KL68" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="KM68" t="n">
+      <c r="KM68" s="1" t="n">
         <v>11</v>
+      </c>
+      <c r="KN68" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="2">
@@ -62621,8 +62825,11 @@
       <c r="KL69" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="KM69" t="n">
+      <c r="KM69" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="KN69" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="2">
@@ -63522,8 +63729,11 @@
       <c r="KL70" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="KM70" t="n">
+      <c r="KM70" s="1" t="n">
         <v>22</v>
+      </c>
+      <c r="KN70" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="2">
@@ -64423,8 +64633,11 @@
       <c r="KL71" s="1" t="n">
         <v>37.5</v>
       </c>
-      <c r="KM71" t="n">
+      <c r="KM71" s="1" t="n">
         <v>45.5</v>
+      </c>
+      <c r="KN71" t="n">
+        <v>53.6</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="2">
@@ -65324,8 +65537,11 @@
       <c r="KL72" s="1" t="n">
         <v>43.89</v>
       </c>
-      <c r="KM72" t="n">
+      <c r="KM72" s="1" t="n">
         <v>37.4</v>
+      </c>
+      <c r="KN72" t="n">
+        <v>26.93</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="2">
@@ -66225,8 +66441,11 @@
       <c r="KL73" s="1" t="n">
         <v>16.46</v>
       </c>
-      <c r="KM73" t="n">
+      <c r="KM73" s="1" t="n">
         <v>17</v>
+      </c>
+      <c r="KN73" t="n">
+        <v>14.43</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="2">
@@ -67126,8 +67345,11 @@
       <c r="KL74" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="KM74" t="n">
+      <c r="KM74" s="1" t="n">
         <v>33</v>
+      </c>
+      <c r="KN74" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="2">
@@ -68027,8 +68249,11 @@
       <c r="KL75" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="KM75" t="n">
+      <c r="KM75" s="1" t="n">
         <v>54</v>
+      </c>
+      <c r="KN75" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="2">
@@ -68928,8 +69153,11 @@
       <c r="KL76" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="KM76" t="n">
+      <c r="KM76" s="1" t="n">
         <v>36</v>
+      </c>
+      <c r="KN76" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="2">
@@ -69829,8 +70057,11 @@
       <c r="KL77" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="KM77" t="n">
+      <c r="KM77" s="1" t="n">
         <v>60</v>
+      </c>
+      <c r="KN77" t="n">
+        <v>69</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="2">
@@ -70730,8 +70961,11 @@
       <c r="KL78" s="1" t="n">
         <v>2.08</v>
       </c>
-      <c r="KM78" t="n">
+      <c r="KM78" s="1" t="n">
         <v>2.73</v>
+      </c>
+      <c r="KN78" t="n">
+        <v>2.46</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="2">
@@ -71631,8 +71865,11 @@
       <c r="KL79" s="1" t="n">
         <v>5.56</v>
       </c>
-      <c r="KM79" t="n">
+      <c r="KM79" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="KN79" t="n">
+        <v>4.6</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="2">
@@ -72532,8 +72769,11 @@
       <c r="KL80" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="KM80" t="n">
+      <c r="KM80" s="1" t="n">
         <v>35</v>
+      </c>
+      <c r="KN80" t="n">
+        <v>33.3</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="2">
@@ -73433,8 +73673,11 @@
       <c r="KL81" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="KM81" t="n">
+      <c r="KM81" s="1" t="n">
         <v>16.7</v>
+      </c>
+      <c r="KN81" t="n">
+        <v>21.7</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="2">
@@ -74334,8 +74577,11 @@
       <c r="KL82" s="1" t="n">
         <v>187.9</v>
       </c>
-      <c r="KM82" t="n">
+      <c r="KM82" s="1" t="n">
         <v>188.6</v>
+      </c>
+      <c r="KN82" t="n">
+        <v>186.3</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="2">
@@ -75235,8 +75481,11 @@
       <c r="KL83" s="1" t="n">
         <v>84.8</v>
       </c>
-      <c r="KM83" t="n">
+      <c r="KM83" s="1" t="n">
         <v>86.5</v>
+      </c>
+      <c r="KN83" t="n">
+        <v>86.59999999999999</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="2">
@@ -76136,8 +76385,11 @@
       <c r="KL84" s="1" t="n">
         <v>25.49</v>
       </c>
-      <c r="KM84" t="n">
+      <c r="KM84" s="1" t="n">
         <v>25.8</v>
+      </c>
+      <c r="KN84" t="n">
+        <v>26.33</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="2">
@@ -77037,8 +77289,11 @@
       <c r="KL85" s="1" t="n">
         <v>98.2</v>
       </c>
-      <c r="KM85" t="n">
+      <c r="KM85" s="1" t="n">
         <v>103.7</v>
+      </c>
+      <c r="KN85" t="n">
+        <v>121.3</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="2">
@@ -77938,8 +78193,11 @@
       <c r="KL86" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="KM86" t="n">
+      <c r="KM86" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="KN86" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="2">
@@ -78839,8 +79097,11 @@
       <c r="KL87" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="KM87" t="n">
+      <c r="KM87" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="KN87" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="2">
@@ -79740,8 +80001,11 @@
       <c r="KL88" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="KM88" t="n">
+      <c r="KM88" s="1" t="n">
         <v>2</v>
+      </c>
+      <c r="KN88" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="2">
@@ -80641,8 +80905,11 @@
       <c r="KL89" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="KM89" t="n">
+      <c r="KM89" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="KN89" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="2">
@@ -81542,8 +81809,11 @@
       <c r="KL90" s="1" t="n">
         <v>147</v>
       </c>
-      <c r="KM90" t="n">
+      <c r="KM90" s="1" t="n">
         <v>149</v>
+      </c>
+      <c r="KN90" t="n">
+        <v>148</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="2">
@@ -82443,8 +82713,11 @@
       <c r="KL91" s="1" t="n">
         <v>243</v>
       </c>
-      <c r="KM91" t="n">
+      <c r="KM91" s="1" t="n">
         <v>231</v>
+      </c>
+      <c r="KN91" t="n">
+        <v>253</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="2">
@@ -83344,8 +83617,11 @@
       <c r="KL92" s="1" t="n">
         <v>278</v>
       </c>
-      <c r="KM92" t="n">
+      <c r="KM92" s="1" t="n">
         <v>274</v>
+      </c>
+      <c r="KN92" t="n">
+        <v>291</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="2">
@@ -84245,8 +84521,11 @@
       <c r="KL93" s="1" t="n">
         <v>70.40000000000001</v>
       </c>
-      <c r="KM93" t="n">
+      <c r="KM93" s="1" t="n">
         <v>73.3</v>
+      </c>
+      <c r="KN93" t="n">
+        <v>72</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="2">
@@ -85146,8 +85425,11 @@
       <c r="KL94" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="KM94" t="n">
+      <c r="KM94" s="1" t="n">
         <v>54</v>
+      </c>
+      <c r="KN94" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="2">
@@ -86047,8 +86329,11 @@
       <c r="KL95" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="KM95" t="n">
+      <c r="KM95" s="1" t="n">
         <v>12</v>
+      </c>
+      <c r="KN95" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="2">
@@ -86948,8 +87233,11 @@
       <c r="KL96" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="KM96" t="n">
+      <c r="KM96" s="1" t="n">
         <v>11</v>
+      </c>
+      <c r="KN96" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="2">
@@ -87849,8 +88137,11 @@
       <c r="KL97" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="KM97" t="n">
+      <c r="KM97" s="1" t="n">
         <v>33</v>
+      </c>
+      <c r="KN97" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="2">
@@ -88750,8 +89041,11 @@
       <c r="KL98" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="KM98" t="n">
+      <c r="KM98" s="1" t="n">
         <v>36</v>
+      </c>
+      <c r="KN98" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="2">
@@ -89651,8 +89945,11 @@
       <c r="KL99" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="KM99" t="n">
+      <c r="KM99" s="1" t="n">
         <v>47</v>
+      </c>
+      <c r="KN99" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="2">
@@ -90552,8 +90849,11 @@
       <c r="KL100" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="KM100" t="n">
+      <c r="KM100" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="KN100" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="2">
@@ -91453,8 +91753,11 @@
       <c r="KL101" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="KM101" t="n">
+      <c r="KM101" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="KN101" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="2">
@@ -92354,8 +92657,11 @@
       <c r="KL102" s="1" t="n">
         <v>66.7</v>
       </c>
-      <c r="KM102" t="n">
+      <c r="KM102" s="1" t="n">
         <v>50</v>
+      </c>
+      <c r="KN102" t="n">
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/AFL_ML/Data/North Melbourne_stats.xlsx
+++ b/AFL_ML/Data/North Melbourne_stats.xlsx
@@ -445,7 +445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:KN102"/>
+  <dimension ref="A1:KO102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="JT88" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="KA93" activeCellId="0" sqref="KA93"/>
@@ -1356,8 +1356,11 @@
       <c r="KM1" s="1" t="n">
         <v>10921</v>
       </c>
-      <c r="KN1" t="n">
+      <c r="KN1" s="1" t="n">
         <v>10926</v>
+      </c>
+      <c r="KO1" t="n">
+        <v>10935</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="2">
@@ -2260,7 +2263,10 @@
       <c r="KM2" s="1" t="n">
         <v>2023</v>
       </c>
-      <c r="KN2" t="n">
+      <c r="KN2" s="1" t="n">
+        <v>2023</v>
+      </c>
+      <c r="KO2" t="n">
         <v>2023</v>
       </c>
     </row>
@@ -3164,8 +3170,11 @@
       <c r="KM3" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="KN3" t="n">
+      <c r="KN3" s="1" t="n">
         <v>21</v>
+      </c>
+      <c r="KO3" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="2">
@@ -4068,7 +4077,10 @@
       <c r="KM4" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="KN4" t="n">
+      <c r="KN4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KO4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4972,7 +4984,10 @@
       <c r="KM5" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="KN5" t="n">
+      <c r="KN5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="KO5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5876,8 +5891,11 @@
       <c r="KM6" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="KN6" t="n">
+      <c r="KN6" s="1" t="n">
         <v>71</v>
+      </c>
+      <c r="KO6" t="n">
+        <v>77</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="2">
@@ -6780,8 +6798,11 @@
       <c r="KM7" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="KN7" t="n">
+      <c r="KN7" s="1" t="n">
         <v>103</v>
+      </c>
+      <c r="KO7" t="n">
+        <v>86</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="2">
@@ -7684,8 +7705,11 @@
       <c r="KM8" s="1" t="n">
         <v>-5</v>
       </c>
-      <c r="KN8" t="n">
+      <c r="KN8" s="1" t="n">
         <v>-32</v>
+      </c>
+      <c r="KO8" t="n">
+        <v>-9</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="2">
@@ -8588,7 +8612,10 @@
       <c r="KM9" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="KN9" t="n">
+      <c r="KN9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KO9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9492,8 +9519,11 @@
       <c r="KM10" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="KN10" t="n">
+      <c r="KN10" s="1" t="n">
         <v>11</v>
+      </c>
+      <c r="KO10" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="2">
@@ -10396,8 +10426,11 @@
       <c r="KM11" s="1" t="n">
         <v>185</v>
       </c>
-      <c r="KN11" t="n">
+      <c r="KN11" s="1" t="n">
         <v>192</v>
+      </c>
+      <c r="KO11" t="n">
+        <v>187</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="2">
@@ -11300,8 +11333,11 @@
       <c r="KM12" s="1" t="n">
         <v>121</v>
       </c>
-      <c r="KN12" t="n">
+      <c r="KN12" s="1" t="n">
         <v>160</v>
+      </c>
+      <c r="KO12" t="n">
+        <v>162</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="2">
@@ -12204,8 +12240,11 @@
       <c r="KM13" s="1" t="n">
         <v>306</v>
       </c>
-      <c r="KN13" t="n">
+      <c r="KN13" s="1" t="n">
         <v>352</v>
+      </c>
+      <c r="KO13" t="n">
+        <v>349</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="2">
@@ -13108,8 +13147,11 @@
       <c r="KM14" s="1" t="n">
         <v>1.53</v>
       </c>
-      <c r="KN14" t="n">
+      <c r="KN14" s="1" t="n">
         <v>1.2</v>
+      </c>
+      <c r="KO14" t="n">
+        <v>1.15</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="2">
@@ -14012,8 +14054,11 @@
       <c r="KM15" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="KN15" t="n">
+      <c r="KN15" s="1" t="n">
         <v>77</v>
+      </c>
+      <c r="KO15" t="n">
+        <v>70</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="2">
@@ -14916,8 +14961,11 @@
       <c r="KM16" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="KN16" t="n">
+      <c r="KN16" s="1" t="n">
         <v>64</v>
+      </c>
+      <c r="KO16" t="n">
+        <v>63</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="2">
@@ -15820,8 +15868,11 @@
       <c r="KM17" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="KN17" t="n">
+      <c r="KN17" s="1" t="n">
         <v>47</v>
+      </c>
+      <c r="KO17" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="2">
@@ -16724,8 +16775,11 @@
       <c r="KM18" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="KN18" t="n">
+      <c r="KN18" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="KO18" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="2">
@@ -17628,8 +17682,11 @@
       <c r="KM19" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="KN19" t="n">
+      <c r="KN19" s="1" t="n">
         <v>19</v>
+      </c>
+      <c r="KO19" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="2">
@@ -18532,8 +18589,11 @@
       <c r="KM20" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="KN20" t="n">
+      <c r="KN20" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="KO20" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="2">
@@ -19436,8 +19496,11 @@
       <c r="KM21" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="KN21" t="n">
+      <c r="KN21" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="KO21" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="2">
@@ -20340,8 +20403,11 @@
       <c r="KM22" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="KN22" t="n">
+      <c r="KN22" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="KO22" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="2">
@@ -21244,7 +21310,10 @@
       <c r="KM23" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="KN23" t="n">
+      <c r="KN23" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="KO23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -22148,8 +22217,11 @@
       <c r="KM24" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="KN24" t="n">
+      <c r="KN24" s="1" t="n">
         <v>21</v>
+      </c>
+      <c r="KO24" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="2">
@@ -23052,8 +23124,11 @@
       <c r="KM25" s="1" t="n">
         <v>58.8</v>
       </c>
-      <c r="KN25" t="n">
+      <c r="KN25" s="1" t="n">
         <v>47.6</v>
+      </c>
+      <c r="KO25" t="n">
+        <v>70.59999999999999</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="2">
@@ -23956,8 +24031,11 @@
       <c r="KM26" s="1" t="n">
         <v>30.6</v>
       </c>
-      <c r="KN26" t="n">
+      <c r="KN26" s="1" t="n">
         <v>35.2</v>
+      </c>
+      <c r="KO26" t="n">
+        <v>29.08</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="2">
@@ -24860,8 +24938,11 @@
       <c r="KM27" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="KN27" t="n">
+      <c r="KN27" s="1" t="n">
         <v>16.76</v>
+      </c>
+      <c r="KO27" t="n">
+        <v>20.53</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="2">
@@ -25764,8 +25845,11 @@
       <c r="KM28" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="KN28" t="n">
+      <c r="KN28" s="1" t="n">
         <v>40</v>
+      </c>
+      <c r="KO28" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="2">
@@ -26668,8 +26752,11 @@
       <c r="KM29" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="KN29" t="n">
+      <c r="KN29" s="1" t="n">
         <v>56</v>
+      </c>
+      <c r="KO29" t="n">
+        <v>58</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="2">
@@ -27572,8 +27659,11 @@
       <c r="KM30" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="KN30" t="n">
+      <c r="KN30" s="1" t="n">
         <v>53</v>
+      </c>
+      <c r="KO30" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="2">
@@ -28476,8 +28566,11 @@
       <c r="KM31" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="KN31" t="n">
+      <c r="KN31" s="1" t="n">
         <v>45</v>
+      </c>
+      <c r="KO31" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="2">
@@ -29380,8 +29473,11 @@
       <c r="KM32" s="1" t="n">
         <v>2.71</v>
       </c>
-      <c r="KN32" t="n">
+      <c r="KN32" s="1" t="n">
         <v>2.14</v>
+      </c>
+      <c r="KO32" t="n">
+        <v>2.76</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="2">
@@ -30284,8 +30380,11 @@
       <c r="KM33" s="1" t="n">
         <v>4.6</v>
       </c>
-      <c r="KN33" t="n">
+      <c r="KN33" s="1" t="n">
         <v>4.5</v>
+      </c>
+      <c r="KO33" t="n">
+        <v>3.92</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="2">
@@ -31188,8 +31287,11 @@
       <c r="KM34" s="1" t="n">
         <v>32.6</v>
       </c>
-      <c r="KN34" t="n">
+      <c r="KN34" s="1" t="n">
         <v>44.4</v>
+      </c>
+      <c r="KO34" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="2">
@@ -32092,8 +32194,11 @@
       <c r="KM35" s="1" t="n">
         <v>21.7</v>
       </c>
-      <c r="KN35" t="n">
+      <c r="KN35" s="1" t="n">
         <v>22.2</v>
+      </c>
+      <c r="KO35" t="n">
+        <v>25.5</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="2">
@@ -32996,8 +33101,11 @@
       <c r="KM36" s="1" t="n">
         <v>188.8</v>
       </c>
-      <c r="KN36" t="n">
+      <c r="KN36" s="1" t="n">
         <v>188.3</v>
+      </c>
+      <c r="KO36" t="n">
+        <v>188.6</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="2">
@@ -33900,8 +34008,11 @@
       <c r="KM37" s="1" t="n">
         <v>83.40000000000001</v>
       </c>
-      <c r="KN37" t="n">
+      <c r="KN37" s="1" t="n">
         <v>83</v>
+      </c>
+      <c r="KO37" t="n">
+        <v>83.8</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="2">
@@ -34804,8 +34915,11 @@
       <c r="KM38" s="1" t="n">
         <v>24.49</v>
       </c>
-      <c r="KN38" t="n">
+      <c r="KN38" s="1" t="n">
         <v>24.41</v>
+      </c>
+      <c r="KO38" t="n">
+        <v>24.91</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="2">
@@ -35708,8 +35822,11 @@
       <c r="KM39" s="1" t="n">
         <v>87.7</v>
       </c>
-      <c r="KN39" t="n">
+      <c r="KN39" s="1" t="n">
         <v>87.90000000000001</v>
+      </c>
+      <c r="KO39" t="n">
+        <v>98.09999999999999</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="2">
@@ -36612,8 +36729,11 @@
       <c r="KM40" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="KN40" t="n">
+      <c r="KN40" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="KO40" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="41" ht="13.8" customHeight="1" s="2">
@@ -37516,7 +37636,10 @@
       <c r="KM41" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="KN41" t="n">
+      <c r="KN41" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="KO41" t="n">
         <v>6</v>
       </c>
     </row>
@@ -38420,7 +38543,10 @@
       <c r="KM42" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="KN42" t="n">
+      <c r="KN42" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="KO42" t="n">
         <v>5</v>
       </c>
     </row>
@@ -39324,8 +39450,11 @@
       <c r="KM43" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="KN43" t="n">
+      <c r="KN43" s="1" t="n">
         <v>3</v>
+      </c>
+      <c r="KO43" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="44" ht="13.8" customHeight="1" s="2">
@@ -40228,8 +40357,11 @@
       <c r="KM44" s="1" t="n">
         <v>134</v>
       </c>
-      <c r="KN44" t="n">
+      <c r="KN44" s="1" t="n">
         <v>118</v>
+      </c>
+      <c r="KO44" t="n">
+        <v>130</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="2">
@@ -41132,8 +41264,11 @@
       <c r="KM45" s="1" t="n">
         <v>160</v>
       </c>
-      <c r="KN45" t="n">
+      <c r="KN45" s="1" t="n">
         <v>223</v>
+      </c>
+      <c r="KO45" t="n">
+        <v>217</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="2">
@@ -42036,8 +42171,11 @@
       <c r="KM46" s="1" t="n">
         <v>220</v>
       </c>
-      <c r="KN46" t="n">
+      <c r="KN46" s="1" t="n">
         <v>266</v>
+      </c>
+      <c r="KO46" t="n">
+        <v>261</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="2">
@@ -42940,8 +43078,11 @@
       <c r="KM47" s="1" t="n">
         <v>71.90000000000001</v>
       </c>
-      <c r="KN47" t="n">
+      <c r="KN47" s="1" t="n">
         <v>75.59999999999999</v>
+      </c>
+      <c r="KO47" t="n">
+        <v>74.8</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="2">
@@ -43844,8 +43985,11 @@
       <c r="KM48" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="KN48" t="n">
+      <c r="KN48" s="1" t="n">
         <v>56</v>
+      </c>
+      <c r="KO48" t="n">
+        <v>58</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="2">
@@ -44748,7 +44892,10 @@
       <c r="KM49" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="KN49" t="n">
+      <c r="KN49" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="KO49" t="n">
         <v>7</v>
       </c>
     </row>
@@ -45652,8 +45799,11 @@
       <c r="KM50" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="KN50" t="n">
+      <c r="KN50" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="KO50" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="2">
@@ -46556,8 +46706,11 @@
       <c r="KM51" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="KN51" t="n">
+      <c r="KN51" s="1" t="n">
         <v>40</v>
+      </c>
+      <c r="KO51" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="2">
@@ -47460,8 +47613,11 @@
       <c r="KM52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="KN52" t="n">
+      <c r="KN52" s="1" t="n">
         <v>53</v>
+      </c>
+      <c r="KO52" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="2">
@@ -48364,8 +48520,11 @@
       <c r="KM53" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="KN53" t="n">
+      <c r="KN53" s="1" t="n">
         <v>61</v>
+      </c>
+      <c r="KO53" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="2">
@@ -49268,8 +49427,11 @@
       <c r="KM54" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="KN54" t="n">
+      <c r="KN54" s="1" t="n">
         <v>3</v>
+      </c>
+      <c r="KO54" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="2">
@@ -50172,8 +50334,11 @@
       <c r="KM55" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="KN55" t="n">
+      <c r="KN55" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="KO55" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="2">
@@ -51076,8 +51241,11 @@
       <c r="KM56" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="KN56" t="n">
+      <c r="KN56" s="1" t="n">
         <v>60</v>
+      </c>
+      <c r="KO56" t="n">
+        <v>83.3</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="2">
@@ -51980,8 +52148,11 @@
       <c r="KM57" s="1" t="n">
         <v>206</v>
       </c>
-      <c r="KN57" t="n">
+      <c r="KN57" s="1" t="n">
         <v>208</v>
+      </c>
+      <c r="KO57" t="n">
+        <v>223</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="2">
@@ -52884,8 +53055,11 @@
       <c r="KM58" s="1" t="n">
         <v>168</v>
       </c>
-      <c r="KN58" t="n">
+      <c r="KN58" s="1" t="n">
         <v>196</v>
+      </c>
+      <c r="KO58" t="n">
+        <v>163</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="2">
@@ -53788,8 +53962,11 @@
       <c r="KM59" s="1" t="n">
         <v>374</v>
       </c>
-      <c r="KN59" t="n">
+      <c r="KN59" s="1" t="n">
         <v>404</v>
+      </c>
+      <c r="KO59" t="n">
+        <v>386</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="2">
@@ -54692,8 +54869,11 @@
       <c r="KM60" s="1" t="n">
         <v>1.23</v>
       </c>
-      <c r="KN60" t="n">
+      <c r="KN60" s="1" t="n">
         <v>1.06</v>
+      </c>
+      <c r="KO60" t="n">
+        <v>1.37</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="2">
@@ -55596,8 +55776,11 @@
       <c r="KM61" s="1" t="n">
         <v>102</v>
       </c>
-      <c r="KN61" t="n">
+      <c r="KN61" s="1" t="n">
         <v>82</v>
+      </c>
+      <c r="KO61" t="n">
+        <v>108</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="2">
@@ -56500,8 +56683,11 @@
       <c r="KM62" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="KN62" t="n">
+      <c r="KN62" s="1" t="n">
         <v>54</v>
+      </c>
+      <c r="KO62" t="n">
+        <v>62</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="2">
@@ -57404,8 +57590,11 @@
       <c r="KM63" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="KN63" t="n">
+      <c r="KN63" s="1" t="n">
         <v>37</v>
+      </c>
+      <c r="KO63" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="2">
@@ -58308,8 +58497,11 @@
       <c r="KM64" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="KN64" t="n">
+      <c r="KN64" s="1" t="n">
         <v>19</v>
+      </c>
+      <c r="KO64" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="2">
@@ -59212,8 +59404,11 @@
       <c r="KM65" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="KN65" t="n">
+      <c r="KN65" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="KO65" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="2">
@@ -60116,8 +60311,11 @@
       <c r="KM66" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="KN66" t="n">
+      <c r="KN66" s="1" t="n">
         <v>15</v>
+      </c>
+      <c r="KO66" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="2">
@@ -61020,8 +61218,11 @@
       <c r="KM67" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="KN67" t="n">
+      <c r="KN67" s="1" t="n">
         <v>12</v>
+      </c>
+      <c r="KO67" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="2">
@@ -61924,8 +62125,11 @@
       <c r="KM68" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="KN68" t="n">
+      <c r="KN68" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="KO68" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="2">
@@ -62828,8 +63032,11 @@
       <c r="KM69" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="KN69" t="n">
+      <c r="KN69" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="KO69" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="2">
@@ -63732,8 +63939,11 @@
       <c r="KM70" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="KN70" t="n">
+      <c r="KN70" s="1" t="n">
         <v>28</v>
+      </c>
+      <c r="KO70" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="2">
@@ -64636,8 +64846,11 @@
       <c r="KM71" s="1" t="n">
         <v>45.5</v>
       </c>
-      <c r="KN71" t="n">
+      <c r="KN71" s="1" t="n">
         <v>53.6</v>
+      </c>
+      <c r="KO71" t="n">
+        <v>61.9</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="2">
@@ -65540,8 +65753,11 @@
       <c r="KM72" s="1" t="n">
         <v>37.4</v>
       </c>
-      <c r="KN72" t="n">
+      <c r="KN72" s="1" t="n">
         <v>26.93</v>
+      </c>
+      <c r="KO72" t="n">
+        <v>29.69</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="2">
@@ -66444,8 +66660,11 @@
       <c r="KM73" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="KN73" t="n">
+      <c r="KN73" s="1" t="n">
         <v>14.43</v>
+      </c>
+      <c r="KO73" t="n">
+        <v>18.38</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="2">
@@ -67348,8 +67567,11 @@
       <c r="KM74" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="KN74" t="n">
+      <c r="KN74" s="1" t="n">
         <v>40</v>
+      </c>
+      <c r="KO74" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="2">
@@ -68252,8 +68474,11 @@
       <c r="KM75" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="KN75" t="n">
+      <c r="KN75" s="1" t="n">
         <v>55</v>
+      </c>
+      <c r="KO75" t="n">
+        <v>58</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="2">
@@ -69156,8 +69381,11 @@
       <c r="KM76" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="KN76" t="n">
+      <c r="KN76" s="1" t="n">
         <v>35</v>
+      </c>
+      <c r="KO76" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="2">
@@ -70060,8 +70288,11 @@
       <c r="KM77" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="KN77" t="n">
+      <c r="KN77" s="1" t="n">
         <v>69</v>
+      </c>
+      <c r="KO77" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="2">
@@ -70964,8 +71195,11 @@
       <c r="KM78" s="1" t="n">
         <v>2.73</v>
       </c>
-      <c r="KN78" t="n">
+      <c r="KN78" s="1" t="n">
         <v>2.46</v>
+      </c>
+      <c r="KO78" t="n">
+        <v>2.86</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="2">
@@ -71868,8 +72102,11 @@
       <c r="KM79" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="KN79" t="n">
+      <c r="KN79" s="1" t="n">
         <v>4.6</v>
+      </c>
+      <c r="KO79" t="n">
+        <v>4.62</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="2">
@@ -72772,8 +73009,11 @@
       <c r="KM80" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="KN80" t="n">
+      <c r="KN80" s="1" t="n">
         <v>33.3</v>
+      </c>
+      <c r="KO80" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="2">
@@ -73676,7 +73916,10 @@
       <c r="KM81" s="1" t="n">
         <v>16.7</v>
       </c>
-      <c r="KN81" t="n">
+      <c r="KN81" s="1" t="n">
+        <v>21.7</v>
+      </c>
+      <c r="KO81" t="n">
         <v>21.7</v>
       </c>
     </row>
@@ -74580,8 +74823,11 @@
       <c r="KM82" s="1" t="n">
         <v>188.6</v>
       </c>
-      <c r="KN82" t="n">
+      <c r="KN82" s="1" t="n">
         <v>186.3</v>
+      </c>
+      <c r="KO82" t="n">
+        <v>188.7</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="2">
@@ -75484,8 +75730,11 @@
       <c r="KM83" s="1" t="n">
         <v>86.5</v>
       </c>
-      <c r="KN83" t="n">
+      <c r="KN83" s="1" t="n">
         <v>86.59999999999999</v>
+      </c>
+      <c r="KO83" t="n">
+        <v>87</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="2">
@@ -76388,8 +76637,11 @@
       <c r="KM84" s="1" t="n">
         <v>25.8</v>
       </c>
-      <c r="KN84" t="n">
+      <c r="KN84" s="1" t="n">
         <v>26.33</v>
+      </c>
+      <c r="KO84" t="n">
+        <v>24.91</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="2">
@@ -77292,8 +77544,11 @@
       <c r="KM85" s="1" t="n">
         <v>103.7</v>
       </c>
-      <c r="KN85" t="n">
+      <c r="KN85" s="1" t="n">
         <v>121.3</v>
+      </c>
+      <c r="KO85" t="n">
+        <v>84.40000000000001</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="2">
@@ -78196,8 +78451,11 @@
       <c r="KM86" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="KN86" t="n">
+      <c r="KN86" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="KO86" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="2">
@@ -79100,7 +79358,10 @@
       <c r="KM87" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="KN87" t="n">
+      <c r="KN87" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="KO87" t="n">
         <v>5</v>
       </c>
     </row>
@@ -80004,8 +80265,11 @@
       <c r="KM88" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="KN88" t="n">
+      <c r="KN88" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="KO88" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="2">
@@ -80908,8 +81172,11 @@
       <c r="KM89" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="KN89" t="n">
+      <c r="KN89" s="1" t="n">
         <v>12</v>
+      </c>
+      <c r="KO89" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="2">
@@ -81812,8 +82079,11 @@
       <c r="KM90" s="1" t="n">
         <v>149</v>
       </c>
-      <c r="KN90" t="n">
+      <c r="KN90" s="1" t="n">
         <v>148</v>
+      </c>
+      <c r="KO90" t="n">
+        <v>139</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="2">
@@ -82716,8 +82986,11 @@
       <c r="KM91" s="1" t="n">
         <v>231</v>
       </c>
-      <c r="KN91" t="n">
+      <c r="KN91" s="1" t="n">
         <v>253</v>
+      </c>
+      <c r="KO91" t="n">
+        <v>242</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="2">
@@ -83620,8 +83893,11 @@
       <c r="KM92" s="1" t="n">
         <v>274</v>
       </c>
-      <c r="KN92" t="n">
+      <c r="KN92" s="1" t="n">
         <v>291</v>
+      </c>
+      <c r="KO92" t="n">
+        <v>284</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="2">
@@ -84524,8 +84800,11 @@
       <c r="KM93" s="1" t="n">
         <v>73.3</v>
       </c>
-      <c r="KN93" t="n">
+      <c r="KN93" s="1" t="n">
         <v>72</v>
+      </c>
+      <c r="KO93" t="n">
+        <v>73.59999999999999</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="2">
@@ -85428,8 +85707,11 @@
       <c r="KM94" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="KN94" t="n">
+      <c r="KN94" s="1" t="n">
         <v>55</v>
+      </c>
+      <c r="KO94" t="n">
+        <v>58</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="2">
@@ -86332,8 +86614,11 @@
       <c r="KM95" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="KN95" t="n">
+      <c r="KN95" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="KO95" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="2">
@@ -87236,8 +87521,11 @@
       <c r="KM96" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="KN96" t="n">
+      <c r="KN96" s="1" t="n">
         <v>17</v>
+      </c>
+      <c r="KO96" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="2">
@@ -88140,8 +88428,11 @@
       <c r="KM97" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="KN97" t="n">
+      <c r="KN97" s="1" t="n">
         <v>40</v>
+      </c>
+      <c r="KO97" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="2">
@@ -89044,8 +89335,11 @@
       <c r="KM98" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="KN98" t="n">
+      <c r="KN98" s="1" t="n">
         <v>35</v>
+      </c>
+      <c r="KO98" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="2">
@@ -89948,8 +90242,11 @@
       <c r="KM99" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="KN99" t="n">
+      <c r="KN99" s="1" t="n">
         <v>60</v>
+      </c>
+      <c r="KO99" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="2">
@@ -90852,8 +91149,11 @@
       <c r="KM100" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="KN100" t="n">
+      <c r="KN100" s="1" t="n">
         <v>2</v>
+      </c>
+      <c r="KO100" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="2">
@@ -91756,8 +92056,11 @@
       <c r="KM101" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="KN101" t="n">
+      <c r="KN101" s="1" t="n">
         <v>12</v>
+      </c>
+      <c r="KO101" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="2">
@@ -92660,8 +92963,11 @@
       <c r="KM102" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="KN102" t="n">
+      <c r="KN102" s="1" t="n">
         <v>80</v>
+      </c>
+      <c r="KO102" t="n">
+        <v>76.90000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/AFL_ML/Data/North Melbourne_stats.xlsx
+++ b/AFL_ML/Data/North Melbourne_stats.xlsx
@@ -445,7 +445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:KO102"/>
+  <dimension ref="A1:KP102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="JT88" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="KA93" activeCellId="0" sqref="KA93"/>
@@ -1359,8 +1359,11 @@
       <c r="KN1" s="1" t="n">
         <v>10926</v>
       </c>
-      <c r="KO1" t="n">
+      <c r="KO1" s="1" t="n">
         <v>10935</v>
+      </c>
+      <c r="KP1" t="n">
+        <v>10944</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="2">
@@ -2266,7 +2269,10 @@
       <c r="KN2" s="1" t="n">
         <v>2023</v>
       </c>
-      <c r="KO2" t="n">
+      <c r="KO2" s="1" t="n">
+        <v>2023</v>
+      </c>
+      <c r="KP2" t="n">
         <v>2023</v>
       </c>
     </row>
@@ -3173,8 +3179,11 @@
       <c r="KN3" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="KO3" t="n">
+      <c r="KO3" s="1" t="n">
         <v>22</v>
+      </c>
+      <c r="KP3" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="2">
@@ -4080,8 +4089,11 @@
       <c r="KN4" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="KO4" t="n">
+      <c r="KO4" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="KP4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="2">
@@ -4987,8 +4999,11 @@
       <c r="KN5" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="KO5" t="n">
+      <c r="KO5" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="KP5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6" ht="13.8" customHeight="1" s="2">
@@ -5894,8 +5909,11 @@
       <c r="KN6" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="KO6" t="n">
+      <c r="KO6" s="1" t="n">
         <v>77</v>
+      </c>
+      <c r="KP6" t="n">
+        <v>72</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="2">
@@ -6801,8 +6819,11 @@
       <c r="KN7" s="1" t="n">
         <v>103</v>
       </c>
-      <c r="KO7" t="n">
+      <c r="KO7" s="1" t="n">
         <v>86</v>
+      </c>
+      <c r="KP7" t="n">
+        <v>101</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="2">
@@ -7708,8 +7729,11 @@
       <c r="KN8" s="1" t="n">
         <v>-32</v>
       </c>
-      <c r="KO8" t="n">
+      <c r="KO8" s="1" t="n">
         <v>-9</v>
+      </c>
+      <c r="KP8" t="n">
+        <v>-29</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="2">
@@ -8615,7 +8639,10 @@
       <c r="KN9" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="KO9" t="n">
+      <c r="KO9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KP9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9522,8 +9549,11 @@
       <c r="KN10" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="KO10" t="n">
+      <c r="KO10" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="KP10" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="2">
@@ -10429,8 +10459,11 @@
       <c r="KN11" s="1" t="n">
         <v>192</v>
       </c>
-      <c r="KO11" t="n">
+      <c r="KO11" s="1" t="n">
         <v>187</v>
+      </c>
+      <c r="KP11" t="n">
+        <v>193</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="2">
@@ -11336,8 +11369,11 @@
       <c r="KN12" s="1" t="n">
         <v>160</v>
       </c>
-      <c r="KO12" t="n">
+      <c r="KO12" s="1" t="n">
         <v>162</v>
+      </c>
+      <c r="KP12" t="n">
+        <v>166</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="2">
@@ -12243,8 +12279,11 @@
       <c r="KN13" s="1" t="n">
         <v>352</v>
       </c>
-      <c r="KO13" t="n">
+      <c r="KO13" s="1" t="n">
         <v>349</v>
+      </c>
+      <c r="KP13" t="n">
+        <v>359</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="2">
@@ -13150,8 +13189,11 @@
       <c r="KN14" s="1" t="n">
         <v>1.2</v>
       </c>
-      <c r="KO14" t="n">
+      <c r="KO14" s="1" t="n">
         <v>1.15</v>
+      </c>
+      <c r="KP14" t="n">
+        <v>1.16</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="2">
@@ -14057,8 +14099,11 @@
       <c r="KN15" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="KO15" t="n">
+      <c r="KO15" s="1" t="n">
         <v>70</v>
+      </c>
+      <c r="KP15" t="n">
+        <v>75</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="2">
@@ -14964,8 +15009,11 @@
       <c r="KN16" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="KO16" t="n">
+      <c r="KO16" s="1" t="n">
         <v>63</v>
+      </c>
+      <c r="KP16" t="n">
+        <v>61</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="2">
@@ -15871,7 +15919,10 @@
       <c r="KN17" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="KO17" t="n">
+      <c r="KO17" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="KP17" t="n">
         <v>40</v>
       </c>
     </row>
@@ -16778,8 +16829,11 @@
       <c r="KN18" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="KO18" t="n">
+      <c r="KO18" s="1" t="n">
         <v>20</v>
+      </c>
+      <c r="KP18" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="2">
@@ -17685,8 +17739,11 @@
       <c r="KN19" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="KO19" t="n">
+      <c r="KO19" s="1" t="n">
         <v>22</v>
+      </c>
+      <c r="KP19" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="2">
@@ -18592,8 +18649,11 @@
       <c r="KN20" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="KO20" t="n">
+      <c r="KO20" s="1" t="n">
         <v>12</v>
+      </c>
+      <c r="KP20" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="2">
@@ -19499,8 +19559,11 @@
       <c r="KN21" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="KO21" t="n">
+      <c r="KO21" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="KP21" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="2">
@@ -20406,8 +20469,11 @@
       <c r="KN22" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="KO22" t="n">
+      <c r="KO22" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="KP22" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="2">
@@ -21313,7 +21379,10 @@
       <c r="KN23" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="KO23" t="n">
+      <c r="KO23" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="KP23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -22220,8 +22289,11 @@
       <c r="KN24" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="KO24" t="n">
+      <c r="KO24" s="1" t="n">
         <v>17</v>
+      </c>
+      <c r="KP24" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="2">
@@ -23127,8 +23199,11 @@
       <c r="KN25" s="1" t="n">
         <v>47.6</v>
       </c>
-      <c r="KO25" t="n">
+      <c r="KO25" s="1" t="n">
         <v>70.59999999999999</v>
+      </c>
+      <c r="KP25" t="n">
+        <v>45.5</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="2">
@@ -24034,8 +24109,11 @@
       <c r="KN26" s="1" t="n">
         <v>35.2</v>
       </c>
-      <c r="KO26" t="n">
+      <c r="KO26" s="1" t="n">
         <v>29.08</v>
+      </c>
+      <c r="KP26" t="n">
+        <v>35.9</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="2">
@@ -24941,8 +25019,11 @@
       <c r="KN27" s="1" t="n">
         <v>16.76</v>
       </c>
-      <c r="KO27" t="n">
+      <c r="KO27" s="1" t="n">
         <v>20.53</v>
+      </c>
+      <c r="KP27" t="n">
+        <v>16.32</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="2">
@@ -25848,8 +25929,11 @@
       <c r="KN28" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="KO28" t="n">
+      <c r="KO28" s="1" t="n">
         <v>39</v>
+      </c>
+      <c r="KP28" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="2">
@@ -26755,7 +26839,10 @@
       <c r="KN29" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="KO29" t="n">
+      <c r="KO29" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="KP29" t="n">
         <v>58</v>
       </c>
     </row>
@@ -27662,8 +27749,11 @@
       <c r="KN30" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="KO30" t="n">
+      <c r="KO30" s="1" t="n">
         <v>45</v>
+      </c>
+      <c r="KP30" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="2">
@@ -28569,7 +28659,10 @@
       <c r="KN31" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="KO31" t="n">
+      <c r="KO31" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="KP31" t="n">
         <v>47</v>
       </c>
     </row>
@@ -29476,8 +29569,11 @@
       <c r="KN32" s="1" t="n">
         <v>2.14</v>
       </c>
-      <c r="KO32" t="n">
+      <c r="KO32" s="1" t="n">
         <v>2.76</v>
+      </c>
+      <c r="KP32" t="n">
+        <v>2.14</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="2">
@@ -30383,8 +30479,11 @@
       <c r="KN33" s="1" t="n">
         <v>4.5</v>
       </c>
-      <c r="KO33" t="n">
+      <c r="KO33" s="1" t="n">
         <v>3.92</v>
+      </c>
+      <c r="KP33" t="n">
+        <v>4.7</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="2">
@@ -31290,8 +31389,11 @@
       <c r="KN34" s="1" t="n">
         <v>44.4</v>
       </c>
-      <c r="KO34" t="n">
+      <c r="KO34" s="1" t="n">
         <v>34</v>
+      </c>
+      <c r="KP34" t="n">
+        <v>44.7</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="2">
@@ -32197,8 +32299,11 @@
       <c r="KN35" s="1" t="n">
         <v>22.2</v>
       </c>
-      <c r="KO35" t="n">
+      <c r="KO35" s="1" t="n">
         <v>25.5</v>
+      </c>
+      <c r="KP35" t="n">
+        <v>21.3</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="2">
@@ -33104,8 +33209,11 @@
       <c r="KN36" s="1" t="n">
         <v>188.3</v>
       </c>
-      <c r="KO36" t="n">
+      <c r="KO36" s="1" t="n">
         <v>188.6</v>
+      </c>
+      <c r="KP36" t="n">
+        <v>188.9</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="2">
@@ -34011,8 +34119,11 @@
       <c r="KN37" s="1" t="n">
         <v>83</v>
       </c>
-      <c r="KO37" t="n">
+      <c r="KO37" s="1" t="n">
         <v>83.8</v>
+      </c>
+      <c r="KP37" t="n">
+        <v>84.59999999999999</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="2">
@@ -34918,8 +35029,11 @@
       <c r="KN38" s="1" t="n">
         <v>24.41</v>
       </c>
-      <c r="KO38" t="n">
+      <c r="KO38" s="1" t="n">
         <v>24.91</v>
+      </c>
+      <c r="KP38" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="2">
@@ -35825,8 +35939,11 @@
       <c r="KN39" s="1" t="n">
         <v>87.90000000000001</v>
       </c>
-      <c r="KO39" t="n">
+      <c r="KO39" s="1" t="n">
         <v>98.09999999999999</v>
+      </c>
+      <c r="KP39" t="n">
+        <v>92.2</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="2">
@@ -36732,8 +36849,11 @@
       <c r="KN40" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="KO40" t="n">
+      <c r="KO40" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="KP40" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="41" ht="13.8" customHeight="1" s="2">
@@ -37639,8 +37759,11 @@
       <c r="KN41" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="KO41" t="n">
+      <c r="KO41" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="KP41" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="42" ht="13.8" customHeight="1" s="2">
@@ -38546,8 +38669,11 @@
       <c r="KN42" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="KO42" t="n">
+      <c r="KO42" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="KP42" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="43" ht="13.8" customHeight="1" s="2">
@@ -39453,8 +39579,11 @@
       <c r="KN43" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="KO43" t="n">
+      <c r="KO43" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="KP43" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="44" ht="13.8" customHeight="1" s="2">
@@ -40360,8 +40489,11 @@
       <c r="KN44" s="1" t="n">
         <v>118</v>
       </c>
-      <c r="KO44" t="n">
+      <c r="KO44" s="1" t="n">
         <v>130</v>
+      </c>
+      <c r="KP44" t="n">
+        <v>113</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="2">
@@ -41267,8 +41399,11 @@
       <c r="KN45" s="1" t="n">
         <v>223</v>
       </c>
-      <c r="KO45" t="n">
+      <c r="KO45" s="1" t="n">
         <v>217</v>
+      </c>
+      <c r="KP45" t="n">
+        <v>235</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="2">
@@ -42174,8 +42309,11 @@
       <c r="KN46" s="1" t="n">
         <v>266</v>
       </c>
-      <c r="KO46" t="n">
+      <c r="KO46" s="1" t="n">
         <v>261</v>
+      </c>
+      <c r="KP46" t="n">
+        <v>264</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="2">
@@ -43081,8 +43219,11 @@
       <c r="KN47" s="1" t="n">
         <v>75.59999999999999</v>
       </c>
-      <c r="KO47" t="n">
+      <c r="KO47" s="1" t="n">
         <v>74.8</v>
+      </c>
+      <c r="KP47" t="n">
+        <v>73.5</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="2">
@@ -43988,7 +44129,10 @@
       <c r="KN48" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="KO48" t="n">
+      <c r="KO48" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="KP48" t="n">
         <v>58</v>
       </c>
     </row>
@@ -44895,8 +45039,11 @@
       <c r="KN49" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="KO49" t="n">
+      <c r="KO49" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="KP49" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="2">
@@ -45802,8 +45949,11 @@
       <c r="KN50" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="KO50" t="n">
+      <c r="KO50" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="KP50" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="2">
@@ -46709,8 +46859,11 @@
       <c r="KN51" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="KO51" t="n">
+      <c r="KO51" s="1" t="n">
         <v>39</v>
+      </c>
+      <c r="KP51" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="2">
@@ -47616,8 +47769,11 @@
       <c r="KN52" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="KO52" t="n">
+      <c r="KO52" s="1" t="n">
         <v>45</v>
+      </c>
+      <c r="KP52" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="2">
@@ -48523,8 +48679,11 @@
       <c r="KN53" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="KO53" t="n">
+      <c r="KO53" s="1" t="n">
         <v>40</v>
+      </c>
+      <c r="KP53" t="n">
+        <v>53</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="2">
@@ -49430,8 +49589,11 @@
       <c r="KN54" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="KO54" t="n">
+      <c r="KO54" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="KP54" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="2">
@@ -50337,8 +50499,11 @@
       <c r="KN55" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="KO55" t="n">
+      <c r="KO55" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="KP55" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="2">
@@ -51244,8 +51409,11 @@
       <c r="KN56" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="KO56" t="n">
+      <c r="KO56" s="1" t="n">
         <v>83.3</v>
+      </c>
+      <c r="KP56" t="n">
+        <v>80</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="2">
@@ -52151,8 +52319,11 @@
       <c r="KN57" s="1" t="n">
         <v>208</v>
       </c>
-      <c r="KO57" t="n">
+      <c r="KO57" s="1" t="n">
         <v>223</v>
+      </c>
+      <c r="KP57" t="n">
+        <v>218</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="2">
@@ -53058,8 +53229,11 @@
       <c r="KN58" s="1" t="n">
         <v>196</v>
       </c>
-      <c r="KO58" t="n">
+      <c r="KO58" s="1" t="n">
         <v>163</v>
+      </c>
+      <c r="KP58" t="n">
+        <v>141</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="2">
@@ -53965,8 +54139,11 @@
       <c r="KN59" s="1" t="n">
         <v>404</v>
       </c>
-      <c r="KO59" t="n">
+      <c r="KO59" s="1" t="n">
         <v>386</v>
+      </c>
+      <c r="KP59" t="n">
+        <v>359</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="2">
@@ -54872,8 +55049,11 @@
       <c r="KN60" s="1" t="n">
         <v>1.06</v>
       </c>
-      <c r="KO60" t="n">
+      <c r="KO60" s="1" t="n">
         <v>1.37</v>
+      </c>
+      <c r="KP60" t="n">
+        <v>1.55</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="2">
@@ -55779,8 +55959,11 @@
       <c r="KN61" s="1" t="n">
         <v>82</v>
       </c>
-      <c r="KO61" t="n">
+      <c r="KO61" s="1" t="n">
         <v>108</v>
+      </c>
+      <c r="KP61" t="n">
+        <v>106</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="2">
@@ -56686,8 +56869,11 @@
       <c r="KN62" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="KO62" t="n">
+      <c r="KO62" s="1" t="n">
         <v>62</v>
+      </c>
+      <c r="KP62" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="2">
@@ -57593,8 +57779,11 @@
       <c r="KN63" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="KO63" t="n">
+      <c r="KO63" s="1" t="n">
         <v>29</v>
+      </c>
+      <c r="KP63" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="2">
@@ -58500,8 +58689,11 @@
       <c r="KN64" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="KO64" t="n">
+      <c r="KO64" s="1" t="n">
         <v>22</v>
+      </c>
+      <c r="KP64" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="2">
@@ -59407,8 +59599,11 @@
       <c r="KN65" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="KO65" t="n">
+      <c r="KO65" s="1" t="n">
         <v>20</v>
+      </c>
+      <c r="KP65" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="2">
@@ -60314,8 +60509,11 @@
       <c r="KN66" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="KO66" t="n">
+      <c r="KO66" s="1" t="n">
         <v>13</v>
+      </c>
+      <c r="KP66" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="2">
@@ -61221,8 +61419,11 @@
       <c r="KN67" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="KO67" t="n">
+      <c r="KO67" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="KP67" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="2">
@@ -62128,8 +62329,11 @@
       <c r="KN68" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="KO68" t="n">
+      <c r="KO68" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="KP68" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="2">
@@ -63035,8 +63239,11 @@
       <c r="KN69" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="KO69" t="n">
+      <c r="KO69" s="1" t="n">
         <v>3</v>
+      </c>
+      <c r="KP69" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="2">
@@ -63942,8 +64149,11 @@
       <c r="KN70" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="KO70" t="n">
+      <c r="KO70" s="1" t="n">
         <v>21</v>
+      </c>
+      <c r="KP70" t="n">
+        <v>31</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="2">
@@ -64849,8 +65059,11 @@
       <c r="KN71" s="1" t="n">
         <v>53.6</v>
       </c>
-      <c r="KO71" t="n">
+      <c r="KO71" s="1" t="n">
         <v>61.9</v>
+      </c>
+      <c r="KP71" t="n">
+        <v>45.2</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="2">
@@ -65756,8 +65969,11 @@
       <c r="KN72" s="1" t="n">
         <v>26.93</v>
       </c>
-      <c r="KO72" t="n">
+      <c r="KO72" s="1" t="n">
         <v>29.69</v>
+      </c>
+      <c r="KP72" t="n">
+        <v>25.64</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="2">
@@ -66663,8 +66879,11 @@
       <c r="KN73" s="1" t="n">
         <v>14.43</v>
       </c>
-      <c r="KO73" t="n">
+      <c r="KO73" s="1" t="n">
         <v>18.38</v>
+      </c>
+      <c r="KP73" t="n">
+        <v>11.58</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="2">
@@ -67570,8 +67789,11 @@
       <c r="KN74" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="KO74" t="n">
+      <c r="KO74" s="1" t="n">
         <v>34</v>
+      </c>
+      <c r="KP74" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="2">
@@ -68477,8 +68699,11 @@
       <c r="KN75" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="KO75" t="n">
+      <c r="KO75" s="1" t="n">
         <v>58</v>
+      </c>
+      <c r="KP75" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="2">
@@ -69384,8 +69609,11 @@
       <c r="KN76" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="KO76" t="n">
+      <c r="KO76" s="1" t="n">
         <v>36</v>
+      </c>
+      <c r="KP76" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="2">
@@ -70291,8 +70519,11 @@
       <c r="KN77" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="KO77" t="n">
+      <c r="KO77" s="1" t="n">
         <v>60</v>
+      </c>
+      <c r="KP77" t="n">
+        <v>56</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="2">
@@ -71198,8 +71429,11 @@
       <c r="KN78" s="1" t="n">
         <v>2.46</v>
       </c>
-      <c r="KO78" t="n">
+      <c r="KO78" s="1" t="n">
         <v>2.86</v>
+      </c>
+      <c r="KP78" t="n">
+        <v>1.81</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="2">
@@ -72105,8 +72339,11 @@
       <c r="KN79" s="1" t="n">
         <v>4.6</v>
       </c>
-      <c r="KO79" t="n">
+      <c r="KO79" s="1" t="n">
         <v>4.62</v>
+      </c>
+      <c r="KP79" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="2">
@@ -73012,8 +73249,11 @@
       <c r="KN80" s="1" t="n">
         <v>33.3</v>
       </c>
-      <c r="KO80" t="n">
+      <c r="KO80" s="1" t="n">
         <v>30</v>
+      </c>
+      <c r="KP80" t="n">
+        <v>42.9</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="2">
@@ -73919,8 +74159,11 @@
       <c r="KN81" s="1" t="n">
         <v>21.7</v>
       </c>
-      <c r="KO81" t="n">
+      <c r="KO81" s="1" t="n">
         <v>21.7</v>
+      </c>
+      <c r="KP81" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="2">
@@ -74826,8 +75069,11 @@
       <c r="KN82" s="1" t="n">
         <v>186.3</v>
       </c>
-      <c r="KO82" t="n">
+      <c r="KO82" s="1" t="n">
         <v>188.7</v>
+      </c>
+      <c r="KP82" t="n">
+        <v>186.6</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="2">
@@ -75733,8 +75979,11 @@
       <c r="KN83" s="1" t="n">
         <v>86.59999999999999</v>
       </c>
-      <c r="KO83" t="n">
+      <c r="KO83" s="1" t="n">
         <v>87</v>
+      </c>
+      <c r="KP83" t="n">
+        <v>86.7</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="2">
@@ -76640,8 +76889,11 @@
       <c r="KN84" s="1" t="n">
         <v>26.33</v>
       </c>
-      <c r="KO84" t="n">
+      <c r="KO84" s="1" t="n">
         <v>24.91</v>
+      </c>
+      <c r="KP84" t="n">
+        <v>27.66</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="2">
@@ -77547,8 +77799,11 @@
       <c r="KN85" s="1" t="n">
         <v>121.3</v>
       </c>
-      <c r="KO85" t="n">
+      <c r="KO85" s="1" t="n">
         <v>84.40000000000001</v>
+      </c>
+      <c r="KP85" t="n">
+        <v>142.3</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="2">
@@ -78454,8 +78709,11 @@
       <c r="KN86" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="KO86" t="n">
+      <c r="KO86" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="KP86" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="2">
@@ -79361,8 +79619,11 @@
       <c r="KN87" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="KO87" t="n">
+      <c r="KO87" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="KP87" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="2">
@@ -80268,7 +80529,10 @@
       <c r="KN88" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="KO88" t="n">
+      <c r="KO88" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="KP88" t="n">
         <v>7</v>
       </c>
     </row>
@@ -81175,8 +81439,11 @@
       <c r="KN89" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="KO89" t="n">
+      <c r="KO89" s="1" t="n">
         <v>2</v>
+      </c>
+      <c r="KP89" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="2">
@@ -82082,8 +82349,11 @@
       <c r="KN90" s="1" t="n">
         <v>148</v>
       </c>
-      <c r="KO90" t="n">
+      <c r="KO90" s="1" t="n">
         <v>139</v>
+      </c>
+      <c r="KP90" t="n">
+        <v>119</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="2">
@@ -82989,8 +83259,11 @@
       <c r="KN91" s="1" t="n">
         <v>253</v>
       </c>
-      <c r="KO91" t="n">
+      <c r="KO91" s="1" t="n">
         <v>242</v>
+      </c>
+      <c r="KP91" t="n">
+        <v>232</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="2">
@@ -83896,8 +84169,11 @@
       <c r="KN92" s="1" t="n">
         <v>291</v>
       </c>
-      <c r="KO92" t="n">
+      <c r="KO92" s="1" t="n">
         <v>284</v>
+      </c>
+      <c r="KP92" t="n">
+        <v>271</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="2">
@@ -84803,8 +85079,11 @@
       <c r="KN93" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="KO93" t="n">
+      <c r="KO93" s="1" t="n">
         <v>73.59999999999999</v>
+      </c>
+      <c r="KP93" t="n">
+        <v>75.5</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="2">
@@ -85710,8 +85989,11 @@
       <c r="KN94" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="KO94" t="n">
+      <c r="KO94" s="1" t="n">
         <v>58</v>
+      </c>
+      <c r="KP94" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="2">
@@ -86617,8 +86899,11 @@
       <c r="KN95" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="KO95" t="n">
+      <c r="KO95" s="1" t="n">
         <v>14</v>
+      </c>
+      <c r="KP95" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="2">
@@ -87524,8 +87809,11 @@
       <c r="KN96" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="KO96" t="n">
+      <c r="KO96" s="1" t="n">
         <v>14</v>
+      </c>
+      <c r="KP96" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="2">
@@ -88431,8 +88719,11 @@
       <c r="KN97" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="KO97" t="n">
+      <c r="KO97" s="1" t="n">
         <v>34</v>
+      </c>
+      <c r="KP97" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="2">
@@ -89338,8 +89629,11 @@
       <c r="KN98" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="KO98" t="n">
+      <c r="KO98" s="1" t="n">
         <v>36</v>
+      </c>
+      <c r="KP98" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="2">
@@ -90245,8 +90539,11 @@
       <c r="KN99" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="KO99" t="n">
+      <c r="KO99" s="1" t="n">
         <v>41</v>
+      </c>
+      <c r="KP99" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="2">
@@ -91152,8 +91449,11 @@
       <c r="KN100" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="KO100" t="n">
+      <c r="KO100" s="1" t="n">
         <v>20</v>
+      </c>
+      <c r="KP100" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="2">
@@ -92059,8 +92359,11 @@
       <c r="KN101" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="KO101" t="n">
+      <c r="KO101" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="KP101" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="2">
@@ -92966,8 +93269,11 @@
       <c r="KN102" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="KO102" t="n">
+      <c r="KO102" s="1" t="n">
         <v>76.90000000000001</v>
+      </c>
+      <c r="KP102" t="n">
+        <v>64.3</v>
       </c>
     </row>
   </sheetData>

--- a/AFL_ML/Data/North Melbourne_stats.xlsx
+++ b/AFL_ML/Data/North Melbourne_stats.xlsx
@@ -445,7 +445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:KR102"/>
+  <dimension ref="A1:KU102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="JT88" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="KA93" activeCellId="0" sqref="KA93"/>
@@ -1368,8 +1368,17 @@
       <c r="KQ1" s="1" t="n">
         <v>10954</v>
       </c>
-      <c r="KR1" t="n">
+      <c r="KR1" s="1" t="n">
         <v>10974</v>
+      </c>
+      <c r="KS1" s="1" t="n">
+        <v>10982</v>
+      </c>
+      <c r="KT1" s="1" t="n">
+        <v>10989</v>
+      </c>
+      <c r="KU1" t="n">
+        <v>10997</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="2">
@@ -2284,7 +2293,16 @@
       <c r="KQ2" s="1" t="n">
         <v>2023</v>
       </c>
-      <c r="KR2" t="n">
+      <c r="KR2" s="1" t="n">
+        <v>2023</v>
+      </c>
+      <c r="KS2" s="1" t="n">
+        <v>2023</v>
+      </c>
+      <c r="KT2" s="1" t="n">
+        <v>2023</v>
+      </c>
+      <c r="KU2" t="n">
         <v>2023</v>
       </c>
     </row>
@@ -3200,8 +3218,17 @@
       <c r="KQ3" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="KR3" t="n">
+      <c r="KR3" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="KS3" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="KT3" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="KU3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="2">
@@ -4116,7 +4143,16 @@
       <c r="KQ4" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="KR4" t="n">
+      <c r="KR4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="KS4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KT4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KU4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5032,7 +5068,16 @@
       <c r="KQ5" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="KR5" t="n">
+      <c r="KR5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KS5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="KT5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="KU5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5948,8 +5993,17 @@
       <c r="KQ6" s="1" t="n">
         <v>132</v>
       </c>
-      <c r="KR6" t="n">
+      <c r="KR6" s="1" t="n">
         <v>82</v>
+      </c>
+      <c r="KS6" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="KT6" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="KU6" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="2">
@@ -6864,8 +6918,17 @@
       <c r="KQ7" s="1" t="n">
         <v>97</v>
       </c>
-      <c r="KR7" t="n">
+      <c r="KR7" s="1" t="n">
         <v>121</v>
+      </c>
+      <c r="KS7" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="KT7" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="KU7" t="n">
+        <v>112</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="2">
@@ -7780,8 +7843,17 @@
       <c r="KQ8" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="KR8" t="n">
+      <c r="KR8" s="1" t="n">
         <v>-39</v>
+      </c>
+      <c r="KS8" s="1" t="n">
+        <v>-26</v>
+      </c>
+      <c r="KT8" s="1" t="n">
+        <v>-56</v>
+      </c>
+      <c r="KU8" t="n">
+        <v>-70</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="2">
@@ -8696,7 +8768,16 @@
       <c r="KQ9" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="KR9" t="n">
+      <c r="KR9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KS9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KT9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KU9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9612,8 +9693,17 @@
       <c r="KQ10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="KR10" t="n">
+      <c r="KR10" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="KS10" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="KT10" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="KU10" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="2">
@@ -10528,8 +10618,17 @@
       <c r="KQ11" s="1" t="n">
         <v>222</v>
       </c>
-      <c r="KR11" t="n">
+      <c r="KR11" s="1" t="n">
         <v>205</v>
+      </c>
+      <c r="KS11" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="KT11" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="KU11" t="n">
+        <v>181</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="2">
@@ -11444,8 +11543,17 @@
       <c r="KQ12" s="1" t="n">
         <v>176</v>
       </c>
-      <c r="KR12" t="n">
+      <c r="KR12" s="1" t="n">
         <v>137</v>
+      </c>
+      <c r="KS12" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="KT12" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="KU12" t="n">
+        <v>158</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="2">
@@ -12360,8 +12468,17 @@
       <c r="KQ13" s="1" t="n">
         <v>398</v>
       </c>
-      <c r="KR13" t="n">
+      <c r="KR13" s="1" t="n">
         <v>342</v>
+      </c>
+      <c r="KS13" s="1" t="n">
+        <v>361</v>
+      </c>
+      <c r="KT13" s="1" t="n">
+        <v>331</v>
+      </c>
+      <c r="KU13" t="n">
+        <v>339</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="2">
@@ -13276,8 +13393,17 @@
       <c r="KQ14" s="1" t="n">
         <v>1.26</v>
       </c>
-      <c r="KR14" t="n">
+      <c r="KR14" s="1" t="n">
         <v>1.5</v>
+      </c>
+      <c r="KS14" s="1" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="KT14" s="1" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="KU14" t="n">
+        <v>1.15</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="2">
@@ -14192,8 +14318,17 @@
       <c r="KQ15" s="1" t="n">
         <v>105</v>
       </c>
-      <c r="KR15" t="n">
+      <c r="KR15" s="1" t="n">
         <v>89</v>
+      </c>
+      <c r="KS15" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="KT15" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="KU15" t="n">
+        <v>69</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="2">
@@ -15108,8 +15243,17 @@
       <c r="KQ16" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="KR16" t="n">
+      <c r="KR16" s="1" t="n">
         <v>47</v>
+      </c>
+      <c r="KS16" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="KT16" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="KU16" t="n">
+        <v>81</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="2">
@@ -16024,8 +16168,17 @@
       <c r="KQ17" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="KR17" t="n">
+      <c r="KR17" s="1" t="n">
         <v>24</v>
+      </c>
+      <c r="KS17" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="KT17" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="KU17" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="2">
@@ -16940,8 +17093,17 @@
       <c r="KQ18" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="KR18" t="n">
+      <c r="KR18" s="1" t="n">
         <v>22</v>
+      </c>
+      <c r="KS18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="KT18" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="KU18" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="2">
@@ -17856,8 +18018,17 @@
       <c r="KQ19" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="KR19" t="n">
+      <c r="KR19" s="1" t="n">
         <v>14</v>
+      </c>
+      <c r="KS19" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="KT19" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="KU19" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="2">
@@ -18772,8 +18943,17 @@
       <c r="KQ20" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="KR20" t="n">
+      <c r="KR20" s="1" t="n">
         <v>13</v>
+      </c>
+      <c r="KS20" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="KT20" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="KU20" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="2">
@@ -19688,8 +19868,17 @@
       <c r="KQ21" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="KR21" t="n">
+      <c r="KR21" s="1" t="n">
         <v>11</v>
+      </c>
+      <c r="KS21" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="KT21" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="KU21" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="2">
@@ -20604,8 +20793,17 @@
       <c r="KQ22" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="KR22" t="n">
+      <c r="KR22" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="KS22" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="KT22" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="KU22" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="2">
@@ -21520,8 +21718,17 @@
       <c r="KQ23" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="KR23" t="n">
+      <c r="KR23" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="KS23" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="KT23" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="KU23" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="2">
@@ -22436,8 +22643,17 @@
       <c r="KQ24" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="KR24" t="n">
+      <c r="KR24" s="1" t="n">
         <v>17</v>
+      </c>
+      <c r="KS24" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="KT24" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="KU24" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="2">
@@ -23352,8 +23568,17 @@
       <c r="KQ25" s="1" t="n">
         <v>62.5</v>
       </c>
-      <c r="KR25" t="n">
+      <c r="KR25" s="1" t="n">
         <v>76.5</v>
+      </c>
+      <c r="KS25" s="1" t="n">
+        <v>52.4</v>
+      </c>
+      <c r="KT25" s="1" t="n">
+        <v>57.1</v>
+      </c>
+      <c r="KU25" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="2">
@@ -24268,8 +24493,17 @@
       <c r="KQ26" s="1" t="n">
         <v>19.9</v>
       </c>
-      <c r="KR26" t="n">
+      <c r="KR26" s="1" t="n">
         <v>26.31</v>
+      </c>
+      <c r="KS26" s="1" t="n">
+        <v>32.82</v>
+      </c>
+      <c r="KT26" s="1" t="n">
+        <v>27.58</v>
+      </c>
+      <c r="KU26" t="n">
+        <v>56.5</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="2">
@@ -25184,8 +25418,17 @@
       <c r="KQ27" s="1" t="n">
         <v>12.44</v>
       </c>
-      <c r="KR27" t="n">
+      <c r="KR27" s="1" t="n">
         <v>20.12</v>
+      </c>
+      <c r="KS27" s="1" t="n">
+        <v>17.19</v>
+      </c>
+      <c r="KT27" s="1" t="n">
+        <v>15.76</v>
+      </c>
+      <c r="KU27" t="n">
+        <v>28.25</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="2">
@@ -26100,8 +26343,17 @@
       <c r="KQ28" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="KR28" t="n">
+      <c r="KR28" s="1" t="n">
         <v>32</v>
+      </c>
+      <c r="KS28" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="KT28" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="KU28" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="2">
@@ -27016,8 +27268,17 @@
       <c r="KQ29" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="KR29" t="n">
+      <c r="KR29" s="1" t="n">
         <v>44</v>
+      </c>
+      <c r="KS29" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="KT29" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="KU29" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="2">
@@ -27932,8 +28193,17 @@
       <c r="KQ30" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="KR30" t="n">
+      <c r="KR30" s="1" t="n">
         <v>43</v>
+      </c>
+      <c r="KS30" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="KT30" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="KU30" t="n">
+        <v>53</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="2">
@@ -28848,8 +29118,17 @@
       <c r="KQ31" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="KR31" t="n">
+      <c r="KR31" s="1" t="n">
         <v>46</v>
+      </c>
+      <c r="KS31" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="KT31" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="KU31" t="n">
+        <v>31</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="2">
@@ -29764,8 +30043,17 @@
       <c r="KQ32" s="1" t="n">
         <v>1.97</v>
       </c>
-      <c r="KR32" t="n">
+      <c r="KR32" s="1" t="n">
         <v>2.71</v>
+      </c>
+      <c r="KS32" s="1" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="KT32" s="1" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="KU32" t="n">
+        <v>2.58</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="2">
@@ -30680,8 +30968,17 @@
       <c r="KQ33" s="1" t="n">
         <v>3.15</v>
       </c>
-      <c r="KR33" t="n">
+      <c r="KR33" s="1" t="n">
         <v>3.54</v>
+      </c>
+      <c r="KS33" s="1" t="n">
+        <v>5.18</v>
+      </c>
+      <c r="KT33" s="1" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="KU33" t="n">
+        <v>5.17</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="2">
@@ -31596,8 +31893,17 @@
       <c r="KQ34" s="1" t="n">
         <v>42.9</v>
       </c>
-      <c r="KR34" t="n">
+      <c r="KR34" s="1" t="n">
         <v>37</v>
+      </c>
+      <c r="KS34" s="1" t="n">
+        <v>31.6</v>
+      </c>
+      <c r="KT34" s="1" t="n">
+        <v>33.3</v>
+      </c>
+      <c r="KU34" t="n">
+        <v>35.5</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="2">
@@ -32512,8 +32818,17 @@
       <c r="KQ35" s="1" t="n">
         <v>31.7</v>
       </c>
-      <c r="KR35" t="n">
+      <c r="KR35" s="1" t="n">
         <v>28.3</v>
+      </c>
+      <c r="KS35" s="1" t="n">
+        <v>19.3</v>
+      </c>
+      <c r="KT35" s="1" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="KU35" t="n">
+        <v>19.4</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="2">
@@ -33428,8 +33743,17 @@
       <c r="KQ36" s="1" t="n">
         <v>189.3</v>
       </c>
-      <c r="KR36" t="n">
+      <c r="KR36" s="1" t="n">
         <v>188.3</v>
+      </c>
+      <c r="KS36" s="1" t="n">
+        <v>188.2</v>
+      </c>
+      <c r="KT36" s="1" t="n">
+        <v>188.2</v>
+      </c>
+      <c r="KU36" t="n">
+        <v>188.2</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="2">
@@ -34344,8 +34668,17 @@
       <c r="KQ37" s="1" t="n">
         <v>83.90000000000001</v>
       </c>
-      <c r="KR37" t="n">
+      <c r="KR37" s="1" t="n">
         <v>85.2</v>
+      </c>
+      <c r="KS37" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="KT37" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="KU37" t="n">
+        <v>84.7</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="2">
@@ -35260,8 +35593,17 @@
       <c r="KQ38" s="1" t="n">
         <v>24.41</v>
       </c>
-      <c r="KR38" t="n">
+      <c r="KR38" s="1" t="n">
         <v>23.91</v>
+      </c>
+      <c r="KS38" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="KT38" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="KU38" t="n">
+        <v>24.66</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="2">
@@ -36176,8 +36518,17 @@
       <c r="KQ39" s="1" t="n">
         <v>74.90000000000001</v>
       </c>
-      <c r="KR39" t="n">
+      <c r="KR39" s="1" t="n">
         <v>61.6</v>
+      </c>
+      <c r="KS39" s="1" t="n">
+        <v>63.9</v>
+      </c>
+      <c r="KT39" s="1" t="n">
+        <v>64.90000000000001</v>
+      </c>
+      <c r="KU39" t="n">
+        <v>80.3</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="2">
@@ -37092,8 +37443,17 @@
       <c r="KQ40" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="KR40" t="n">
+      <c r="KR40" s="1" t="n">
         <v>14</v>
+      </c>
+      <c r="KS40" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="KT40" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="KU40" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="41" ht="13.8" customHeight="1" s="2">
@@ -38008,7 +38368,16 @@
       <c r="KQ41" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="KR41" t="n">
+      <c r="KR41" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="KS41" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="KT41" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="KU41" t="n">
         <v>3</v>
       </c>
     </row>
@@ -38924,8 +39293,17 @@
       <c r="KQ42" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="KR42" t="n">
+      <c r="KR42" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="KS42" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="KT42" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="KU42" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="43" ht="13.8" customHeight="1" s="2">
@@ -39840,8 +40218,17 @@
       <c r="KQ43" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="KR43" t="n">
+      <c r="KR43" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="KS43" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="KT43" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="KU43" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="44" ht="13.8" customHeight="1" s="2">
@@ -40756,8 +41143,17 @@
       <c r="KQ44" s="1" t="n">
         <v>118</v>
       </c>
-      <c r="KR44" t="n">
+      <c r="KR44" s="1" t="n">
         <v>113</v>
+      </c>
+      <c r="KS44" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="KT44" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="KU44" t="n">
+        <v>122</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="2">
@@ -41672,8 +42068,17 @@
       <c r="KQ45" s="1" t="n">
         <v>265</v>
       </c>
-      <c r="KR45" t="n">
+      <c r="KR45" s="1" t="n">
         <v>209</v>
+      </c>
+      <c r="KS45" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="KT45" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="KU45" t="n">
+        <v>205</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="2">
@@ -42588,8 +42993,17 @@
       <c r="KQ46" s="1" t="n">
         <v>310</v>
       </c>
-      <c r="KR46" t="n">
+      <c r="KR46" s="1" t="n">
         <v>275</v>
+      </c>
+      <c r="KS46" s="1" t="n">
+        <v>280</v>
+      </c>
+      <c r="KT46" s="1" t="n">
+        <v>256</v>
+      </c>
+      <c r="KU46" t="n">
+        <v>254</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="2">
@@ -43504,8 +43918,17 @@
       <c r="KQ47" s="1" t="n">
         <v>77.90000000000001</v>
       </c>
-      <c r="KR47" t="n">
+      <c r="KR47" s="1" t="n">
         <v>80.40000000000001</v>
+      </c>
+      <c r="KS47" s="1" t="n">
+        <v>77.59999999999999</v>
+      </c>
+      <c r="KT47" s="1" t="n">
+        <v>77.3</v>
+      </c>
+      <c r="KU47" t="n">
+        <v>74.90000000000001</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="2">
@@ -44420,8 +44843,17 @@
       <c r="KQ48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="KR48" t="n">
+      <c r="KR48" s="1" t="n">
         <v>44</v>
+      </c>
+      <c r="KS48" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="KT48" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="KU48" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="2">
@@ -45336,7 +45768,16 @@
       <c r="KQ49" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="KR49" t="n">
+      <c r="KR49" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="KS49" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="KT49" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="KU49" t="n">
         <v>7</v>
       </c>
     </row>
@@ -46252,8 +46693,17 @@
       <c r="KQ50" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="KR50" t="n">
+      <c r="KR50" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="KS50" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="KT50" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="KU50" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="2">
@@ -47168,8 +47618,17 @@
       <c r="KQ51" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="KR51" t="n">
+      <c r="KR51" s="1" t="n">
         <v>32</v>
+      </c>
+      <c r="KS51" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="KT51" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="KU51" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="2">
@@ -48084,8 +48543,17 @@
       <c r="KQ52" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="KR52" t="n">
+      <c r="KR52" s="1" t="n">
         <v>43</v>
+      </c>
+      <c r="KS52" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="KT52" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="KU52" t="n">
+        <v>53</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="2">
@@ -49000,8 +49468,17 @@
       <c r="KQ53" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="KR53" t="n">
+      <c r="KR53" s="1" t="n">
         <v>44</v>
+      </c>
+      <c r="KS53" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="KT53" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="KU53" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="2">
@@ -49916,8 +50393,17 @@
       <c r="KQ54" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="KR54" t="n">
+      <c r="KR54" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="KS54" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="KT54" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="KU54" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="2">
@@ -50832,8 +51318,17 @@
       <c r="KQ55" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="KR55" t="n">
+      <c r="KR55" s="1" t="n">
         <v>11</v>
+      </c>
+      <c r="KS55" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="KT55" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="KU55" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="2">
@@ -51748,8 +52243,17 @@
       <c r="KQ56" s="1" t="n">
         <v>85</v>
       </c>
-      <c r="KR56" t="n">
+      <c r="KR56" s="1" t="n">
         <v>84.59999999999999</v>
+      </c>
+      <c r="KS56" s="1" t="n">
+        <v>81.8</v>
+      </c>
+      <c r="KT56" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="KU56" t="n">
+        <v>66.7</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="2">
@@ -52664,8 +53168,17 @@
       <c r="KQ57" s="1" t="n">
         <v>227</v>
       </c>
-      <c r="KR57" t="n">
+      <c r="KR57" s="1" t="n">
         <v>229</v>
+      </c>
+      <c r="KS57" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="KT57" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="KU57" t="n">
+        <v>221</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="2">
@@ -53580,8 +54093,17 @@
       <c r="KQ58" s="1" t="n">
         <v>144</v>
       </c>
-      <c r="KR58" t="n">
+      <c r="KR58" s="1" t="n">
         <v>176</v>
+      </c>
+      <c r="KS58" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="KT58" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="KU58" t="n">
+        <v>168</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="2">
@@ -54496,8 +55018,17 @@
       <c r="KQ59" s="1" t="n">
         <v>371</v>
       </c>
-      <c r="KR59" t="n">
+      <c r="KR59" s="1" t="n">
         <v>405</v>
+      </c>
+      <c r="KS59" s="1" t="n">
+        <v>353</v>
+      </c>
+      <c r="KT59" s="1" t="n">
+        <v>366</v>
+      </c>
+      <c r="KU59" t="n">
+        <v>389</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="2">
@@ -55412,8 +55943,17 @@
       <c r="KQ60" s="1" t="n">
         <v>1.58</v>
       </c>
-      <c r="KR60" t="n">
+      <c r="KR60" s="1" t="n">
         <v>1.3</v>
+      </c>
+      <c r="KS60" s="1" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="KT60" s="1" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="KU60" t="n">
+        <v>1.32</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="2">
@@ -56328,8 +56868,17 @@
       <c r="KQ61" s="1" t="n">
         <v>87</v>
       </c>
-      <c r="KR61" t="n">
+      <c r="KR61" s="1" t="n">
         <v>117</v>
+      </c>
+      <c r="KS61" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="KT61" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="KU61" t="n">
+        <v>94</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="2">
@@ -57244,8 +57793,17 @@
       <c r="KQ62" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="KR62" t="n">
+      <c r="KR62" s="1" t="n">
         <v>45</v>
+      </c>
+      <c r="KS62" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="KT62" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="KU62" t="n">
+        <v>62</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="2">
@@ -58160,8 +58718,17 @@
       <c r="KQ63" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="KR63" t="n">
+      <c r="KR63" s="1" t="n">
         <v>22</v>
+      </c>
+      <c r="KS63" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="KT63" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="KU63" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="2">
@@ -59076,8 +59643,17 @@
       <c r="KQ64" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="KR64" t="n">
+      <c r="KR64" s="1" t="n">
         <v>14</v>
+      </c>
+      <c r="KS64" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="KT64" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="KU64" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="2">
@@ -59992,8 +60568,17 @@
       <c r="KQ65" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="KR65" t="n">
+      <c r="KR65" s="1" t="n">
         <v>22</v>
+      </c>
+      <c r="KS65" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="KT65" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="KU65" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="2">
@@ -60908,8 +61493,17 @@
       <c r="KQ66" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="KR66" t="n">
+      <c r="KR66" s="1" t="n">
         <v>17</v>
+      </c>
+      <c r="KS66" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="KT66" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="KU66" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="2">
@@ -61824,8 +62418,17 @@
       <c r="KQ67" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="KR67" t="n">
+      <c r="KR67" s="1" t="n">
         <v>14</v>
+      </c>
+      <c r="KS67" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="KT67" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="KU67" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="2">
@@ -62740,8 +63343,17 @@
       <c r="KQ68" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="KR68" t="n">
+      <c r="KR68" s="1" t="n">
         <v>18</v>
+      </c>
+      <c r="KS68" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="KT68" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="KU68" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="2">
@@ -63656,8 +64268,17 @@
       <c r="KQ69" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="KR69" t="n">
+      <c r="KR69" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="KS69" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="KT69" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="KU69" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="2">
@@ -64572,8 +65193,17 @@
       <c r="KQ70" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="KR70" t="n">
+      <c r="KR70" s="1" t="n">
         <v>36</v>
+      </c>
+      <c r="KS70" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="KT70" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="KU70" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="2">
@@ -65488,8 +66118,17 @@
       <c r="KQ71" s="1" t="n">
         <v>51.9</v>
       </c>
-      <c r="KR71" t="n">
+      <c r="KR71" s="1" t="n">
         <v>47.2</v>
+      </c>
+      <c r="KS71" s="1" t="n">
+        <v>55.6</v>
+      </c>
+      <c r="KT71" s="1" t="n">
+        <v>65.59999999999999</v>
+      </c>
+      <c r="KU71" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="2">
@@ -66404,8 +67043,17 @@
       <c r="KQ72" s="1" t="n">
         <v>26.5</v>
       </c>
-      <c r="KR72" t="n">
+      <c r="KR72" s="1" t="n">
         <v>23.82</v>
+      </c>
+      <c r="KS72" s="1" t="n">
+        <v>23.53</v>
+      </c>
+      <c r="KT72" s="1" t="n">
+        <v>17.43</v>
+      </c>
+      <c r="KU72" t="n">
+        <v>24.31</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="2">
@@ -67320,8 +67968,17 @@
       <c r="KQ73" s="1" t="n">
         <v>13.74</v>
       </c>
-      <c r="KR73" t="n">
+      <c r="KR73" s="1" t="n">
         <v>11.25</v>
+      </c>
+      <c r="KS73" s="1" t="n">
+        <v>13.07</v>
+      </c>
+      <c r="KT73" s="1" t="n">
+        <v>11.44</v>
+      </c>
+      <c r="KU73" t="n">
+        <v>12.16</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="2">
@@ -68236,8 +68893,17 @@
       <c r="KQ74" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="KR74" t="n">
+      <c r="KR74" s="1" t="n">
         <v>27</v>
+      </c>
+      <c r="KS74" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="KT74" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="KU74" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="2">
@@ -69152,8 +69818,17 @@
       <c r="KQ75" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="KR75" t="n">
+      <c r="KR75" s="1" t="n">
         <v>60</v>
+      </c>
+      <c r="KS75" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="KT75" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="KU75" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="2">
@@ -70068,8 +70743,17 @@
       <c r="KQ76" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="KR76" t="n">
+      <c r="KR76" s="1" t="n">
         <v>33</v>
+      </c>
+      <c r="KS76" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="KT76" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="KU76" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="2">
@@ -70984,8 +71668,17 @@
       <c r="KQ77" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="KR77" t="n">
+      <c r="KR77" s="1" t="n">
         <v>60</v>
+      </c>
+      <c r="KS77" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="KT77" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="KU77" t="n">
+        <v>71</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="2">
@@ -71900,8 +72593,17 @@
       <c r="KQ78" s="1" t="n">
         <v>1.96</v>
       </c>
-      <c r="KR78" t="n">
+      <c r="KR78" s="1" t="n">
         <v>1.67</v>
+      </c>
+      <c r="KS78" s="1" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="KT78" s="1" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="KU78" t="n">
+        <v>2.22</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="2">
@@ -72816,8 +73518,17 @@
       <c r="KQ79" s="1" t="n">
         <v>3.79</v>
       </c>
-      <c r="KR79" t="n">
+      <c r="KR79" s="1" t="n">
         <v>3.53</v>
+      </c>
+      <c r="KS79" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="KT79" s="1" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="KU79" t="n">
+        <v>4.44</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="2">
@@ -73732,8 +74443,17 @@
       <c r="KQ80" s="1" t="n">
         <v>47.2</v>
       </c>
-      <c r="KR80" t="n">
+      <c r="KR80" s="1" t="n">
         <v>58.3</v>
+      </c>
+      <c r="KS80" s="1" t="n">
+        <v>55.6</v>
+      </c>
+      <c r="KT80" s="1" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="KU80" t="n">
+        <v>40.8</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="2">
@@ -74648,8 +75368,17 @@
       <c r="KQ81" s="1" t="n">
         <v>26.4</v>
       </c>
-      <c r="KR81" t="n">
+      <c r="KR81" s="1" t="n">
         <v>28.3</v>
+      </c>
+      <c r="KS81" s="1" t="n">
+        <v>33.3</v>
+      </c>
+      <c r="KT81" s="1" t="n">
+        <v>33.9</v>
+      </c>
+      <c r="KU81" t="n">
+        <v>22.5</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="2">
@@ -75564,8 +76293,17 @@
       <c r="KQ82" s="1" t="n">
         <v>187.4</v>
       </c>
-      <c r="KR82" t="n">
+      <c r="KR82" s="1" t="n">
         <v>188.8</v>
+      </c>
+      <c r="KS82" s="1" t="n">
+        <v>188.7</v>
+      </c>
+      <c r="KT82" s="1" t="n">
+        <v>187.5</v>
+      </c>
+      <c r="KU82" t="n">
+        <v>188.2</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="2">
@@ -76480,8 +77218,17 @@
       <c r="KQ83" s="1" t="n">
         <v>85.7</v>
       </c>
-      <c r="KR83" t="n">
+      <c r="KR83" s="1" t="n">
         <v>87.7</v>
+      </c>
+      <c r="KS83" s="1" t="n">
+        <v>87.3</v>
+      </c>
+      <c r="KT83" s="1" t="n">
+        <v>86.5</v>
+      </c>
+      <c r="KU83" t="n">
+        <v>86.90000000000001</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="2">
@@ -77396,8 +78143,17 @@
       <c r="KQ84" s="1" t="n">
         <v>25.91</v>
       </c>
-      <c r="KR84" t="n">
+      <c r="KR84" s="1" t="n">
         <v>25.41</v>
+      </c>
+      <c r="KS84" s="1" t="n">
+        <v>25.41</v>
+      </c>
+      <c r="KT84" s="1" t="n">
+        <v>26.24</v>
+      </c>
+      <c r="KU84" t="n">
+        <v>26.58</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="2">
@@ -78312,8 +79068,17 @@
       <c r="KQ85" s="1" t="n">
         <v>102.7</v>
       </c>
-      <c r="KR85" t="n">
+      <c r="KR85" s="1" t="n">
         <v>93.40000000000001</v>
+      </c>
+      <c r="KS85" s="1" t="n">
+        <v>88.40000000000001</v>
+      </c>
+      <c r="KT85" s="1" t="n">
+        <v>92.7</v>
+      </c>
+      <c r="KU85" t="n">
+        <v>127.8</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="2">
@@ -79228,8 +79993,17 @@
       <c r="KQ86" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="KR86" t="n">
+      <c r="KR86" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="KS86" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="KT86" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="KU86" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="2">
@@ -80144,8 +80918,17 @@
       <c r="KQ87" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="KR87" t="n">
+      <c r="KR87" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="KS87" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="KT87" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="KU87" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="2">
@@ -81060,8 +81843,17 @@
       <c r="KQ88" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="KR88" t="n">
+      <c r="KR88" s="1" t="n">
         <v>2</v>
+      </c>
+      <c r="KS88" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="KT88" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="KU88" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="2">
@@ -81976,8 +82768,17 @@
       <c r="KQ89" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="KR89" t="n">
+      <c r="KR89" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="KS89" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="KT89" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="KU89" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="2">
@@ -82892,8 +83693,17 @@
       <c r="KQ90" s="1" t="n">
         <v>128</v>
       </c>
-      <c r="KR90" t="n">
+      <c r="KR90" s="1" t="n">
         <v>145</v>
+      </c>
+      <c r="KS90" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="KT90" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="KU90" t="n">
+        <v>148</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="2">
@@ -83808,8 +84618,17 @@
       <c r="KQ91" s="1" t="n">
         <v>238</v>
       </c>
-      <c r="KR91" t="n">
+      <c r="KR91" s="1" t="n">
         <v>266</v>
+      </c>
+      <c r="KS91" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="KT91" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="KU91" t="n">
+        <v>251</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="2">
@@ -84724,8 +85543,17 @@
       <c r="KQ92" s="1" t="n">
         <v>274</v>
       </c>
-      <c r="KR92" t="n">
+      <c r="KR92" s="1" t="n">
         <v>316</v>
+      </c>
+      <c r="KS92" s="1" t="n">
+        <v>278</v>
+      </c>
+      <c r="KT92" s="1" t="n">
+        <v>291</v>
+      </c>
+      <c r="KU92" t="n">
+        <v>281</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="2">
@@ -85640,8 +86468,17 @@
       <c r="KQ93" s="1" t="n">
         <v>73.90000000000001</v>
       </c>
-      <c r="KR93" t="n">
+      <c r="KR93" s="1" t="n">
         <v>78</v>
+      </c>
+      <c r="KS93" s="1" t="n">
+        <v>78.8</v>
+      </c>
+      <c r="KT93" s="1" t="n">
+        <v>79.5</v>
+      </c>
+      <c r="KU93" t="n">
+        <v>72.2</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="2">
@@ -86556,8 +87393,17 @@
       <c r="KQ94" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="KR94" t="n">
+      <c r="KR94" s="1" t="n">
         <v>60</v>
+      </c>
+      <c r="KS94" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="KT94" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="KU94" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="2">
@@ -87472,8 +88318,17 @@
       <c r="KQ95" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="KR95" t="n">
+      <c r="KR95" s="1" t="n">
         <v>22</v>
+      </c>
+      <c r="KS95" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="KT95" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="KU95" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="2">
@@ -88388,8 +89243,17 @@
       <c r="KQ96" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="KR96" t="n">
+      <c r="KR96" s="1" t="n">
         <v>25</v>
+      </c>
+      <c r="KS96" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="KT96" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="KU96" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="2">
@@ -89304,8 +90168,17 @@
       <c r="KQ97" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="KR97" t="n">
+      <c r="KR97" s="1" t="n">
         <v>27</v>
+      </c>
+      <c r="KS97" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="KT97" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="KU97" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="2">
@@ -90220,8 +91093,17 @@
       <c r="KQ98" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="KR98" t="n">
+      <c r="KR98" s="1" t="n">
         <v>33</v>
+      </c>
+      <c r="KS98" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="KT98" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="KU98" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="2">
@@ -91136,8 +92018,17 @@
       <c r="KQ99" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="KR99" t="n">
+      <c r="KR99" s="1" t="n">
         <v>38</v>
+      </c>
+      <c r="KS99" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="KT99" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="KU99" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="2">
@@ -92052,8 +92943,17 @@
       <c r="KQ100" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="KR100" t="n">
+      <c r="KR100" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="KS100" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="KT100" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="KU100" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="2">
@@ -92968,8 +93868,17 @@
       <c r="KQ101" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="KR101" t="n">
+      <c r="KR101" s="1" t="n">
         <v>14</v>
+      </c>
+      <c r="KS101" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="KT101" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="KU101" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="2">
@@ -93884,8 +94793,17 @@
       <c r="KQ102" s="1" t="n">
         <v>64.3</v>
       </c>
-      <c r="KR102" t="n">
+      <c r="KR102" s="1" t="n">
         <v>82.40000000000001</v>
+      </c>
+      <c r="KS102" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="KT102" s="1" t="n">
+        <v>57.1</v>
+      </c>
+      <c r="KU102" t="n">
+        <v>56.2</v>
       </c>
     </row>
   </sheetData>
